--- a/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
+++ b/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
+++ b/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
@@ -709,7 +709,7 @@
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
+++ b/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N163"/>
+  <dimension ref="A1:N174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
     <col width="35" customWidth="1" min="4" max="4"/>
     <col width="38" customWidth="1" min="5" max="5"/>
     <col width="27" customWidth="1" min="6" max="6"/>
-    <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="29" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
     <col width="18" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
@@ -7806,27 +7806,28 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>Development type</t>
+          <t>Oil and gas permission types</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>dev-type</t>
+          <t>oilgas-permission-type</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
         </is>
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>development-phase</t>
+          <t>oilgas-permission-types</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr">
         <is>
-          <t>Development phase</t>
+          <t>Oil and gas permission types[]</t>
         </is>
       </c>
       <c r="F153" s="2" t="inlineStr"/>
@@ -7837,7 +7838,7 @@
       <c r="K153" s="2" t="inlineStr"/>
       <c r="L153" s="2" t="inlineStr">
         <is>
-          <t>Phases of oil and gas development the application covers</t>
+          <t>List of permission types being applied for</t>
         </is>
       </c>
       <c r="M153" s="2" t="inlineStr">
@@ -7856,28 +7857,37 @@
       <c r="B154" s="2" t="n"/>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
         </is>
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>development-description</t>
+          <t>related-permissions</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr">
         <is>
-          <t>Development description</t>
-        </is>
-      </c>
-      <c r="F154" s="2" t="inlineStr"/>
-      <c r="G154" s="2" t="inlineStr"/>
+          <t>Related permissions[]</t>
+        </is>
+      </c>
+      <c r="F154" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G154" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H154" s="2" t="inlineStr"/>
       <c r="I154" s="2" t="inlineStr"/>
       <c r="J154" s="2" t="inlineStr"/>
       <c r="K154" s="2" t="inlineStr"/>
       <c r="L154" s="2" t="inlineStr">
         <is>
-          <t>Brief description of the development, including main oils, gases, and machinery</t>
+          <t>The reference for the related application that permission was received for</t>
         </is>
       </c>
       <c r="M154" s="2" t="inlineStr">
@@ -7896,33 +7906,42 @@
       <c r="B155" s="2" t="n"/>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
         </is>
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>quantity-cubic-metres</t>
+          <t>related-permissions</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
-          <t>Quantity cubic metres</t>
-        </is>
-      </c>
-      <c r="F155" s="2" t="inlineStr"/>
-      <c r="G155" s="2" t="inlineStr"/>
+          <t>Related permissions[]</t>
+        </is>
+      </c>
+      <c r="F155" s="2" t="inlineStr">
+        <is>
+          <t>oilgas-permission-type</t>
+        </is>
+      </c>
+      <c r="G155" s="2" t="inlineStr">
+        <is>
+          <t>Oil and gas permission type</t>
+        </is>
+      </c>
       <c r="H155" s="2" t="inlineStr"/>
       <c r="I155" s="2" t="inlineStr"/>
       <c r="J155" s="2" t="inlineStr"/>
       <c r="K155" s="2" t="inlineStr"/>
       <c r="L155" s="2" t="inlineStr">
         <is>
-          <t>Quantity of oil or gas involved in cubic metres</t>
+          <t>An oil and gas related permission type</t>
         </is>
       </c>
       <c r="M155" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N155" s="2" t="inlineStr">
@@ -7936,38 +7955,47 @@
       <c r="B156" s="2" t="n"/>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
         </is>
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>permission-period-years</t>
+          <t>related-permissions</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
-          <t>Permission period years</t>
-        </is>
-      </c>
-      <c r="F156" s="2" t="inlineStr"/>
-      <c r="G156" s="2" t="inlineStr"/>
+          <t>Related permissions[]</t>
+        </is>
+      </c>
+      <c r="F156" s="2" t="inlineStr">
+        <is>
+          <t>decision-date</t>
+        </is>
+      </c>
+      <c r="G156" s="2" t="inlineStr">
+        <is>
+          <t>Decision date</t>
+        </is>
+      </c>
       <c r="H156" s="2" t="inlineStr"/>
       <c r="I156" s="2" t="inlineStr"/>
       <c r="J156" s="2" t="inlineStr"/>
       <c r="K156" s="2" t="inlineStr"/>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>Period of permission sought in years</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M156" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N156" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7976,28 +8004,37 @@
       <c r="B157" s="2" t="n"/>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
         </is>
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>hydrocarbon-licence-block</t>
+          <t>related-permissions</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr">
         <is>
-          <t>Hydrocarbon licence block</t>
-        </is>
-      </c>
-      <c r="F157" s="2" t="inlineStr"/>
-      <c r="G157" s="2" t="inlineStr"/>
+          <t>Related permissions[]</t>
+        </is>
+      </c>
+      <c r="F157" s="2" t="inlineStr">
+        <is>
+          <t>condition-number</t>
+        </is>
+      </c>
+      <c r="G157" s="2" t="inlineStr">
+        <is>
+          <t>Condition number</t>
+        </is>
+      </c>
       <c r="H157" s="2" t="inlineStr"/>
       <c r="I157" s="2" t="inlineStr"/>
       <c r="J157" s="2" t="inlineStr"/>
       <c r="K157" s="2" t="inlineStr"/>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Hydrocarbon licence block where the development is located</t>
+          <t>Number of any condition being breached</t>
         </is>
       </c>
       <c r="M157" s="2" t="inlineStr">
@@ -8007,7 +8044,7 @@
       </c>
       <c r="N157" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8016,17 +8053,18 @@
       <c r="B158" s="2" t="n"/>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
         </is>
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>surface-site-area-hectares</t>
+          <t>other-details</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr">
         <is>
-          <t>Surface site area hectares</t>
+          <t>Other details</t>
         </is>
       </c>
       <c r="F158" s="2" t="inlineStr"/>
@@ -8037,12 +8075,12 @@
       <c r="K158" s="2" t="inlineStr"/>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Surface site area in hectares</t>
+          <t>Explanation if other ground is selected</t>
         </is>
       </c>
       <c r="M158" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N158" s="2" t="inlineStr">
@@ -8056,17 +8094,18 @@
       <c r="B159" s="2" t="n"/>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
         </is>
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>site-hectares-provided-by</t>
+          <t>will-consolidate-permissions</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr">
         <is>
-          <t>Site hectares provided by</t>
+          <t>Will consolidate permissions</t>
         </is>
       </c>
       <c r="F159" s="2" t="inlineStr"/>
@@ -8077,17 +8116,17 @@
       <c r="K159" s="2" t="inlineStr"/>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site hectares value (applicant or system)</t>
+          <t>Is the applicant looking to consolidate permissions?</t>
         </is>
       </c>
       <c r="M159" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N159" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8096,17 +8135,18 @@
       <c r="B160" s="2" t="n"/>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>environmental-statement</t>
+          <t>details</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
-          <t>Environmental statement</t>
+          <t>Details</t>
         </is>
       </c>
       <c r="F160" s="2" t="inlineStr"/>
@@ -8117,17 +8157,17 @@
       <c r="K160" s="2" t="inlineStr"/>
       <c r="L160" s="2" t="inlineStr">
         <is>
-          <t>Is an Environmental Statement attached to the application</t>
+          <t>Details about the consolidation or update of permissions</t>
         </is>
       </c>
       <c r="M160" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N160" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8136,28 +8176,37 @@
       <c r="B161" s="2" t="n"/>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
         </is>
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>environmental-statement-reference</t>
+          <t>related-proposals</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr">
         <is>
-          <t>Environmental statement reference</t>
-        </is>
-      </c>
-      <c r="F161" s="2" t="inlineStr"/>
-      <c r="G161" s="2" t="inlineStr"/>
+          <t>Related proposals[]</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G161" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H161" s="2" t="inlineStr"/>
       <c r="I161" s="2" t="inlineStr"/>
       <c r="J161" s="2" t="inlineStr"/>
       <c r="K161" s="2" t="inlineStr"/>
       <c r="L161" s="2" t="inlineStr">
         <is>
-          <t>Reference to the environmental statement document</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="M161" s="2" t="inlineStr">
@@ -8167,50 +8216,51 @@
       </c>
       <c r="N161" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="inlineStr">
-        <is>
-          <t>Voluntary agreement</t>
-        </is>
-      </c>
-      <c r="B162" s="2" t="inlineStr">
-        <is>
-          <t>vol-agreement</t>
-        </is>
-      </c>
+      <c r="A162" s="2" t="n"/>
+      <c r="B162" s="2" t="n"/>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>draft-agreement-included</t>
+          <t>related-proposals</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr">
         <is>
-          <t>Draft agreement included</t>
-        </is>
-      </c>
-      <c r="F162" s="2" t="inlineStr"/>
-      <c r="G162" s="2" t="inlineStr"/>
+          <t>Related proposals[]</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>application-type</t>
+        </is>
+      </c>
+      <c r="G162" s="2" t="inlineStr">
+        <is>
+          <t>Application type</t>
+        </is>
+      </c>
       <c r="H162" s="2" t="inlineStr"/>
       <c r="I162" s="2" t="inlineStr"/>
       <c r="J162" s="2" t="inlineStr"/>
       <c r="K162" s="2" t="inlineStr"/>
       <c r="L162" s="2" t="inlineStr">
         <is>
-          <t>Has an outline or draft agreement been included? (True / False)</t>
+          <t>The type of planning application</t>
         </is>
       </c>
       <c r="M162" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N162" s="2" t="inlineStr">
@@ -8224,43 +8274,508 @@
       <c r="B163" s="2" t="n"/>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>agreement-summary</t>
+          <t>related-proposals</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
-          <t>Agreement summary</t>
-        </is>
-      </c>
-      <c r="F163" s="2" t="inlineStr"/>
-      <c r="G163" s="2" t="inlineStr"/>
+          <t>Related proposals[]</t>
+        </is>
+      </c>
+      <c r="F163" s="2" t="inlineStr">
+        <is>
+          <t>decision-date</t>
+        </is>
+      </c>
+      <c r="G163" s="2" t="inlineStr">
+        <is>
+          <t>Decision date</t>
+        </is>
+      </c>
       <c r="H163" s="2" t="inlineStr"/>
       <c r="I163" s="2" t="inlineStr"/>
       <c r="J163" s="2" t="inlineStr"/>
       <c r="K163" s="2" t="inlineStr"/>
       <c r="L163" s="2" t="inlineStr">
         <is>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+        </is>
+      </c>
+      <c r="M163" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N163" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>Development type</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>dev-type</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr">
+        <is>
+          <t>development-phase</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="inlineStr">
+        <is>
+          <t>Development phase</t>
+        </is>
+      </c>
+      <c r="F164" s="2" t="inlineStr"/>
+      <c r="G164" s="2" t="inlineStr"/>
+      <c r="H164" s="2" t="inlineStr"/>
+      <c r="I164" s="2" t="inlineStr"/>
+      <c r="J164" s="2" t="inlineStr"/>
+      <c r="K164" s="2" t="inlineStr"/>
+      <c r="L164" s="2" t="inlineStr">
+        <is>
+          <t>Phases of oil and gas development the application covers</t>
+        </is>
+      </c>
+      <c r="M164" s="2" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="N164" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n"/>
+      <c r="B165" s="2" t="n"/>
+      <c r="C165" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="inlineStr">
+        <is>
+          <t>development-description</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="inlineStr">
+        <is>
+          <t>Development description</t>
+        </is>
+      </c>
+      <c r="F165" s="2" t="inlineStr"/>
+      <c r="G165" s="2" t="inlineStr"/>
+      <c r="H165" s="2" t="inlineStr"/>
+      <c r="I165" s="2" t="inlineStr"/>
+      <c r="J165" s="2" t="inlineStr"/>
+      <c r="K165" s="2" t="inlineStr"/>
+      <c r="L165" s="2" t="inlineStr">
+        <is>
+          <t>Brief description of the development, including main oils, gases, and machinery</t>
+        </is>
+      </c>
+      <c r="M165" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N165" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n"/>
+      <c r="B166" s="2" t="n"/>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="inlineStr">
+        <is>
+          <t>quantity-cubic-metres</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="inlineStr">
+        <is>
+          <t>Quantity cubic metres</t>
+        </is>
+      </c>
+      <c r="F166" s="2" t="inlineStr"/>
+      <c r="G166" s="2" t="inlineStr"/>
+      <c r="H166" s="2" t="inlineStr"/>
+      <c r="I166" s="2" t="inlineStr"/>
+      <c r="J166" s="2" t="inlineStr"/>
+      <c r="K166" s="2" t="inlineStr"/>
+      <c r="L166" s="2" t="inlineStr">
+        <is>
+          <t>Quantity of oil or gas involved in cubic metres</t>
+        </is>
+      </c>
+      <c r="M166" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="N166" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n"/>
+      <c r="B167" s="2" t="n"/>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="inlineStr">
+        <is>
+          <t>permission-period-years</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="inlineStr">
+        <is>
+          <t>Permission period years</t>
+        </is>
+      </c>
+      <c r="F167" s="2" t="inlineStr"/>
+      <c r="G167" s="2" t="inlineStr"/>
+      <c r="H167" s="2" t="inlineStr"/>
+      <c r="I167" s="2" t="inlineStr"/>
+      <c r="J167" s="2" t="inlineStr"/>
+      <c r="K167" s="2" t="inlineStr"/>
+      <c r="L167" s="2" t="inlineStr">
+        <is>
+          <t>Period of permission sought in years</t>
+        </is>
+      </c>
+      <c r="M167" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="N167" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n"/>
+      <c r="B168" s="2" t="n"/>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>hydrocarbon-licence-block</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="inlineStr">
+        <is>
+          <t>Hydrocarbon licence block</t>
+        </is>
+      </c>
+      <c r="F168" s="2" t="inlineStr"/>
+      <c r="G168" s="2" t="inlineStr"/>
+      <c r="H168" s="2" t="inlineStr"/>
+      <c r="I168" s="2" t="inlineStr"/>
+      <c r="J168" s="2" t="inlineStr"/>
+      <c r="K168" s="2" t="inlineStr"/>
+      <c r="L168" s="2" t="inlineStr">
+        <is>
+          <t>Hydrocarbon licence block where the development is located</t>
+        </is>
+      </c>
+      <c r="M168" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N168" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n"/>
+      <c r="B169" s="2" t="n"/>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="inlineStr">
+        <is>
+          <t>surface-site-area-hectares</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="inlineStr">
+        <is>
+          <t>Surface site area hectares</t>
+        </is>
+      </c>
+      <c r="F169" s="2" t="inlineStr"/>
+      <c r="G169" s="2" t="inlineStr"/>
+      <c r="H169" s="2" t="inlineStr"/>
+      <c r="I169" s="2" t="inlineStr"/>
+      <c r="J169" s="2" t="inlineStr"/>
+      <c r="K169" s="2" t="inlineStr"/>
+      <c r="L169" s="2" t="inlineStr">
+        <is>
+          <t>Surface site area in hectares</t>
+        </is>
+      </c>
+      <c r="M169" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="N169" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n"/>
+      <c r="B170" s="2" t="n"/>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>site-hectares-provided-by</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>Site hectares provided by</t>
+        </is>
+      </c>
+      <c r="F170" s="2" t="inlineStr"/>
+      <c r="G170" s="2" t="inlineStr"/>
+      <c r="H170" s="2" t="inlineStr"/>
+      <c r="I170" s="2" t="inlineStr"/>
+      <c r="J170" s="2" t="inlineStr"/>
+      <c r="K170" s="2" t="inlineStr"/>
+      <c r="L170" s="2" t="inlineStr">
+        <is>
+          <t>Who provided the site hectares value (applicant or system)</t>
+        </is>
+      </c>
+      <c r="M170" s="2" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="N170" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n"/>
+      <c r="B171" s="2" t="n"/>
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="inlineStr">
+        <is>
+          <t>environmental-statement</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>Environmental statement</t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="inlineStr"/>
+      <c r="G171" s="2" t="inlineStr"/>
+      <c r="H171" s="2" t="inlineStr"/>
+      <c r="I171" s="2" t="inlineStr"/>
+      <c r="J171" s="2" t="inlineStr"/>
+      <c r="K171" s="2" t="inlineStr"/>
+      <c r="L171" s="2" t="inlineStr">
+        <is>
+          <t>Is an Environmental Statement attached to the application</t>
+        </is>
+      </c>
+      <c r="M171" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="N171" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n"/>
+      <c r="B172" s="2" t="n"/>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>environmental-statement-reference</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>Environmental statement reference</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr"/>
+      <c r="G172" s="2" t="inlineStr"/>
+      <c r="H172" s="2" t="inlineStr"/>
+      <c r="I172" s="2" t="inlineStr"/>
+      <c r="J172" s="2" t="inlineStr"/>
+      <c r="K172" s="2" t="inlineStr"/>
+      <c r="L172" s="2" t="inlineStr">
+        <is>
+          <t>Reference to the environmental statement document</t>
+        </is>
+      </c>
+      <c r="M172" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N172" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>Voluntary agreement</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>vol-agreement</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr">
+        <is>
+          <t>draft-agreement-included</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>Draft agreement included</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="inlineStr"/>
+      <c r="G173" s="2" t="inlineStr"/>
+      <c r="H173" s="2" t="inlineStr"/>
+      <c r="I173" s="2" t="inlineStr"/>
+      <c r="J173" s="2" t="inlineStr"/>
+      <c r="K173" s="2" t="inlineStr"/>
+      <c r="L173" s="2" t="inlineStr">
+        <is>
+          <t>Has an outline or draft agreement been included? (True / False)</t>
+        </is>
+      </c>
+      <c r="M173" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="N173" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n"/>
+      <c r="B174" s="2" t="n"/>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>agreement-summary</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>Agreement summary</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr"/>
+      <c r="G174" s="2" t="inlineStr"/>
+      <c r="H174" s="2" t="inlineStr"/>
+      <c r="I174" s="2" t="inlineStr"/>
+      <c r="J174" s="2" t="inlineStr"/>
+      <c r="K174" s="2" t="inlineStr"/>
+      <c r="L174" s="2" t="inlineStr">
+        <is>
           <t>Summary of the agreement</t>
         </is>
       </c>
-      <c r="M163" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N163" s="2" t="inlineStr">
+      <c r="M174" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N174" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="60">
     <mergeCell ref="B149:B150"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="A57:A59"/>
@@ -8270,12 +8785,12 @@
     <mergeCell ref="B25:B32"/>
     <mergeCell ref="B43:B48"/>
     <mergeCell ref="A138:A141"/>
+    <mergeCell ref="A164:A172"/>
     <mergeCell ref="A68"/>
     <mergeCell ref="A121:A123"/>
     <mergeCell ref="B90:B97"/>
     <mergeCell ref="B124:B128"/>
     <mergeCell ref="A129:A137"/>
-    <mergeCell ref="A162:A163"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="A84:A89"/>
     <mergeCell ref="B151:B152"/>
@@ -8294,28 +8809,30 @@
     <mergeCell ref="B121:B123"/>
     <mergeCell ref="A151:A152"/>
     <mergeCell ref="B37:B42"/>
-    <mergeCell ref="B162:B163"/>
     <mergeCell ref="B56"/>
+    <mergeCell ref="B164:B172"/>
     <mergeCell ref="A79:A83"/>
     <mergeCell ref="B129:B137"/>
     <mergeCell ref="A113:A120"/>
     <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B173:B174"/>
     <mergeCell ref="B69:B78"/>
     <mergeCell ref="B60"/>
     <mergeCell ref="B84:B89"/>
     <mergeCell ref="B142:B147"/>
-    <mergeCell ref="B153:B161"/>
     <mergeCell ref="B148"/>
     <mergeCell ref="A61:A67"/>
     <mergeCell ref="A124:A128"/>
     <mergeCell ref="A56"/>
     <mergeCell ref="B57:B59"/>
     <mergeCell ref="A2:A20"/>
+    <mergeCell ref="B153:B163"/>
     <mergeCell ref="B61:B67"/>
     <mergeCell ref="A43:A48"/>
-    <mergeCell ref="A153:A161"/>
     <mergeCell ref="B138:B141"/>
+    <mergeCell ref="A153:A163"/>
     <mergeCell ref="B113:B120"/>
+    <mergeCell ref="A173:A174"/>
     <mergeCell ref="A98:A112"/>
     <mergeCell ref="A142:A147"/>
     <mergeCell ref="A52:A55"/>

--- a/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
+++ b/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N174"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,17 +1083,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1147,17 +1147,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>base64-content</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1211,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>checksum</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1339,22 +1339,22 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -1383,37 +1383,29 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1423,7 +1415,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1457,19 +1449,19 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -1513,75 +1505,67 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1591,21 +1575,13 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1613,23 +1589,31 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H21" s="2" t="inlineStr"/>
       <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1663,21 +1647,29 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
@@ -1687,7 +1679,7 @@
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1721,24 +1713,24 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -1748,8 +1740,16 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1757,63 +1757,47 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1831,21 +1815,29 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1855,7 +1847,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1889,19 +1881,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1911,7 +1903,7 @@
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1945,19 +1937,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -2001,19 +1993,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2057,19 +2049,19 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2079,7 +2071,7 @@
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2103,29 +2095,21 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
@@ -2159,12 +2143,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr"/>
@@ -2173,12 +2157,12 @@
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -2188,64 +2172,56 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2253,23 +2229,31 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H33" s="2" t="inlineStr"/>
       <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2303,21 +2287,29 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
@@ -2327,7 +2319,7 @@
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2361,24 +2353,24 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -2388,72 +2380,64 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2471,21 +2455,29 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2495,7 +2487,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2529,19 +2521,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2551,7 +2543,7 @@
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2585,19 +2577,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2641,19 +2633,19 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2697,19 +2689,19 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
@@ -2719,77 +2711,61 @@
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>flood-risk-assessment</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Results of any flood risk assessments made for the development site</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>flood-risk-area</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Flood risk area</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>flood-risk-assessment</t>
-        </is>
-      </c>
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
       <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Results of any flood risk assessments made for the development site</t>
@@ -2797,12 +2773,12 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-area</t>
+          <t>data-provided-by</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2813,17 +2789,17 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2837,12 +2813,12 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>data-provided-by</t>
+          <t>flood-risk-assessment</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2853,12 +2829,12 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -2877,12 +2853,12 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-assessment</t>
+          <t>within-20m-watercourse</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2893,17 +2869,17 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2917,12 +2893,12 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>within-20m-watercourse</t>
+          <t>increases-flood-risk</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
@@ -2933,7 +2909,7 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
@@ -2957,12 +2933,12 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>increases-flood-risk</t>
+          <t>surface-water-disposal</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2973,12 +2949,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -2988,21 +2964,29 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n"/>
-      <c r="B48" s="2" t="n"/>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>conflict-of-interest</t>
+        </is>
+      </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Results of any flood risk assessments made for the development site</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>surface-water-disposal</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
@@ -3013,12 +2997,12 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -3028,16 +3012,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="2" t="n"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -3045,12 +3021,12 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
@@ -3061,17 +3037,17 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3085,12 +3061,12 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
@@ -3101,7 +3077,7 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
@@ -3116,21 +3092,29 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n"/>
-      <c r="B51" s="2" t="n"/>
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity, geological and archaeological conservation</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>bio-geo-arch-con</t>
+        </is>
+      </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>protected-species-impact</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Protected species impact</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
@@ -3141,31 +3125,23 @@
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>Where is there a likelihood of protected and priority species being affected?</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity, geological and archaeological conservation</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>bio-geo-arch-con</t>
-        </is>
-      </c>
+      <c r="A52" s="2" t="n"/>
+      <c r="B52" s="2" t="n"/>
       <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
@@ -3173,12 +3149,12 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>protected-species-impact</t>
+          <t>biodiversity-features-impact</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>Protected species impact</t>
+          <t>Biodiversity features impact</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr"/>
@@ -3189,7 +3165,7 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of protected and priority species being affected?</t>
+          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
@@ -3213,12 +3189,12 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>biodiversity-features-impact</t>
+          <t>geological-features-impact</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity features impact</t>
+          <t>Geological features impact</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
@@ -3229,7 +3205,7 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
+          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
@@ -3253,12 +3229,12 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>geological-features-impact</t>
+          <t>archaeological-features-impact</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>Geological features impact</t>
+          <t>Archaeological features impact</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr"/>
@@ -3269,7 +3245,7 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
+          <t>Where is there a likelihood of features of archaeological conservation importance being affected?</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
@@ -3284,21 +3260,29 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n"/>
-      <c r="B55" s="2" t="n"/>
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>archaeological-features-impact</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Archaeological features impact</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
@@ -3309,12 +3293,12 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of features of archaeological conservation importance being affected?</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N55" s="2" t="inlineStr">
@@ -3326,27 +3310,27 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Declaration</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>declaration</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr"/>
@@ -3357,7 +3341,7 @@
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
@@ -3372,16 +3356,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A57" s="2" t="n"/>
+      <c r="B57" s="2" t="n"/>
       <c r="C57" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -3389,12 +3365,12 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr"/>
@@ -3405,12 +3381,12 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
@@ -3429,12 +3405,12 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr"/>
@@ -3445,12 +3421,12 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N58" s="2" t="inlineStr">
@@ -3460,21 +3436,29 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n"/>
-      <c r="B59" s="2" t="n"/>
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>Designated areas</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>designated-areas</t>
+        </is>
+      </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Details of any 'designated area' the develpoment site is on, such as a Conservation Area or National Park.</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>designations</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Designations[]</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr"/>
@@ -3485,12 +3469,12 @@
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>List of designated areas that apply to the site</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N59" s="2" t="inlineStr">
@@ -3502,43 +3486,51 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>Designated areas</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>designated-areas</t>
+          <t>employment</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Details of any 'designated area' the develpoment site is on, such as a Conservation Area or National Park.</t>
+          <t>How the proposed development will impact existing and proposed employee numbers</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>designations</t>
+          <t>existing-employees</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>Designations[]</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr"/>
-      <c r="G60" s="2" t="inlineStr"/>
+          <t>Existing employees</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>full-time</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
       <c r="H60" s="2" t="inlineStr"/>
       <c r="I60" s="2" t="inlineStr"/>
       <c r="J60" s="2" t="inlineStr"/>
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>List of designated areas that apply to the site</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N60" s="2" t="inlineStr">
@@ -3548,16 +3540,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>Employment</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>employment</t>
-        </is>
-      </c>
+      <c r="A61" s="2" t="n"/>
+      <c r="B61" s="2" t="n"/>
       <c r="C61" s="2" t="inlineStr">
         <is>
           <t>How the proposed development will impact existing and proposed employee numbers</t>
@@ -3575,12 +3559,12 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>full-time</t>
+          <t>part-time</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr"/>
@@ -3589,7 +3573,7 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
@@ -3623,12 +3607,12 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>part-time</t>
+          <t>total-fte</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr"/>
@@ -3637,7 +3621,7 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
@@ -3661,22 +3645,22 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>existing-employees</t>
+          <t>proposed-employees</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Existing employees</t>
+          <t>Proposed employees</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>total-fte</t>
+          <t>full-time</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Total FTE</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr"/>
@@ -3685,7 +3669,7 @@
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
@@ -3719,12 +3703,12 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>full-time</t>
+          <t>part-time</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr"/>
@@ -3733,7 +3717,7 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
@@ -3767,12 +3751,12 @@
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>part-time</t>
+          <t>total-fte</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr"/>
@@ -3781,7 +3765,7 @@
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
@@ -3805,60 +3789,60 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>proposed-employees</t>
+          <t>employment-impact</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Proposed employees</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>total-fte</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="inlineStr">
-        <is>
-          <t>Total FTE</t>
-        </is>
-      </c>
+          <t>Employment impact</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr"/>
       <c r="H66" s="2" t="inlineStr"/>
       <c r="I66" s="2" t="inlineStr"/>
       <c r="J66" s="2" t="inlineStr"/>
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Summary of net employment change (gain/loss)</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n"/>
-      <c r="B67" s="2" t="n"/>
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>Equipment and method</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>equip-method</t>
+        </is>
+      </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
+          <t>How oil and gas will be extracted as part of the proposed development.</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>employment-impact</t>
+          <t>equipment-plan</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
+          <t>Equipment plan</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
@@ -3869,7 +3853,7 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>Details of equipment to be used as part of the application including the maximum height and type of drilling rig to be used</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
@@ -3879,50 +3863,58 @@
       </c>
       <c r="N67" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>Equipment and method</t>
+          <t>Existing use</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>equip-method</t>
+          <t>existing-use</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>How oil and gas will be extracted as part of the proposed development.</t>
+          <t>How the site is currently being used.</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>equipment-plan</t>
+          <t>existing-use-details</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Equipment plan</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr"/>
-      <c r="G68" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H68" s="2" t="inlineStr"/>
       <c r="I68" s="2" t="inlineStr"/>
       <c r="J68" s="2" t="inlineStr"/>
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Details of equipment to be used as part of the application including the maximum height and type of drilling rig to be used</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N68" s="2" t="inlineStr">
@@ -3932,16 +3924,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>existing-use</t>
-        </is>
-      </c>
+      <c r="A69" s="2" t="n"/>
+      <c r="B69" s="2" t="n"/>
       <c r="C69" s="2" t="inlineStr">
         <is>
           <t>How the site is currently being used.</t>
@@ -3959,12 +3943,12 @@
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>use-details</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr"/>
@@ -3973,17 +3957,17 @@
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4007,12 +3991,12 @@
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>use-details</t>
+          <t>land-part</t>
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr"/>
@@ -4021,7 +4005,7 @@
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
@@ -4031,7 +4015,7 @@
       </c>
       <c r="N70" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4045,36 +4029,28 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>existing-use-details</t>
+          <t>site-vacant</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>land-part</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr"/>
       <c r="H71" s="2" t="inlineStr"/>
       <c r="I71" s="2" t="inlineStr"/>
       <c r="J71" s="2" t="inlineStr"/>
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
@@ -4093,12 +4069,12 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>site-vacant</t>
+          <t>last-use-details</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr"/>
@@ -4109,17 +4085,17 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N72" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4133,12 +4109,12 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>last-use-details</t>
+          <t>last-use-end-date</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr"/>
@@ -4149,12 +4125,12 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N73" s="2" t="inlineStr">
@@ -4173,12 +4149,12 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>last-use-end-date</t>
+          <t>is-contaminated-land</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr"/>
@@ -4189,17 +4165,17 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N74" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4213,12 +4189,12 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>is-contaminated-land</t>
+          <t>is-suspected-contaminated-land</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr"/>
@@ -4229,7 +4205,7 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
@@ -4253,12 +4229,12 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>is-suspected-contaminated-land</t>
+          <t>proposed-use-contamination-risk</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr"/>
@@ -4269,7 +4245,7 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
@@ -4293,12 +4269,12 @@
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>proposed-use-contamination-risk</t>
+          <t>contamination-assessment</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr"/>
@@ -4309,36 +4285,44 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N77" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n"/>
-      <c r="B78" s="2" t="n"/>
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Foul sewage disposal</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>foul-sewage</t>
+        </is>
+      </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>How the site is currently being used.</t>
+          <t>How waste water will leave the property as part of the proposed development</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>contamination-assessment</t>
+          <t>has-new-disposal-arrangements</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Has new disposal arrangements</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>
@@ -4349,31 +4333,23 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Does the proposal include any new foul sewage disposal arrangments</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>Foul sewage disposal</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>foul-sewage</t>
-        </is>
-      </c>
+      <c r="A79" s="2" t="n"/>
+      <c r="B79" s="2" t="n"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
           <t>How waste water will leave the property as part of the proposed development</t>
@@ -4381,12 +4357,12 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>has-new-disposal-arrangements</t>
+          <t>foul-sewage-disposal-types</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Has new disposal arrangements</t>
+          <t>Foul sewage disposal types[]</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr"/>
@@ -4397,17 +4373,17 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include any new foul sewage disposal arrangments</t>
+          <t>List of ways foul sewage will be disposed of</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4421,12 +4397,12 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>foul-sewage-disposal-types</t>
+          <t>produce-foul-sewage</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Foul sewage disposal types[]</t>
+          <t>Produce foul sewage</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr"/>
@@ -4437,17 +4413,17 @@
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>List of ways foul sewage will be disposed of</t>
+          <t>Whether the proposed development will produce any foul sewage</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N80" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4461,12 +4437,12 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>produce-foul-sewage</t>
+          <t>connect-to-drainage-system</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Produce foul sewage</t>
+          <t>Connect to drainage system</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr"/>
@@ -4477,7 +4453,7 @@
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposed development will produce any foul sewage</t>
+          <t>Whether the proposal needs to connect to the existing drainage system</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
@@ -4501,12 +4477,12 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>connect-to-drainage-system</t>
+          <t>drainage-system-details</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
+          <t>Drainage system details</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr"/>
@@ -4517,36 +4493,44 @@
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>Details of the drawings/plans that show the existing drainage system</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N82" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n"/>
-      <c r="B83" s="2" t="n"/>
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substances</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>haz-substances</t>
+        </is>
+      </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>How waste water will leave the property as part of the proposed development</t>
+          <t>What hazardous substances may be used as part of the development</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>drainage-system-details</t>
+          <t>involves-hazardous-substances</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Drainage system details</t>
+          <t>Involves hazardous substances</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr"/>
@@ -4557,31 +4541,23 @@
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Details of the drawings/plans that show the existing drainage system</t>
+          <t>Indicates if hazardous substances are involved in the proposal</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N83" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substances</t>
-        </is>
-      </c>
-      <c r="B84" s="2" t="inlineStr">
-        <is>
-          <t>haz-substances</t>
-        </is>
-      </c>
+      <c r="A84" s="2" t="n"/>
+      <c r="B84" s="2" t="n"/>
       <c r="C84" s="2" t="inlineStr">
         <is>
           <t>What hazardous substances may be used as part of the development</t>
@@ -4589,23 +4565,31 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>involves-hazardous-substances</t>
+          <t>substance-types</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Involves hazardous substances</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr"/>
-      <c r="G84" s="2" t="inlineStr"/>
+          <t>Substance types[]</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>hazardous-substance-type</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substance type</t>
+        </is>
+      </c>
       <c r="H84" s="2" t="inlineStr"/>
       <c r="I84" s="2" t="inlineStr"/>
       <c r="J84" s="2" t="inlineStr"/>
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Indicates if hazardous substances are involved in the proposal</t>
+          <t>Reference of hazardous substance type from predefined list</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
@@ -4639,12 +4623,12 @@
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>hazardous-substance-type</t>
+          <t>hazardous-substance-other</t>
         </is>
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance type</t>
+          <t>Hazardous substance other</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr"/>
@@ -4653,17 +4637,17 @@
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Reference of hazardous substance type from predefined list</t>
+          <t>The specific name of the hazardous substance if other is selected</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N85" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4687,12 +4671,12 @@
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>hazardous-substance-other</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance other</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr"/>
@@ -4701,17 +4685,17 @@
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>The specific name of the hazardous substance if other is selected</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N86" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4725,36 +4709,28 @@
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>substance-types</t>
+          <t>hazardous-sub-consent-req</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
-        </is>
-      </c>
-      <c r="F87" s="2" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="G87" s="2" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
+          <t>Hazardous substance consent required</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr"/>
+      <c r="G87" s="2" t="inlineStr"/>
       <c r="H87" s="2" t="inlineStr"/>
       <c r="I87" s="2" t="inlineStr"/>
       <c r="J87" s="2" t="inlineStr"/>
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N87" s="2" t="inlineStr">
@@ -4773,12 +4749,12 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>hazardous-sub-consent-req</t>
+          <t>hazardous-sub-consent-details</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent required</t>
+          <t>Hazardous substance consent details</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr"/>
@@ -4789,71 +4765,79 @@
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
+          <t>Details of hazardous substance consent requirements</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N88" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n"/>
-      <c r="B89" s="2" t="n"/>
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>hrs-operation</t>
+        </is>
+      </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>hazardous-sub-consent-details</t>
+          <t>hours-of-operation</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent details</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr"/>
-      <c r="G89" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H89" s="2" t="inlineStr"/>
       <c r="I89" s="2" t="inlineStr"/>
       <c r="J89" s="2" t="inlineStr"/>
       <c r="K89" s="2" t="inlineStr"/>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>Details of hazardous substance consent requirements</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N89" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B90" s="2" t="inlineStr">
-        <is>
-          <t>hrs-operation</t>
-        </is>
-      </c>
+      <c r="A90" s="2" t="n"/>
+      <c r="B90" s="2" t="n"/>
       <c r="C90" s="2" t="inlineStr">
         <is>
           <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
@@ -4871,12 +4855,12 @@
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>use-other</t>
         </is>
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr"/>
@@ -4885,17 +4869,17 @@
       <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N90" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4919,31 +4903,39 @@
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>use-other</t>
+          <t>operational-times</t>
         </is>
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
-        </is>
-      </c>
-      <c r="H91" s="2" t="inlineStr"/>
-      <c r="I91" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="inlineStr">
+        <is>
+          <t>day-type</t>
+        </is>
+      </c>
+      <c r="I91" s="2" t="inlineStr">
+        <is>
+          <t>Day type</t>
+        </is>
+      </c>
       <c r="J91" s="2" t="inlineStr"/>
       <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Day or type of day</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N91" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4977,29 +4969,29 @@
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>day-type</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="I92" s="2" t="inlineStr">
         <is>
-          <t>Day type</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="J92" s="2" t="inlineStr"/>
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Day or type of day</t>
+          <t>True or False - explicitly state when closed</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N92" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5033,29 +5025,37 @@
       </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>time-ranges</t>
         </is>
       </c>
       <c r="I93" s="2" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="J93" s="2" t="inlineStr"/>
-      <c r="K93" s="2" t="inlineStr"/>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="J93" s="2" t="inlineStr">
+        <is>
+          <t>open-time</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="inlineStr">
+        <is>
+          <t>Open time</t>
+        </is>
+      </c>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>True or False - explicitly state when closed</t>
+          <t>Opening time</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N93" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5099,17 +5099,17 @@
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>open-time</t>
+          <t>close-time</t>
         </is>
       </c>
       <c r="K94" s="2" t="inlineStr">
         <is>
-          <t>Open time</t>
+          <t>Close time</t>
         </is>
       </c>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Opening time</t>
+          <t>Closing time</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
@@ -5143,47 +5143,31 @@
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>operational-times</t>
+          <t>hours-not-known</t>
         </is>
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>time-ranges</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>close-time</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="inlineStr">
-        <is>
-          <t>Close time</t>
-        </is>
-      </c>
+          <t>Hours not known</t>
+        </is>
+      </c>
+      <c r="H95" s="2" t="inlineStr"/>
+      <c r="I95" s="2" t="inlineStr"/>
+      <c r="J95" s="2" t="inlineStr"/>
+      <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Closing time</t>
+          <t>Applicant states they do not know the hours of operation</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N95" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5197,36 +5181,28 @@
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>hours-of-operation</t>
+          <t>additional-information</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
-        </is>
-      </c>
-      <c r="F96" s="2" t="inlineStr">
-        <is>
-          <t>hours-not-known</t>
-        </is>
-      </c>
-      <c r="G96" s="2" t="inlineStr">
-        <is>
-          <t>Hours not known</t>
-        </is>
-      </c>
+          <t>Additional information</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr"/>
+      <c r="G96" s="2" t="inlineStr"/>
       <c r="H96" s="2" t="inlineStr"/>
       <c r="I96" s="2" t="inlineStr"/>
       <c r="J96" s="2" t="inlineStr"/>
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>Applicant states they do not know the hours of operation</t>
+          <t>Any additional information (such as hours of use of other machinery within the site-generators, pumps, etc)</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N96" s="2" t="inlineStr">
@@ -5236,21 +5212,29 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n"/>
-      <c r="B97" s="2" t="n"/>
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>ownership-certs</t>
+        </is>
+      </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>additional-information</t>
+          <t>sole-owner</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>Additional information</t>
+          <t>Sole owner</t>
         </is>
       </c>
       <c r="F97" s="2" t="inlineStr"/>
@@ -5261,31 +5245,23 @@
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>Any additional information (such as hours of use of other machinery within the site-generators, pumps, etc)</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="M97" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N97" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B98" s="2" t="inlineStr">
-        <is>
-          <t>ownership-certs</t>
-        </is>
-      </c>
+      <c r="A98" s="2" t="n"/>
+      <c r="B98" s="2" t="n"/>
       <c r="C98" s="2" t="inlineStr">
         <is>
           <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
@@ -5293,12 +5269,12 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>sole-owner</t>
+          <t>agricultural-tenants</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr"/>
@@ -5309,7 +5285,7 @@
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="M98" s="2" t="inlineStr">
@@ -5333,33 +5309,49 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>agricultural-tenants</t>
+          <t>owners-and-tenants</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="F99" s="2" t="inlineStr"/>
-      <c r="G99" s="2" t="inlineStr"/>
-      <c r="H99" s="2" t="inlineStr"/>
-      <c r="I99" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J99" s="2" t="inlineStr"/>
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M99" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N99" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5393,19 +5385,19 @@
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I100" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J100" s="2" t="inlineStr"/>
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M100" s="2" t="inlineStr">
@@ -5415,7 +5407,7 @@
       </c>
       <c r="N100" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5449,19 +5441,19 @@
       </c>
       <c r="H101" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I101" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J101" s="2" t="inlineStr"/>
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M101" s="2" t="inlineStr">
@@ -5505,19 +5497,19 @@
       </c>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I102" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J102" s="2" t="inlineStr"/>
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
@@ -5561,19 +5553,19 @@
       </c>
       <c r="H103" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I103" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J103" s="2" t="inlineStr"/>
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
@@ -5583,7 +5575,7 @@
       </c>
       <c r="N103" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5607,34 +5599,26 @@
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>notice-date</t>
         </is>
       </c>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H104" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I104" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="H104" s="2" t="inlineStr"/>
+      <c r="I104" s="2" t="inlineStr"/>
       <c r="J104" s="2" t="inlineStr"/>
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N104" s="2" t="inlineStr">
@@ -5653,36 +5637,28 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>owners-and-tenants</t>
+          <t>steps-taken</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="F105" s="2" t="inlineStr">
-        <is>
-          <t>notice-date</t>
-        </is>
-      </c>
-      <c r="G105" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr"/>
+      <c r="G105" s="2" t="inlineStr"/>
       <c r="H105" s="2" t="inlineStr"/>
       <c r="I105" s="2" t="inlineStr"/>
       <c r="J105" s="2" t="inlineStr"/>
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N105" s="2" t="inlineStr">
@@ -5701,23 +5677,31 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>steps-taken</t>
+          <t>newspaper-notices</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="F106" s="2" t="inlineStr"/>
-      <c r="G106" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>newspaper-name</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="H106" s="2" t="inlineStr"/>
       <c r="I106" s="2" t="inlineStr"/>
       <c r="J106" s="2" t="inlineStr"/>
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
@@ -5727,7 +5711,7 @@
       </c>
       <c r="N106" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5751,12 +5735,12 @@
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>newspaper-name</t>
+          <t>publication-date</t>
         </is>
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr"/>
@@ -5765,12 +5749,12 @@
       <c r="K107" s="2" t="inlineStr"/>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="M107" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N107" s="2" t="inlineStr">
@@ -5789,41 +5773,33 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>newspaper-notices</t>
+          <t>ownership-cert-option</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="F108" s="2" t="inlineStr">
-        <is>
-          <t>publication-date</t>
-        </is>
-      </c>
-      <c r="G108" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr"/>
+      <c r="G108" s="2" t="inlineStr"/>
       <c r="H108" s="2" t="inlineStr"/>
       <c r="I108" s="2" t="inlineStr"/>
       <c r="J108" s="2" t="inlineStr"/>
       <c r="K108" s="2" t="inlineStr"/>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="M108" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N108" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5837,12 +5813,12 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>ownership-cert-option</t>
+          <t>applicant-signature</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="F109" s="2" t="inlineStr"/>
@@ -5853,12 +5829,12 @@
       <c r="K109" s="2" t="inlineStr"/>
       <c r="L109" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="M109" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N109" s="2" t="inlineStr">
@@ -5877,12 +5853,12 @@
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>applicant-signature</t>
+          <t>agent-signature</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="F110" s="2" t="inlineStr"/>
@@ -5893,7 +5869,7 @@
       <c r="K110" s="2" t="inlineStr"/>
       <c r="L110" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="M110" s="2" t="inlineStr">
@@ -5917,12 +5893,12 @@
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>agent-signature</t>
+          <t>signature-date</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="F111" s="2" t="inlineStr"/>
@@ -5933,12 +5909,12 @@
       <c r="K111" s="2" t="inlineStr"/>
       <c r="L111" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="M111" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N111" s="2" t="inlineStr">
@@ -5948,21 +5924,29 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n"/>
-      <c r="B112" s="2" t="n"/>
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>access-rights-of-way</t>
+        </is>
+      </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>new-altered-vehicle</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>New or altered vehicle access</t>
         </is>
       </c>
       <c r="F112" s="2" t="inlineStr"/>
@@ -5973,31 +5957,23 @@
       <c r="K112" s="2" t="inlineStr"/>
       <c r="L112" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M112" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N112" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B113" s="2" t="inlineStr">
-        <is>
-          <t>access-rights-of-way</t>
-        </is>
-      </c>
+      <c r="A113" s="2" t="n"/>
+      <c r="B113" s="2" t="n"/>
       <c r="C113" s="2" t="inlineStr">
         <is>
           <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
@@ -6005,12 +5981,12 @@
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>new-altered-vehicle</t>
+          <t>new-altered-pedestrian</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="F113" s="2" t="inlineStr"/>
@@ -6021,7 +5997,7 @@
       <c r="K113" s="2" t="inlineStr"/>
       <c r="L113" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M113" s="2" t="inlineStr">
@@ -6045,12 +6021,12 @@
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>new-altered-pedestrian</t>
+          <t>new-right-of-way</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
+          <t>New right of way</t>
         </is>
       </c>
       <c r="F114" s="2" t="inlineStr"/>
@@ -6061,7 +6037,7 @@
       <c r="K114" s="2" t="inlineStr"/>
       <c r="L114" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>Will new public rights of way be provided within or adjacent to the site</t>
         </is>
       </c>
       <c r="M114" s="2" t="inlineStr">
@@ -6085,12 +6061,12 @@
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>new-right-of-way</t>
+          <t>new-public-road</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t>New right of way</t>
+          <t>New public road</t>
         </is>
       </c>
       <c r="F115" s="2" t="inlineStr"/>
@@ -6101,7 +6077,7 @@
       <c r="K115" s="2" t="inlineStr"/>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>Will new public rights of way be provided within or adjacent to the site</t>
+          <t>Will new public roads be provided within the site</t>
         </is>
       </c>
       <c r="M115" s="2" t="inlineStr">
@@ -6125,12 +6101,12 @@
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>new-public-road</t>
+          <t>temp-right-of-way</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>New public road</t>
+          <t>Temporary right of way changes</t>
         </is>
       </c>
       <c r="F116" s="2" t="inlineStr"/>
@@ -6141,7 +6117,7 @@
       <c r="K116" s="2" t="inlineStr"/>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>Will new public roads be provided within the site</t>
+          <t>Are temporary changes to rights of way needed while the site is worked</t>
         </is>
       </c>
       <c r="M116" s="2" t="inlineStr">
@@ -6165,12 +6141,12 @@
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>temp-right-of-way</t>
+          <t>future-new-right-of-way</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
-          <t>Temporary right of way changes</t>
+          <t>Future new right of way</t>
         </is>
       </c>
       <c r="F117" s="2" t="inlineStr"/>
@@ -6181,7 +6157,7 @@
       <c r="K117" s="2" t="inlineStr"/>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Are temporary changes to rights of way needed while the site is worked</t>
+          <t>Will new public rights of way be provided after extraction?</t>
         </is>
       </c>
       <c r="M117" s="2" t="inlineStr">
@@ -6205,28 +6181,36 @@
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>future-new-right-of-way</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
-          <t>Future new right of way</t>
-        </is>
-      </c>
-      <c r="F118" s="2" t="inlineStr"/>
-      <c r="G118" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H118" s="2" t="inlineStr"/>
       <c r="I118" s="2" t="inlineStr"/>
       <c r="J118" s="2" t="inlineStr"/>
       <c r="K118" s="2" t="inlineStr"/>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>Will new public rights of way be provided after extraction?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M118" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N118" s="2" t="inlineStr">
@@ -6255,12 +6239,12 @@
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr"/>
@@ -6269,7 +6253,7 @@
       <c r="K119" s="2" t="inlineStr"/>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M119" s="2" t="inlineStr">
@@ -6284,31 +6268,39 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n"/>
-      <c r="B120" s="2" t="n"/>
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>Plans, drawings and supporting materials</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>plans-drawings-supporting-materials</t>
+        </is>
+      </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+          <t>Additional materials and specifications that form part of the planning application</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>plans-documents</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
+          <t>Plans documents[]</t>
         </is>
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>reference-number</t>
         </is>
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Reference number</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr"/>
@@ -6317,7 +6309,7 @@
       <c r="K120" s="2" t="inlineStr"/>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Unique identifier for the document</t>
         </is>
       </c>
       <c r="M120" s="2" t="inlineStr">
@@ -6332,16 +6324,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="inlineStr">
-        <is>
-          <t>Plans, drawings and supporting materials</t>
-        </is>
-      </c>
-      <c r="B121" s="2" t="inlineStr">
-        <is>
-          <t>plans-drawings-supporting-materials</t>
-        </is>
-      </c>
+      <c r="A121" s="2" t="n"/>
+      <c r="B121" s="2" t="n"/>
       <c r="C121" s="2" t="inlineStr">
         <is>
           <t>Additional materials and specifications that form part of the planning application</t>
@@ -6359,12 +6343,12 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>reference-number</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>Reference number</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr"/>
@@ -6373,7 +6357,7 @@
       <c r="K121" s="2" t="inlineStr"/>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Unique identifier for the document</t>
+          <t>Name of the document (descriptive)</t>
         </is>
       </c>
       <c r="M121" s="2" t="inlineStr">
@@ -6397,31 +6381,23 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>plans-documents</t>
+          <t>inspection-address</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
-          <t>Plans documents[]</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Inspection address</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr"/>
+      <c r="G122" s="2" t="inlineStr"/>
       <c r="H122" s="2" t="inlineStr"/>
       <c r="I122" s="2" t="inlineStr"/>
       <c r="J122" s="2" t="inlineStr"/>
       <c r="K122" s="2" t="inlineStr"/>
       <c r="L122" s="2" t="inlineStr">
         <is>
-          <t>Name of the document (descriptive)</t>
+          <t>Full postal address where supporting material can be inspected</t>
         </is>
       </c>
       <c r="M122" s="2" t="inlineStr">
@@ -6436,21 +6412,29 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n"/>
-      <c r="B123" s="2" t="n"/>
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>Additional materials and specifications that form part of the planning application</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>inspection-address</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
-          <t>Inspection address</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F123" s="2" t="inlineStr"/>
@@ -6461,12 +6445,12 @@
       <c r="K123" s="2" t="inlineStr"/>
       <c r="L123" s="2" t="inlineStr">
         <is>
-          <t>Full postal address where supporting material can be inspected</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M123" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N123" s="2" t="inlineStr">
@@ -6476,16 +6460,8 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B124" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A124" s="2" t="n"/>
+      <c r="B124" s="2" t="n"/>
       <c r="C124" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -6493,12 +6469,12 @@
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F124" s="2" t="inlineStr"/>
@@ -6509,17 +6485,17 @@
       <c r="K124" s="2" t="inlineStr"/>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M124" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N124" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6533,12 +6509,12 @@
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F125" s="2" t="inlineStr"/>
@@ -6549,7 +6525,7 @@
       <c r="K125" s="2" t="inlineStr"/>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M125" s="2" t="inlineStr">
@@ -6573,12 +6549,12 @@
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F126" s="2" t="inlineStr"/>
@@ -6589,7 +6565,7 @@
       <c r="K126" s="2" t="inlineStr"/>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M126" s="2" t="inlineStr">
@@ -6613,12 +6589,12 @@
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F127" s="2" t="inlineStr"/>
@@ -6629,7 +6605,7 @@
       <c r="K127" s="2" t="inlineStr"/>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M127" s="2" t="inlineStr">
@@ -6644,37 +6620,53 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n"/>
-      <c r="B128" s="2" t="n"/>
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="F128" s="2" t="inlineStr"/>
-      <c r="G128" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H128" s="2" t="inlineStr"/>
       <c r="I128" s="2" t="inlineStr"/>
       <c r="J128" s="2" t="inlineStr"/>
       <c r="K128" s="2" t="inlineStr"/>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M128" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N128" s="2" t="inlineStr">
@@ -6684,16 +6676,8 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B129" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A129" s="2" t="n"/>
+      <c r="B129" s="2" t="n"/>
       <c r="C129" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -6711,12 +6695,12 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr"/>
@@ -6725,12 +6709,12 @@
       <c r="K129" s="2" t="inlineStr"/>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M129" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N129" s="2" t="inlineStr">
@@ -6759,12 +6743,12 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr"/>
@@ -6773,7 +6757,7 @@
       <c r="K130" s="2" t="inlineStr"/>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M130" s="2" t="inlineStr">
@@ -6807,12 +6791,12 @@
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr"/>
@@ -6821,12 +6805,12 @@
       <c r="K131" s="2" t="inlineStr"/>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M131" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N131" s="2" t="inlineStr">
@@ -6855,12 +6839,12 @@
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr"/>
@@ -6869,7 +6853,7 @@
       <c r="K132" s="2" t="inlineStr"/>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M132" s="2" t="inlineStr">
@@ -6903,12 +6887,12 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr"/>
@@ -6917,7 +6901,7 @@
       <c r="K133" s="2" t="inlineStr"/>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M133" s="2" t="inlineStr">
@@ -6951,12 +6935,12 @@
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr"/>
@@ -6965,7 +6949,7 @@
       <c r="K134" s="2" t="inlineStr"/>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M134" s="2" t="inlineStr">
@@ -6999,12 +6983,12 @@
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr"/>
@@ -7013,12 +6997,12 @@
       <c r="K135" s="2" t="inlineStr"/>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M135" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N135" s="2" t="inlineStr">
@@ -7047,12 +7031,12 @@
       </c>
       <c r="F136" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr"/>
@@ -7061,7 +7045,7 @@
       <c r="K136" s="2" t="inlineStr"/>
       <c r="L136" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M136" s="2" t="inlineStr">
@@ -7076,31 +7060,39 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n"/>
-      <c r="B137" s="2" t="n"/>
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>Site ownership</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>site-ownership</t>
+        </is>
+      </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>site-owner</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Site owner</t>
         </is>
       </c>
       <c r="F137" s="2" t="inlineStr">
         <is>
-          <t>uprns</t>
+          <t>fullname</t>
         </is>
       </c>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr"/>
@@ -7109,7 +7101,7 @@
       <c r="K137" s="2" t="inlineStr"/>
       <c r="L137" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M137" s="2" t="inlineStr">
@@ -7119,21 +7111,13 @@
       </c>
       <c r="N137" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="inlineStr">
-        <is>
-          <t>Site ownership</t>
-        </is>
-      </c>
-      <c r="B138" s="2" t="inlineStr">
-        <is>
-          <t>site-ownership</t>
-        </is>
-      </c>
+      <c r="A138" s="2" t="n"/>
+      <c r="B138" s="2" t="n"/>
       <c r="C138" s="2" t="inlineStr">
         <is>
           <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
@@ -7151,12 +7135,12 @@
       </c>
       <c r="F138" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr"/>
@@ -7165,7 +7149,7 @@
       <c r="K138" s="2" t="inlineStr"/>
       <c r="L138" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M138" s="2" t="inlineStr">
@@ -7189,31 +7173,23 @@
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>site-owner</t>
+          <t>applicant-interest</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
-          <t>Site owner</t>
-        </is>
-      </c>
-      <c r="F139" s="2" t="inlineStr">
-        <is>
-          <t>address-text</t>
-        </is>
-      </c>
-      <c r="G139" s="2" t="inlineStr">
-        <is>
-          <t>Address Text</t>
-        </is>
-      </c>
+          <t>Applicant interest</t>
+        </is>
+      </c>
+      <c r="F139" s="2" t="inlineStr"/>
+      <c r="G139" s="2" t="inlineStr"/>
       <c r="H139" s="2" t="inlineStr"/>
       <c r="I139" s="2" t="inlineStr"/>
       <c r="J139" s="2" t="inlineStr"/>
       <c r="K139" s="2" t="inlineStr"/>
       <c r="L139" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Description of the applicant's interest in the land</t>
         </is>
       </c>
       <c r="M139" s="2" t="inlineStr">
@@ -7237,12 +7213,12 @@
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>applicant-interest</t>
+          <t>applicant-interest-adjoining-land</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
-          <t>Applicant interest</t>
+          <t>Applicant interest adjoining land</t>
         </is>
       </c>
       <c r="F140" s="2" t="inlineStr"/>
@@ -7253,7 +7229,7 @@
       <c r="K140" s="2" t="inlineStr"/>
       <c r="L140" s="2" t="inlineStr">
         <is>
-          <t>Description of the applicant's interest in the land</t>
+          <t>Description of the applicant's interest in the adjacent land</t>
         </is>
       </c>
       <c r="M140" s="2" t="inlineStr">
@@ -7268,21 +7244,29 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n"/>
-      <c r="B141" s="2" t="n"/>
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>applicant-interest-adjoining-land</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
-          <t>Applicant interest adjoining land</t>
+          <t>Site seen from public area</t>
         </is>
       </c>
       <c r="F141" s="2" t="inlineStr"/>
@@ -7293,12 +7277,12 @@
       <c r="K141" s="2" t="inlineStr"/>
       <c r="L141" s="2" t="inlineStr">
         <is>
-          <t>Description of the applicant's interest in the adjacent land</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M141" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N141" s="2" t="inlineStr">
@@ -7308,16 +7292,8 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A142" s="2" t="n"/>
+      <c r="B142" s="2" t="n"/>
       <c r="C142" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -7325,12 +7301,12 @@
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F142" s="2" t="inlineStr"/>
@@ -7341,12 +7317,12 @@
       <c r="K142" s="2" t="inlineStr"/>
       <c r="L142" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M142" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N142" s="2" t="inlineStr">
@@ -7365,12 +7341,12 @@
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F143" s="2" t="inlineStr"/>
@@ -7381,17 +7357,17 @@
       <c r="K143" s="2" t="inlineStr"/>
       <c r="L143" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M143" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N143" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7405,23 +7381,31 @@
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr"/>
-      <c r="G144" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H144" s="2" t="inlineStr"/>
       <c r="I144" s="2" t="inlineStr"/>
       <c r="J144" s="2" t="inlineStr"/>
       <c r="K144" s="2" t="inlineStr"/>
       <c r="L144" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M144" s="2" t="inlineStr">
@@ -7431,7 +7415,7 @@
       </c>
       <c r="N144" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7455,12 +7439,12 @@
       </c>
       <c r="F145" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr"/>
@@ -7469,7 +7453,7 @@
       <c r="K145" s="2" t="inlineStr"/>
       <c r="L145" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M145" s="2" t="inlineStr">
@@ -7503,12 +7487,12 @@
       </c>
       <c r="F146" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr"/>
@@ -7517,7 +7501,7 @@
       <c r="K146" s="2" t="inlineStr"/>
       <c r="L146" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M146" s="2" t="inlineStr">
@@ -7532,40 +7516,40 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n"/>
-      <c r="B147" s="2" t="n"/>
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>Storage facilities</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>storage-facilities</t>
+        </is>
+      </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>For oil and gas extraction developments, how chemicals will be stored</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>storage-facilities-description</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F147" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G147" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Storage facilities description</t>
+        </is>
+      </c>
+      <c r="F147" s="2" t="inlineStr"/>
+      <c r="G147" s="2" t="inlineStr"/>
       <c r="H147" s="2" t="inlineStr"/>
       <c r="I147" s="2" t="inlineStr"/>
       <c r="J147" s="2" t="inlineStr"/>
       <c r="K147" s="2" t="inlineStr"/>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Details and proposed facilities for the storage of oil, fuel and chemicals and the proposed means of their protection</t>
         </is>
       </c>
       <c r="M147" s="2" t="inlineStr">
@@ -7582,27 +7566,27 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>Storage facilities</t>
+          <t>Trade effluent</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>storage-facilities</t>
+          <t>trade-effluent</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>For oil and gas extraction developments, how chemicals will be stored</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>storage-facilities-description</t>
+          <t>is-disposal-required</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
-          <t>Storage facilities description</t>
+          <t>Disposal required</t>
         </is>
       </c>
       <c r="F148" s="2" t="inlineStr"/>
@@ -7613,12 +7597,12 @@
       <c r="K148" s="2" t="inlineStr"/>
       <c r="L148" s="2" t="inlineStr">
         <is>
-          <t>Details and proposed facilities for the storage of oil, fuel and chemicals and the proposed means of their protection</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="M148" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N148" s="2" t="inlineStr">
@@ -7628,16 +7612,8 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>trade-effluent</t>
-        </is>
-      </c>
+      <c r="A149" s="2" t="n"/>
+      <c r="B149" s="2" t="n"/>
       <c r="C149" s="2" t="inlineStr">
         <is>
           <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
@@ -7645,12 +7621,12 @@
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>is-disposal-required</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F149" s="2" t="inlineStr"/>
@@ -7661,36 +7637,44 @@
       <c r="K149" s="2" t="inlineStr"/>
       <c r="L149" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="M149" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N149" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n"/>
-      <c r="B150" s="2" t="n"/>
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>trees-hedges</t>
+        </is>
+      </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>trees-on-site</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Trees on site</t>
         </is>
       </c>
       <c r="F150" s="2" t="inlineStr"/>
@@ -7701,31 +7685,23 @@
       <c r="K150" s="2" t="inlineStr"/>
       <c r="L150" s="2" t="inlineStr">
         <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
+          <t>Whether trees or hedges are present on the proposed development site</t>
         </is>
       </c>
       <c r="M150" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N150" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="inlineStr">
-        <is>
-          <t>Trees and hedges information</t>
-        </is>
-      </c>
-      <c r="B151" s="2" t="inlineStr">
-        <is>
-          <t>trees-hedges</t>
-        </is>
-      </c>
+      <c r="A151" s="2" t="n"/>
+      <c r="B151" s="2" t="n"/>
       <c r="C151" s="2" t="inlineStr">
         <is>
           <t>Details of trees and/or hedges that will be affected by the proposed development</t>
@@ -7733,12 +7709,12 @@
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>trees-on-site</t>
+          <t>trees-on-adj-land</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr">
         <is>
-          <t>Trees on site</t>
+          <t>Trees on adjacent land</t>
         </is>
       </c>
       <c r="F151" s="2" t="inlineStr"/>
@@ -7749,7 +7725,7 @@
       <c r="K151" s="2" t="inlineStr"/>
       <c r="L151" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges are present on the proposed development site</t>
+          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
         </is>
       </c>
       <c r="M151" s="2" t="inlineStr">
@@ -7764,21 +7740,30 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n"/>
-      <c r="B152" s="2" t="n"/>
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>Oil and gas permission types</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>oilgas-permission-type</t>
+        </is>
+      </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
         </is>
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>trees-on-adj-land</t>
+          <t>oilgas-permission-types</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
-          <t>Trees on adjacent land</t>
+          <t>Oil and gas permission types[]</t>
         </is>
       </c>
       <c r="F152" s="2" t="inlineStr"/>
@@ -7789,12 +7774,12 @@
       <c r="K152" s="2" t="inlineStr"/>
       <c r="L152" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
+          <t>List of permission types being applied for</t>
         </is>
       </c>
       <c r="M152" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N152" s="2" t="inlineStr">
@@ -7804,16 +7789,8 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="inlineStr">
-        <is>
-          <t>Oil and gas permission types</t>
-        </is>
-      </c>
-      <c r="B153" s="2" t="inlineStr">
-        <is>
-          <t>oilgas-permission-type</t>
-        </is>
-      </c>
+      <c r="A153" s="2" t="n"/>
+      <c r="B153" s="2" t="n"/>
       <c r="C153" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
@@ -7822,28 +7799,36 @@
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>oilgas-permission-types</t>
+          <t>related-permissions</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr">
         <is>
-          <t>Oil and gas permission types[]</t>
-        </is>
-      </c>
-      <c r="F153" s="2" t="inlineStr"/>
-      <c r="G153" s="2" t="inlineStr"/>
+          <t>Related permissions[]</t>
+        </is>
+      </c>
+      <c r="F153" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G153" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H153" s="2" t="inlineStr"/>
       <c r="I153" s="2" t="inlineStr"/>
       <c r="J153" s="2" t="inlineStr"/>
       <c r="K153" s="2" t="inlineStr"/>
       <c r="L153" s="2" t="inlineStr">
         <is>
-          <t>List of permission types being applied for</t>
+          <t>The reference for the related application that permission was received for</t>
         </is>
       </c>
       <c r="M153" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N153" s="2" t="inlineStr">
@@ -7873,12 +7858,12 @@
       </c>
       <c r="F154" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>oilgas-permission-type</t>
         </is>
       </c>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Oil and gas permission type</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr"/>
@@ -7887,12 +7872,12 @@
       <c r="K154" s="2" t="inlineStr"/>
       <c r="L154" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application that permission was received for</t>
+          <t>An oil and gas related permission type</t>
         </is>
       </c>
       <c r="M154" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N154" s="2" t="inlineStr">
@@ -7922,12 +7907,12 @@
       </c>
       <c r="F155" s="2" t="inlineStr">
         <is>
-          <t>oilgas-permission-type</t>
+          <t>decision-date</t>
         </is>
       </c>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Oil and gas permission type</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr"/>
@@ -7936,12 +7921,12 @@
       <c r="K155" s="2" t="inlineStr"/>
       <c r="L155" s="2" t="inlineStr">
         <is>
-          <t>An oil and gas related permission type</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M155" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N155" s="2" t="inlineStr">
@@ -7971,12 +7956,12 @@
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>decision-date</t>
+          <t>condition-number</t>
         </is>
       </c>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Decision date</t>
+          <t>Condition number</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr"/>
@@ -7985,7 +7970,7 @@
       <c r="K156" s="2" t="inlineStr"/>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Number of any condition being breached</t>
         </is>
       </c>
       <c r="M156" s="2" t="inlineStr">
@@ -7995,7 +7980,7 @@
       </c>
       <c r="N156" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8010,31 +7995,23 @@
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>related-permissions</t>
+          <t>other-details</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr">
         <is>
-          <t>Related permissions[]</t>
-        </is>
-      </c>
-      <c r="F157" s="2" t="inlineStr">
-        <is>
-          <t>condition-number</t>
-        </is>
-      </c>
-      <c r="G157" s="2" t="inlineStr">
-        <is>
-          <t>Condition number</t>
-        </is>
-      </c>
+          <t>Other details</t>
+        </is>
+      </c>
+      <c r="F157" s="2" t="inlineStr"/>
+      <c r="G157" s="2" t="inlineStr"/>
       <c r="H157" s="2" t="inlineStr"/>
       <c r="I157" s="2" t="inlineStr"/>
       <c r="J157" s="2" t="inlineStr"/>
       <c r="K157" s="2" t="inlineStr"/>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Number of any condition being breached</t>
+          <t>Explanation if other ground is selected</t>
         </is>
       </c>
       <c r="M157" s="2" t="inlineStr">
@@ -8059,12 +8036,12 @@
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>other-details</t>
+          <t>will-consolidate-permissions</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr">
         <is>
-          <t>Other details</t>
+          <t>Will consolidate permissions</t>
         </is>
       </c>
       <c r="F158" s="2" t="inlineStr"/>
@@ -8075,17 +8052,17 @@
       <c r="K158" s="2" t="inlineStr"/>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Explanation if other ground is selected</t>
+          <t>Is the applicant looking to consolidate permissions?</t>
         </is>
       </c>
       <c r="M158" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N158" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8100,12 +8077,12 @@
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>will-consolidate-permissions</t>
+          <t>details</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr">
         <is>
-          <t>Will consolidate permissions</t>
+          <t>Details</t>
         </is>
       </c>
       <c r="F159" s="2" t="inlineStr"/>
@@ -8116,17 +8093,17 @@
       <c r="K159" s="2" t="inlineStr"/>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant looking to consolidate permissions?</t>
+          <t>Details about the consolidation or update of permissions</t>
         </is>
       </c>
       <c r="M159" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N159" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8141,23 +8118,31 @@
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>details</t>
+          <t>related-proposals</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
-          <t>Details</t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="inlineStr"/>
-      <c r="G160" s="2" t="inlineStr"/>
+          <t>Related proposals[]</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G160" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H160" s="2" t="inlineStr"/>
       <c r="I160" s="2" t="inlineStr"/>
       <c r="J160" s="2" t="inlineStr"/>
       <c r="K160" s="2" t="inlineStr"/>
       <c r="L160" s="2" t="inlineStr">
         <is>
-          <t>Details about the consolidation or update of permissions</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="M160" s="2" t="inlineStr">
@@ -8167,7 +8152,7 @@
       </c>
       <c r="N160" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8192,12 +8177,12 @@
       </c>
       <c r="F161" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>application-type</t>
         </is>
       </c>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Application type</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr"/>
@@ -8206,12 +8191,12 @@
       <c r="K161" s="2" t="inlineStr"/>
       <c r="L161" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>The type of planning application</t>
         </is>
       </c>
       <c r="M161" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N161" s="2" t="inlineStr">
@@ -8241,12 +8226,12 @@
       </c>
       <c r="F162" s="2" t="inlineStr">
         <is>
-          <t>application-type</t>
+          <t>decision-date</t>
         </is>
       </c>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>Application type</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr"/>
@@ -8255,12 +8240,12 @@
       <c r="K162" s="2" t="inlineStr"/>
       <c r="L162" s="2" t="inlineStr">
         <is>
-          <t>The type of planning application</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M162" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N162" s="2" t="inlineStr">
@@ -8270,46 +8255,45 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n"/>
-      <c r="B163" s="2" t="n"/>
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>Development type</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <t>dev-type</t>
+        </is>
+      </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
-</t>
+          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>related-proposals</t>
+          <t>development-phase</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
-          <t>Related proposals[]</t>
-        </is>
-      </c>
-      <c r="F163" s="2" t="inlineStr">
-        <is>
-          <t>decision-date</t>
-        </is>
-      </c>
-      <c r="G163" s="2" t="inlineStr">
-        <is>
-          <t>Decision date</t>
-        </is>
-      </c>
+          <t>Development phase</t>
+        </is>
+      </c>
+      <c r="F163" s="2" t="inlineStr"/>
+      <c r="G163" s="2" t="inlineStr"/>
       <c r="H163" s="2" t="inlineStr"/>
       <c r="I163" s="2" t="inlineStr"/>
       <c r="J163" s="2" t="inlineStr"/>
       <c r="K163" s="2" t="inlineStr"/>
       <c r="L163" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Phases of oil and gas development the application covers</t>
         </is>
       </c>
       <c r="M163" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N163" s="2" t="inlineStr">
@@ -8319,16 +8303,8 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="inlineStr">
-        <is>
-          <t>Development type</t>
-        </is>
-      </c>
-      <c r="B164" s="2" t="inlineStr">
-        <is>
-          <t>dev-type</t>
-        </is>
-      </c>
+      <c r="A164" s="2" t="n"/>
+      <c r="B164" s="2" t="n"/>
       <c r="C164" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
@@ -8336,12 +8312,12 @@
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>development-phase</t>
+          <t>development-description</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
-          <t>Development phase</t>
+          <t>Development description</t>
         </is>
       </c>
       <c r="F164" s="2" t="inlineStr"/>
@@ -8352,12 +8328,12 @@
       <c r="K164" s="2" t="inlineStr"/>
       <c r="L164" s="2" t="inlineStr">
         <is>
-          <t>Phases of oil and gas development the application covers</t>
+          <t>Brief description of the development, including main oils, gases, and machinery</t>
         </is>
       </c>
       <c r="M164" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N164" s="2" t="inlineStr">
@@ -8376,12 +8352,12 @@
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>development-description</t>
+          <t>quantity-cubic-metres</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
-          <t>Development description</t>
+          <t>Quantity cubic metres</t>
         </is>
       </c>
       <c r="F165" s="2" t="inlineStr"/>
@@ -8392,12 +8368,12 @@
       <c r="K165" s="2" t="inlineStr"/>
       <c r="L165" s="2" t="inlineStr">
         <is>
-          <t>Brief description of the development, including main oils, gases, and machinery</t>
+          <t>Quantity of oil or gas involved in cubic metres</t>
         </is>
       </c>
       <c r="M165" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N165" s="2" t="inlineStr">
@@ -8416,12 +8392,12 @@
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>quantity-cubic-metres</t>
+          <t>permission-period-years</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
-          <t>Quantity cubic metres</t>
+          <t>Permission period years</t>
         </is>
       </c>
       <c r="F166" s="2" t="inlineStr"/>
@@ -8432,7 +8408,7 @@
       <c r="K166" s="2" t="inlineStr"/>
       <c r="L166" s="2" t="inlineStr">
         <is>
-          <t>Quantity of oil or gas involved in cubic metres</t>
+          <t>Period of permission sought in years</t>
         </is>
       </c>
       <c r="M166" s="2" t="inlineStr">
@@ -8442,7 +8418,7 @@
       </c>
       <c r="N166" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8456,12 +8432,12 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>permission-period-years</t>
+          <t>hydrocarbon-licence-block</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr">
         <is>
-          <t>Permission period years</t>
+          <t>Hydrocarbon licence block</t>
         </is>
       </c>
       <c r="F167" s="2" t="inlineStr"/>
@@ -8472,17 +8448,17 @@
       <c r="K167" s="2" t="inlineStr"/>
       <c r="L167" s="2" t="inlineStr">
         <is>
-          <t>Period of permission sought in years</t>
+          <t>Hydrocarbon licence block where the development is located</t>
         </is>
       </c>
       <c r="M167" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N167" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8496,12 +8472,12 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>hydrocarbon-licence-block</t>
+          <t>surface-site-area-hectares</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr">
         <is>
-          <t>Hydrocarbon licence block</t>
+          <t>Surface site area hectares</t>
         </is>
       </c>
       <c r="F168" s="2" t="inlineStr"/>
@@ -8512,17 +8488,17 @@
       <c r="K168" s="2" t="inlineStr"/>
       <c r="L168" s="2" t="inlineStr">
         <is>
-          <t>Hydrocarbon licence block where the development is located</t>
+          <t>Surface site area in hectares</t>
         </is>
       </c>
       <c r="M168" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N168" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8536,12 +8512,12 @@
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>surface-site-area-hectares</t>
+          <t>site-hectares-provided-by</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr">
         <is>
-          <t>Surface site area hectares</t>
+          <t>Site hectares provided by</t>
         </is>
       </c>
       <c r="F169" s="2" t="inlineStr"/>
@@ -8552,12 +8528,12 @@
       <c r="K169" s="2" t="inlineStr"/>
       <c r="L169" s="2" t="inlineStr">
         <is>
-          <t>Surface site area in hectares</t>
+          <t>Who provided the site hectares value (applicant or system)</t>
         </is>
       </c>
       <c r="M169" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N169" s="2" t="inlineStr">
@@ -8576,12 +8552,12 @@
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>site-hectares-provided-by</t>
+          <t>environmental-statement</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr">
         <is>
-          <t>Site hectares provided by</t>
+          <t>Environmental statement</t>
         </is>
       </c>
       <c r="F170" s="2" t="inlineStr"/>
@@ -8592,17 +8568,17 @@
       <c r="K170" s="2" t="inlineStr"/>
       <c r="L170" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site hectares value (applicant or system)</t>
+          <t>Is an Environmental Statement attached to the application</t>
         </is>
       </c>
       <c r="M170" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N170" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8616,12 +8592,12 @@
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>environmental-statement</t>
+          <t>environmental-statement-reference</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr">
         <is>
-          <t>Environmental statement</t>
+          <t>Environmental statement reference</t>
         </is>
       </c>
       <c r="F171" s="2" t="inlineStr"/>
@@ -8632,36 +8608,44 @@
       <c r="K171" s="2" t="inlineStr"/>
       <c r="L171" s="2" t="inlineStr">
         <is>
-          <t>Is an Environmental Statement attached to the application</t>
+          <t>Reference to the environmental statement document</t>
         </is>
       </c>
       <c r="M171" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N171" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n"/>
-      <c r="B172" s="2" t="n"/>
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>Voluntary agreement</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>vol-agreement</t>
+        </is>
+      </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
         </is>
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>environmental-statement-reference</t>
+          <t>draft-agreement-included</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr">
         <is>
-          <t>Environmental statement reference</t>
+          <t>Draft agreement included</t>
         </is>
       </c>
       <c r="F172" s="2" t="inlineStr"/>
@@ -8672,31 +8656,23 @@
       <c r="K172" s="2" t="inlineStr"/>
       <c r="L172" s="2" t="inlineStr">
         <is>
-          <t>Reference to the environmental statement document</t>
+          <t>Has an outline or draft agreement been included? (True / False)</t>
         </is>
       </c>
       <c r="M172" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N172" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="inlineStr">
-        <is>
-          <t>Voluntary agreement</t>
-        </is>
-      </c>
-      <c r="B173" s="2" t="inlineStr">
-        <is>
-          <t>vol-agreement</t>
-        </is>
-      </c>
+      <c r="A173" s="2" t="n"/>
+      <c r="B173" s="2" t="n"/>
       <c r="C173" s="2" t="inlineStr">
         <is>
           <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
@@ -8704,12 +8680,12 @@
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>draft-agreement-included</t>
+          <t>agreement-summary</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr">
         <is>
-          <t>Draft agreement included</t>
+          <t>Agreement summary</t>
         </is>
       </c>
       <c r="F173" s="2" t="inlineStr"/>
@@ -8720,55 +8696,15 @@
       <c r="K173" s="2" t="inlineStr"/>
       <c r="L173" s="2" t="inlineStr">
         <is>
-          <t>Has an outline or draft agreement been included? (True / False)</t>
+          <t>Summary of the agreement</t>
         </is>
       </c>
       <c r="M173" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N173" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="n"/>
-      <c r="B174" s="2" t="n"/>
-      <c r="C174" s="2" t="inlineStr">
-        <is>
-          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
-        </is>
-      </c>
-      <c r="D174" s="2" t="inlineStr">
-        <is>
-          <t>agreement-summary</t>
-        </is>
-      </c>
-      <c r="E174" s="2" t="inlineStr">
-        <is>
-          <t>Agreement summary</t>
-        </is>
-      </c>
-      <c r="F174" s="2" t="inlineStr"/>
-      <c r="G174" s="2" t="inlineStr"/>
-      <c r="H174" s="2" t="inlineStr"/>
-      <c r="I174" s="2" t="inlineStr"/>
-      <c r="J174" s="2" t="inlineStr"/>
-      <c r="K174" s="2" t="inlineStr"/>
-      <c r="L174" s="2" t="inlineStr">
-        <is>
-          <t>Summary of the agreement</t>
-        </is>
-      </c>
-      <c r="M174" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N174" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -8776,66 +8712,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B68"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="A164:A172"/>
-    <mergeCell ref="A68"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="B90:B97"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="A129:A137"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A84:A89"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="A148"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B98:B112"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="A60"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="B56"/>
-    <mergeCell ref="B164:B172"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B129:B137"/>
-    <mergeCell ref="A113:A120"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="B69:B78"/>
-    <mergeCell ref="B60"/>
-    <mergeCell ref="B84:B89"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="B148"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B153:B163"/>
-    <mergeCell ref="B61:B67"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="A153:A163"/>
-    <mergeCell ref="B113:B120"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="A98:A112"/>
-    <mergeCell ref="A142:A147"/>
-    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B97:B111"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="A68:A77"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B141:B146"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="A147"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="B55"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A163:A171"/>
+    <mergeCell ref="A67"/>
+    <mergeCell ref="B128:B136"/>
+    <mergeCell ref="A112:A119"/>
+    <mergeCell ref="A59"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B123:B127"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="B59"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A152:A162"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B112:B119"/>
+    <mergeCell ref="B67"/>
+    <mergeCell ref="B163:B171"/>
+    <mergeCell ref="A97:A111"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="A55"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B147"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="B152:B162"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A128:A136"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
+++ b/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N173"/>
+  <dimension ref="A1:N172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,22 +1275,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,37 +1319,29 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1359,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1393,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1449,75 +1441,67 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1527,21 +1511,13 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1549,23 +1525,31 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1599,21 +1583,29 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1623,7 +1615,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1657,24 +1649,24 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -1684,8 +1676,16 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1693,63 +1693,47 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1767,21 +1751,29 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1791,7 +1783,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1825,19 +1817,19 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1847,7 +1839,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1881,19 +1873,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1937,19 +1929,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -1993,19 +1985,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2015,7 +2007,7 @@
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2039,29 +2031,21 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2095,12 +2079,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr"/>
@@ -2109,12 +2093,12 @@
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -2124,64 +2108,56 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
       <c r="H31" s="2" t="inlineStr"/>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2189,23 +2165,31 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2239,21 +2223,29 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2263,7 +2255,7 @@
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2297,24 +2289,24 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -2324,72 +2316,64 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n"/>
-      <c r="B35" s="2" t="n"/>
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="2" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2407,21 +2391,29 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2431,7 +2423,7 @@
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2465,19 +2457,19 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2487,7 +2479,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2521,19 +2513,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2577,19 +2569,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2633,19 +2625,19 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2655,77 +2647,61 @@
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>flood-risk-assessment</t>
+        </is>
+      </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Results of any flood risk assessments made for the development site</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>flood-risk-area</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Flood risk area</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>flood-risk-assessment</t>
-        </is>
-      </c>
+      <c r="A42" s="2" t="n"/>
+      <c r="B42" s="2" t="n"/>
       <c r="C42" s="2" t="inlineStr">
         <is>
           <t>Results of any flood risk assessments made for the development site</t>
@@ -2733,12 +2709,12 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-area</t>
+          <t>data-provided-by</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr"/>
@@ -2749,17 +2725,17 @@
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2749,12 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>data-provided-by</t>
+          <t>flood-risk-assessment</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2789,12 +2765,12 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -2813,12 +2789,12 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-assessment</t>
+          <t>within-20m-watercourse</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2829,17 +2805,17 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2853,12 +2829,12 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>within-20m-watercourse</t>
+          <t>increases-flood-risk</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2869,7 +2845,7 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
@@ -2893,12 +2869,12 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>increases-flood-risk</t>
+          <t>surface-water-disposal</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
@@ -2909,12 +2885,12 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -2924,21 +2900,29 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n"/>
-      <c r="B47" s="2" t="n"/>
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>conflict-of-interest</t>
+        </is>
+      </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Results of any flood risk assessments made for the development site</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>surface-water-disposal</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2949,12 +2933,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -2964,16 +2948,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="2" t="n"/>
       <c r="C48" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -2981,12 +2957,12 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
@@ -2997,17 +2973,17 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3021,12 +2997,12 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
@@ -3037,7 +3013,7 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
@@ -3052,21 +3028,29 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n"/>
-      <c r="B50" s="2" t="n"/>
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity, geological and archaeological conservation</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>bio-geo-arch-con</t>
+        </is>
+      </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>protected-species-impact</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Protected species impact</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
@@ -3077,31 +3061,23 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>Where is there a likelihood of protected and priority species being affected?</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity, geological and archaeological conservation</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>bio-geo-arch-con</t>
-        </is>
-      </c>
+      <c r="A51" s="2" t="n"/>
+      <c r="B51" s="2" t="n"/>
       <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
@@ -3109,12 +3085,12 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>protected-species-impact</t>
+          <t>biodiversity-features-impact</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Protected species impact</t>
+          <t>Biodiversity features impact</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
@@ -3125,7 +3101,7 @@
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of protected and priority species being affected?</t>
+          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
@@ -3149,12 +3125,12 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>biodiversity-features-impact</t>
+          <t>geological-features-impact</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity features impact</t>
+          <t>Geological features impact</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr"/>
@@ -3165,7 +3141,7 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
+          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
@@ -3189,12 +3165,12 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>geological-features-impact</t>
+          <t>archaeological-features-impact</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Geological features impact</t>
+          <t>Archaeological features impact</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
@@ -3205,7 +3181,7 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
+          <t>Where is there a likelihood of features of archaeological conservation importance being affected?</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
@@ -3220,21 +3196,29 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n"/>
-      <c r="B54" s="2" t="n"/>
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>archaeological-features-impact</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>Archaeological features impact</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr"/>
@@ -3245,12 +3229,12 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of features of archaeological conservation importance being affected?</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
@@ -3262,27 +3246,27 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Declaration</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>declaration</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
@@ -3293,7 +3277,7 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
@@ -3308,16 +3292,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A56" s="2" t="n"/>
+      <c r="B56" s="2" t="n"/>
       <c r="C56" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -3325,12 +3301,12 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr"/>
@@ -3341,12 +3317,12 @@
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N56" s="2" t="inlineStr">
@@ -3365,12 +3341,12 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr"/>
@@ -3381,12 +3357,12 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
@@ -3396,21 +3372,29 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n"/>
-      <c r="B58" s="2" t="n"/>
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Designated areas</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>designated-areas</t>
+        </is>
+      </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Details of any 'designated area' the develpoment site is on, such as a Conservation Area or National Park.</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>designations</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Designations[]</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr"/>
@@ -3421,12 +3405,12 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>List of designated areas that apply to the site</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N58" s="2" t="inlineStr">
@@ -3438,43 +3422,51 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>Designated areas</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>designated-areas</t>
+          <t>employment</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Details of any 'designated area' the develpoment site is on, such as a Conservation Area or National Park.</t>
+          <t>How the proposed development will impact existing and proposed employee numbers</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>designations</t>
+          <t>existing-employees</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>Designations[]</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr"/>
+          <t>Existing employees</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>full-time</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
       <c r="H59" s="2" t="inlineStr"/>
       <c r="I59" s="2" t="inlineStr"/>
       <c r="J59" s="2" t="inlineStr"/>
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>List of designated areas that apply to the site</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N59" s="2" t="inlineStr">
@@ -3484,16 +3476,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>Employment</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>employment</t>
-        </is>
-      </c>
+      <c r="A60" s="2" t="n"/>
+      <c r="B60" s="2" t="n"/>
       <c r="C60" s="2" t="inlineStr">
         <is>
           <t>How the proposed development will impact existing and proposed employee numbers</t>
@@ -3511,12 +3495,12 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>full-time</t>
+          <t>part-time</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr"/>
@@ -3525,7 +3509,7 @@
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
@@ -3559,12 +3543,12 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>part-time</t>
+          <t>total-fte</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr"/>
@@ -3573,7 +3557,7 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
@@ -3597,22 +3581,22 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>existing-employees</t>
+          <t>proposed-employees</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Existing employees</t>
+          <t>Proposed employees</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>total-fte</t>
+          <t>full-time</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Total FTE</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr"/>
@@ -3621,7 +3605,7 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
@@ -3655,12 +3639,12 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>full-time</t>
+          <t>part-time</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr"/>
@@ -3669,7 +3653,7 @@
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
@@ -3703,12 +3687,12 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>part-time</t>
+          <t>total-fte</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr"/>
@@ -3717,7 +3701,7 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
@@ -3741,60 +3725,60 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>proposed-employees</t>
+          <t>employment-impact</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Proposed employees</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>total-fte</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t>Total FTE</t>
-        </is>
-      </c>
+          <t>Employment impact</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr"/>
       <c r="H65" s="2" t="inlineStr"/>
       <c r="I65" s="2" t="inlineStr"/>
       <c r="J65" s="2" t="inlineStr"/>
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Summary of net employment change (gain/loss)</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n"/>
-      <c r="B66" s="2" t="n"/>
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Equipment and method</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>equip-method</t>
+        </is>
+      </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
+          <t>How oil and gas will be extracted as part of the proposed development.</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>employment-impact</t>
+          <t>equipment-plan</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
+          <t>Equipment plan</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
@@ -3805,7 +3789,7 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>Details of equipment to be used as part of the application including the maximum height and type of drilling rig to be used</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
@@ -3815,50 +3799,58 @@
       </c>
       <c r="N66" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>Equipment and method</t>
+          <t>Existing use</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>equip-method</t>
+          <t>existing-use</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>How oil and gas will be extracted as part of the proposed development.</t>
+          <t>How the site is currently being used.</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>equipment-plan</t>
+          <t>existing-use-details</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Equipment plan</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr"/>
-      <c r="G67" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H67" s="2" t="inlineStr"/>
       <c r="I67" s="2" t="inlineStr"/>
       <c r="J67" s="2" t="inlineStr"/>
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Details of equipment to be used as part of the application including the maximum height and type of drilling rig to be used</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N67" s="2" t="inlineStr">
@@ -3868,16 +3860,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>existing-use</t>
-        </is>
-      </c>
+      <c r="A68" s="2" t="n"/>
+      <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
           <t>How the site is currently being used.</t>
@@ -3895,12 +3879,12 @@
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>use-details</t>
         </is>
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr"/>
@@ -3909,17 +3893,17 @@
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N68" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3943,12 +3927,12 @@
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>use-details</t>
+          <t>land-part</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr"/>
@@ -3957,7 +3941,7 @@
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
@@ -3967,7 +3951,7 @@
       </c>
       <c r="N69" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3981,36 +3965,28 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>existing-use-details</t>
+          <t>site-vacant</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>land-part</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr"/>
       <c r="H70" s="2" t="inlineStr"/>
       <c r="I70" s="2" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr"/>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N70" s="2" t="inlineStr">
@@ -4029,12 +4005,12 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>site-vacant</t>
+          <t>last-use-details</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr"/>
@@ -4045,17 +4021,17 @@
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4069,12 +4045,12 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>last-use-details</t>
+          <t>last-use-end-date</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr"/>
@@ -4085,12 +4061,12 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N72" s="2" t="inlineStr">
@@ -4109,12 +4085,12 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>last-use-end-date</t>
+          <t>is-contaminated-land</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr"/>
@@ -4125,17 +4101,17 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N73" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4149,12 +4125,12 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>is-contaminated-land</t>
+          <t>is-suspected-contaminated-land</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr"/>
@@ -4165,7 +4141,7 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
@@ -4189,12 +4165,12 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>is-suspected-contaminated-land</t>
+          <t>proposed-use-contamination-risk</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr"/>
@@ -4205,7 +4181,7 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
@@ -4229,12 +4205,12 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>proposed-use-contamination-risk</t>
+          <t>contamination-assessment</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr"/>
@@ -4245,36 +4221,44 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N76" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n"/>
-      <c r="B77" s="2" t="n"/>
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>Foul sewage disposal</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>foul-sewage</t>
+        </is>
+      </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>How the site is currently being used.</t>
+          <t>How waste water will leave the property as part of the proposed development</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>contamination-assessment</t>
+          <t>has-new-disposal-arrangements</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Has new disposal arrangements</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr"/>
@@ -4285,31 +4269,23 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Does the proposal include any new foul sewage disposal arrangments</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N77" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>Foul sewage disposal</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>foul-sewage</t>
-        </is>
-      </c>
+      <c r="A78" s="2" t="n"/>
+      <c r="B78" s="2" t="n"/>
       <c r="C78" s="2" t="inlineStr">
         <is>
           <t>How waste water will leave the property as part of the proposed development</t>
@@ -4317,12 +4293,12 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>has-new-disposal-arrangements</t>
+          <t>foul-sewage-disposal-types</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Has new disposal arrangements</t>
+          <t>Foul sewage disposal types[]</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>
@@ -4333,17 +4309,17 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include any new foul sewage disposal arrangments</t>
+          <t>List of ways foul sewage will be disposed of</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4357,12 +4333,12 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>foul-sewage-disposal-types</t>
+          <t>produce-foul-sewage</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Foul sewage disposal types[]</t>
+          <t>Produce foul sewage</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr"/>
@@ -4373,17 +4349,17 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>List of ways foul sewage will be disposed of</t>
+          <t>Whether the proposed development will produce any foul sewage</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4397,12 +4373,12 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>produce-foul-sewage</t>
+          <t>connect-to-drainage-system</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Produce foul sewage</t>
+          <t>Connect to drainage system</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr"/>
@@ -4413,7 +4389,7 @@
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposed development will produce any foul sewage</t>
+          <t>Whether the proposal needs to connect to the existing drainage system</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
@@ -4437,12 +4413,12 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>connect-to-drainage-system</t>
+          <t>drainage-system-details</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
+          <t>Drainage system details</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr"/>
@@ -4453,36 +4429,44 @@
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>Details of the drawings/plans that show the existing drainage system</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N81" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n"/>
-      <c r="B82" s="2" t="n"/>
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substances</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>haz-substances</t>
+        </is>
+      </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>How waste water will leave the property as part of the proposed development</t>
+          <t>What hazardous substances may be used as part of the development</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>drainage-system-details</t>
+          <t>involves-hazardous-substances</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Drainage system details</t>
+          <t>Involves hazardous substances</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr"/>
@@ -4493,31 +4477,23 @@
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Details of the drawings/plans that show the existing drainage system</t>
+          <t>Indicates if hazardous substances are involved in the proposal</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N82" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substances</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>haz-substances</t>
-        </is>
-      </c>
+      <c r="A83" s="2" t="n"/>
+      <c r="B83" s="2" t="n"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
           <t>What hazardous substances may be used as part of the development</t>
@@ -4525,23 +4501,31 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>involves-hazardous-substances</t>
+          <t>substance-types</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Involves hazardous substances</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="inlineStr"/>
-      <c r="G83" s="2" t="inlineStr"/>
+          <t>Substance types[]</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>hazardous-substance-type</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substance type</t>
+        </is>
+      </c>
       <c r="H83" s="2" t="inlineStr"/>
       <c r="I83" s="2" t="inlineStr"/>
       <c r="J83" s="2" t="inlineStr"/>
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Indicates if hazardous substances are involved in the proposal</t>
+          <t>Reference of hazardous substance type from predefined list</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
@@ -4575,12 +4559,12 @@
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>hazardous-substance-type</t>
+          <t>hazardous-substance-other</t>
         </is>
       </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance type</t>
+          <t>Hazardous substance other</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr"/>
@@ -4589,17 +4573,17 @@
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Reference of hazardous substance type from predefined list</t>
+          <t>The specific name of the hazardous substance if other is selected</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N84" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4623,12 +4607,12 @@
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>hazardous-substance-other</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance other</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr"/>
@@ -4637,17 +4621,17 @@
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>The specific name of the hazardous substance if other is selected</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N85" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4661,36 +4645,28 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>substance-types</t>
+          <t>hazardous-sub-consent-req</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
-        </is>
-      </c>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="G86" s="2" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
+          <t>Hazardous substance consent required</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr"/>
+      <c r="G86" s="2" t="inlineStr"/>
       <c r="H86" s="2" t="inlineStr"/>
       <c r="I86" s="2" t="inlineStr"/>
       <c r="J86" s="2" t="inlineStr"/>
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N86" s="2" t="inlineStr">
@@ -4709,12 +4685,12 @@
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>hazardous-sub-consent-req</t>
+          <t>hazardous-sub-consent-details</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent required</t>
+          <t>Hazardous substance consent details</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr"/>
@@ -4725,71 +4701,79 @@
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
+          <t>Details of hazardous substance consent requirements</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N87" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n"/>
-      <c r="B88" s="2" t="n"/>
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>hrs-operation</t>
+        </is>
+      </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>hazardous-sub-consent-details</t>
+          <t>hours-of-operation</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent details</t>
-        </is>
-      </c>
-      <c r="F88" s="2" t="inlineStr"/>
-      <c r="G88" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H88" s="2" t="inlineStr"/>
       <c r="I88" s="2" t="inlineStr"/>
       <c r="J88" s="2" t="inlineStr"/>
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>Details of hazardous substance consent requirements</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N88" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B89" s="2" t="inlineStr">
-        <is>
-          <t>hrs-operation</t>
-        </is>
-      </c>
+      <c r="A89" s="2" t="n"/>
+      <c r="B89" s="2" t="n"/>
       <c r="C89" s="2" t="inlineStr">
         <is>
           <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
@@ -4807,12 +4791,12 @@
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>use-other</t>
         </is>
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr"/>
@@ -4821,17 +4805,17 @@
       <c r="K89" s="2" t="inlineStr"/>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N89" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4855,31 +4839,39 @@
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>use-other</t>
+          <t>operational-times</t>
         </is>
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
-        </is>
-      </c>
-      <c r="H90" s="2" t="inlineStr"/>
-      <c r="I90" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>day-type</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="inlineStr">
+        <is>
+          <t>Day type</t>
+        </is>
+      </c>
       <c r="J90" s="2" t="inlineStr"/>
       <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Day or type of day</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N90" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4913,29 +4905,29 @@
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>day-type</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>Day type</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="J91" s="2" t="inlineStr"/>
       <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>Day or type of day</t>
+          <t>True or False - explicitly state when closed</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N91" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4969,29 +4961,37 @@
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>time-ranges</t>
         </is>
       </c>
       <c r="I92" s="2" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="J92" s="2" t="inlineStr"/>
-      <c r="K92" s="2" t="inlineStr"/>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="J92" s="2" t="inlineStr">
+        <is>
+          <t>open-time</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="inlineStr">
+        <is>
+          <t>Open time</t>
+        </is>
+      </c>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>True or False - explicitly state when closed</t>
+          <t>Opening time</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N92" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5035,17 +5035,17 @@
       </c>
       <c r="J93" s="2" t="inlineStr">
         <is>
-          <t>open-time</t>
+          <t>close-time</t>
         </is>
       </c>
       <c r="K93" s="2" t="inlineStr">
         <is>
-          <t>Open time</t>
+          <t>Close time</t>
         </is>
       </c>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Opening time</t>
+          <t>Closing time</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
@@ -5079,47 +5079,31 @@
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>operational-times</t>
+          <t>hours-not-known</t>
         </is>
       </c>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>time-ranges</t>
-        </is>
-      </c>
-      <c r="I94" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>close-time</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="inlineStr">
-        <is>
-          <t>Close time</t>
-        </is>
-      </c>
+          <t>Hours not known</t>
+        </is>
+      </c>
+      <c r="H94" s="2" t="inlineStr"/>
+      <c r="I94" s="2" t="inlineStr"/>
+      <c r="J94" s="2" t="inlineStr"/>
+      <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Closing time</t>
+          <t>Applicant states they do not know the hours of operation</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N94" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5133,36 +5117,28 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>hours-of-operation</t>
+          <t>additional-information</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
-        </is>
-      </c>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>hours-not-known</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="inlineStr">
-        <is>
-          <t>Hours not known</t>
-        </is>
-      </c>
+          <t>Additional information</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr"/>
+      <c r="G95" s="2" t="inlineStr"/>
       <c r="H95" s="2" t="inlineStr"/>
       <c r="I95" s="2" t="inlineStr"/>
       <c r="J95" s="2" t="inlineStr"/>
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Applicant states they do not know the hours of operation</t>
+          <t>Any additional information (such as hours of use of other machinery within the site-generators, pumps, etc)</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N95" s="2" t="inlineStr">
@@ -5172,21 +5148,29 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n"/>
-      <c r="B96" s="2" t="n"/>
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>ownership-certs</t>
+        </is>
+      </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>additional-information</t>
+          <t>sole-owner</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>Additional information</t>
+          <t>Sole owner</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr"/>
@@ -5197,31 +5181,23 @@
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>Any additional information (such as hours of use of other machinery within the site-generators, pumps, etc)</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N96" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B97" s="2" t="inlineStr">
-        <is>
-          <t>ownership-certs</t>
-        </is>
-      </c>
+      <c r="A97" s="2" t="n"/>
+      <c r="B97" s="2" t="n"/>
       <c r="C97" s="2" t="inlineStr">
         <is>
           <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
@@ -5229,12 +5205,12 @@
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>sole-owner</t>
+          <t>agricultural-tenants</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="F97" s="2" t="inlineStr"/>
@@ -5245,7 +5221,7 @@
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="M97" s="2" t="inlineStr">
@@ -5269,33 +5245,49 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>agricultural-tenants</t>
+          <t>owners-and-tenants</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="F98" s="2" t="inlineStr"/>
-      <c r="G98" s="2" t="inlineStr"/>
-      <c r="H98" s="2" t="inlineStr"/>
-      <c r="I98" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H98" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I98" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J98" s="2" t="inlineStr"/>
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M98" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N98" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5329,19 +5321,19 @@
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I99" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J99" s="2" t="inlineStr"/>
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M99" s="2" t="inlineStr">
@@ -5351,7 +5343,7 @@
       </c>
       <c r="N99" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5385,19 +5377,19 @@
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I100" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J100" s="2" t="inlineStr"/>
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M100" s="2" t="inlineStr">
@@ -5441,19 +5433,19 @@
       </c>
       <c r="H101" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I101" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J101" s="2" t="inlineStr"/>
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M101" s="2" t="inlineStr">
@@ -5497,19 +5489,19 @@
       </c>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I102" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J102" s="2" t="inlineStr"/>
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
@@ -5519,7 +5511,7 @@
       </c>
       <c r="N102" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5543,34 +5535,26 @@
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>notice-date</t>
         </is>
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H103" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I103" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="H103" s="2" t="inlineStr"/>
+      <c r="I103" s="2" t="inlineStr"/>
       <c r="J103" s="2" t="inlineStr"/>
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N103" s="2" t="inlineStr">
@@ -5589,36 +5573,28 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>owners-and-tenants</t>
+          <t>steps-taken</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="F104" s="2" t="inlineStr">
-        <is>
-          <t>notice-date</t>
-        </is>
-      </c>
-      <c r="G104" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr"/>
+      <c r="G104" s="2" t="inlineStr"/>
       <c r="H104" s="2" t="inlineStr"/>
       <c r="I104" s="2" t="inlineStr"/>
       <c r="J104" s="2" t="inlineStr"/>
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N104" s="2" t="inlineStr">
@@ -5637,23 +5613,31 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>steps-taken</t>
+          <t>newspaper-notices</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="F105" s="2" t="inlineStr"/>
-      <c r="G105" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>newspaper-name</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="H105" s="2" t="inlineStr"/>
       <c r="I105" s="2" t="inlineStr"/>
       <c r="J105" s="2" t="inlineStr"/>
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
@@ -5663,7 +5647,7 @@
       </c>
       <c r="N105" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5687,12 +5671,12 @@
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>newspaper-name</t>
+          <t>publication-date</t>
         </is>
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr"/>
@@ -5701,12 +5685,12 @@
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N106" s="2" t="inlineStr">
@@ -5725,41 +5709,33 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>newspaper-notices</t>
+          <t>ownership-cert-option</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="F107" s="2" t="inlineStr">
-        <is>
-          <t>publication-date</t>
-        </is>
-      </c>
-      <c r="G107" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr"/>
+      <c r="G107" s="2" t="inlineStr"/>
       <c r="H107" s="2" t="inlineStr"/>
       <c r="I107" s="2" t="inlineStr"/>
       <c r="J107" s="2" t="inlineStr"/>
       <c r="K107" s="2" t="inlineStr"/>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="M107" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N107" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5773,12 +5749,12 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>ownership-cert-option</t>
+          <t>applicant-signature</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="F108" s="2" t="inlineStr"/>
@@ -5789,12 +5765,12 @@
       <c r="K108" s="2" t="inlineStr"/>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="M108" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N108" s="2" t="inlineStr">
@@ -5813,12 +5789,12 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>applicant-signature</t>
+          <t>agent-signature</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="F109" s="2" t="inlineStr"/>
@@ -5829,7 +5805,7 @@
       <c r="K109" s="2" t="inlineStr"/>
       <c r="L109" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="M109" s="2" t="inlineStr">
@@ -5853,12 +5829,12 @@
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>agent-signature</t>
+          <t>signature-date</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="F110" s="2" t="inlineStr"/>
@@ -5869,12 +5845,12 @@
       <c r="K110" s="2" t="inlineStr"/>
       <c r="L110" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="M110" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N110" s="2" t="inlineStr">
@@ -5884,21 +5860,29 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n"/>
-      <c r="B111" s="2" t="n"/>
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>access-rights-of-way</t>
+        </is>
+      </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>new-altered-vehicle</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>New or altered vehicle access</t>
         </is>
       </c>
       <c r="F111" s="2" t="inlineStr"/>
@@ -5909,31 +5893,23 @@
       <c r="K111" s="2" t="inlineStr"/>
       <c r="L111" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M111" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N111" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B112" s="2" t="inlineStr">
-        <is>
-          <t>access-rights-of-way</t>
-        </is>
-      </c>
+      <c r="A112" s="2" t="n"/>
+      <c r="B112" s="2" t="n"/>
       <c r="C112" s="2" t="inlineStr">
         <is>
           <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
@@ -5941,12 +5917,12 @@
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>new-altered-vehicle</t>
+          <t>new-altered-pedestrian</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="F112" s="2" t="inlineStr"/>
@@ -5957,7 +5933,7 @@
       <c r="K112" s="2" t="inlineStr"/>
       <c r="L112" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M112" s="2" t="inlineStr">
@@ -5981,12 +5957,12 @@
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>new-altered-pedestrian</t>
+          <t>new-right-of-way</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
+          <t>New right of way</t>
         </is>
       </c>
       <c r="F113" s="2" t="inlineStr"/>
@@ -5997,7 +5973,7 @@
       <c r="K113" s="2" t="inlineStr"/>
       <c r="L113" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>Will new public rights of way be provided within or adjacent to the site</t>
         </is>
       </c>
       <c r="M113" s="2" t="inlineStr">
@@ -6021,12 +5997,12 @@
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>new-right-of-way</t>
+          <t>new-public-road</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
-          <t>New right of way</t>
+          <t>New public road</t>
         </is>
       </c>
       <c r="F114" s="2" t="inlineStr"/>
@@ -6037,7 +6013,7 @@
       <c r="K114" s="2" t="inlineStr"/>
       <c r="L114" s="2" t="inlineStr">
         <is>
-          <t>Will new public rights of way be provided within or adjacent to the site</t>
+          <t>Will new public roads be provided within the site</t>
         </is>
       </c>
       <c r="M114" s="2" t="inlineStr">
@@ -6061,12 +6037,12 @@
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>new-public-road</t>
+          <t>temp-right-of-way</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t>New public road</t>
+          <t>Temporary right of way changes</t>
         </is>
       </c>
       <c r="F115" s="2" t="inlineStr"/>
@@ -6077,7 +6053,7 @@
       <c r="K115" s="2" t="inlineStr"/>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>Will new public roads be provided within the site</t>
+          <t>Are temporary changes to rights of way needed while the site is worked</t>
         </is>
       </c>
       <c r="M115" s="2" t="inlineStr">
@@ -6101,12 +6077,12 @@
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>temp-right-of-way</t>
+          <t>future-new-right-of-way</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>Temporary right of way changes</t>
+          <t>Future new right of way</t>
         </is>
       </c>
       <c r="F116" s="2" t="inlineStr"/>
@@ -6117,7 +6093,7 @@
       <c r="K116" s="2" t="inlineStr"/>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>Are temporary changes to rights of way needed while the site is worked</t>
+          <t>Will new public rights of way be provided after extraction?</t>
         </is>
       </c>
       <c r="M116" s="2" t="inlineStr">
@@ -6141,28 +6117,36 @@
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>future-new-right-of-way</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
-          <t>Future new right of way</t>
-        </is>
-      </c>
-      <c r="F117" s="2" t="inlineStr"/>
-      <c r="G117" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H117" s="2" t="inlineStr"/>
       <c r="I117" s="2" t="inlineStr"/>
       <c r="J117" s="2" t="inlineStr"/>
       <c r="K117" s="2" t="inlineStr"/>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Will new public rights of way be provided after extraction?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M117" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N117" s="2" t="inlineStr">
@@ -6191,12 +6175,12 @@
       </c>
       <c r="F118" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr"/>
@@ -6205,7 +6189,7 @@
       <c r="K118" s="2" t="inlineStr"/>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M118" s="2" t="inlineStr">
@@ -6220,31 +6204,39 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n"/>
-      <c r="B119" s="2" t="n"/>
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>Plans, drawings and supporting materials</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>plans-drawings-supporting-materials</t>
+        </is>
+      </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+          <t>Additional materials and specifications that form part of the planning application</t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>plans-documents</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
+          <t>Plans documents[]</t>
         </is>
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>reference-number</t>
         </is>
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Reference number</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr"/>
@@ -6253,7 +6245,7 @@
       <c r="K119" s="2" t="inlineStr"/>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Unique identifier for the document</t>
         </is>
       </c>
       <c r="M119" s="2" t="inlineStr">
@@ -6268,16 +6260,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="inlineStr">
-        <is>
-          <t>Plans, drawings and supporting materials</t>
-        </is>
-      </c>
-      <c r="B120" s="2" t="inlineStr">
-        <is>
-          <t>plans-drawings-supporting-materials</t>
-        </is>
-      </c>
+      <c r="A120" s="2" t="n"/>
+      <c r="B120" s="2" t="n"/>
       <c r="C120" s="2" t="inlineStr">
         <is>
           <t>Additional materials and specifications that form part of the planning application</t>
@@ -6295,12 +6279,12 @@
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>reference-number</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>Reference number</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr"/>
@@ -6309,7 +6293,7 @@
       <c r="K120" s="2" t="inlineStr"/>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>Unique identifier for the document</t>
+          <t>Name of the document (descriptive)</t>
         </is>
       </c>
       <c r="M120" s="2" t="inlineStr">
@@ -6333,31 +6317,23 @@
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>plans-documents</t>
+          <t>inspection-address</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
-          <t>Plans documents[]</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Inspection address</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr"/>
+      <c r="G121" s="2" t="inlineStr"/>
       <c r="H121" s="2" t="inlineStr"/>
       <c r="I121" s="2" t="inlineStr"/>
       <c r="J121" s="2" t="inlineStr"/>
       <c r="K121" s="2" t="inlineStr"/>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Name of the document (descriptive)</t>
+          <t>Full postal address where supporting material can be inspected</t>
         </is>
       </c>
       <c r="M121" s="2" t="inlineStr">
@@ -6372,21 +6348,29 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n"/>
-      <c r="B122" s="2" t="n"/>
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>Additional materials and specifications that form part of the planning application</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>inspection-address</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
-          <t>Inspection address</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F122" s="2" t="inlineStr"/>
@@ -6397,12 +6381,12 @@
       <c r="K122" s="2" t="inlineStr"/>
       <c r="L122" s="2" t="inlineStr">
         <is>
-          <t>Full postal address where supporting material can be inspected</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M122" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N122" s="2" t="inlineStr">
@@ -6412,16 +6396,8 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B123" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A123" s="2" t="n"/>
+      <c r="B123" s="2" t="n"/>
       <c r="C123" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -6429,12 +6405,12 @@
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F123" s="2" t="inlineStr"/>
@@ -6445,17 +6421,17 @@
       <c r="K123" s="2" t="inlineStr"/>
       <c r="L123" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M123" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N123" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6469,12 +6445,12 @@
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F124" s="2" t="inlineStr"/>
@@ -6485,7 +6461,7 @@
       <c r="K124" s="2" t="inlineStr"/>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M124" s="2" t="inlineStr">
@@ -6509,12 +6485,12 @@
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F125" s="2" t="inlineStr"/>
@@ -6525,7 +6501,7 @@
       <c r="K125" s="2" t="inlineStr"/>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M125" s="2" t="inlineStr">
@@ -6549,12 +6525,12 @@
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F126" s="2" t="inlineStr"/>
@@ -6565,7 +6541,7 @@
       <c r="K126" s="2" t="inlineStr"/>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M126" s="2" t="inlineStr">
@@ -6580,37 +6556,53 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n"/>
-      <c r="B127" s="2" t="n"/>
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="F127" s="2" t="inlineStr"/>
-      <c r="G127" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H127" s="2" t="inlineStr"/>
       <c r="I127" s="2" t="inlineStr"/>
       <c r="J127" s="2" t="inlineStr"/>
       <c r="K127" s="2" t="inlineStr"/>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M127" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N127" s="2" t="inlineStr">
@@ -6620,16 +6612,8 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A128" s="2" t="n"/>
+      <c r="B128" s="2" t="n"/>
       <c r="C128" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -6647,12 +6631,12 @@
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr"/>
@@ -6661,12 +6645,12 @@
       <c r="K128" s="2" t="inlineStr"/>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M128" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N128" s="2" t="inlineStr">
@@ -6695,12 +6679,12 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr"/>
@@ -6709,7 +6693,7 @@
       <c r="K129" s="2" t="inlineStr"/>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M129" s="2" t="inlineStr">
@@ -6743,12 +6727,12 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr"/>
@@ -6757,12 +6741,12 @@
       <c r="K130" s="2" t="inlineStr"/>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M130" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N130" s="2" t="inlineStr">
@@ -6791,12 +6775,12 @@
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr"/>
@@ -6805,7 +6789,7 @@
       <c r="K131" s="2" t="inlineStr"/>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M131" s="2" t="inlineStr">
@@ -6839,12 +6823,12 @@
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr"/>
@@ -6853,7 +6837,7 @@
       <c r="K132" s="2" t="inlineStr"/>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M132" s="2" t="inlineStr">
@@ -6887,12 +6871,12 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr"/>
@@ -6901,7 +6885,7 @@
       <c r="K133" s="2" t="inlineStr"/>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M133" s="2" t="inlineStr">
@@ -6935,12 +6919,12 @@
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr"/>
@@ -6949,12 +6933,12 @@
       <c r="K134" s="2" t="inlineStr"/>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M134" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N134" s="2" t="inlineStr">
@@ -6983,12 +6967,12 @@
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr"/>
@@ -6997,7 +6981,7 @@
       <c r="K135" s="2" t="inlineStr"/>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M135" s="2" t="inlineStr">
@@ -7012,31 +6996,39 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n"/>
-      <c r="B136" s="2" t="n"/>
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>Site ownership</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>site-ownership</t>
+        </is>
+      </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>site-owner</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Site owner</t>
         </is>
       </c>
       <c r="F136" s="2" t="inlineStr">
         <is>
-          <t>uprns</t>
+          <t>fullname</t>
         </is>
       </c>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr"/>
@@ -7045,7 +7037,7 @@
       <c r="K136" s="2" t="inlineStr"/>
       <c r="L136" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M136" s="2" t="inlineStr">
@@ -7055,21 +7047,13 @@
       </c>
       <c r="N136" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="inlineStr">
-        <is>
-          <t>Site ownership</t>
-        </is>
-      </c>
-      <c r="B137" s="2" t="inlineStr">
-        <is>
-          <t>site-ownership</t>
-        </is>
-      </c>
+      <c r="A137" s="2" t="n"/>
+      <c r="B137" s="2" t="n"/>
       <c r="C137" s="2" t="inlineStr">
         <is>
           <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
@@ -7087,12 +7071,12 @@
       </c>
       <c r="F137" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr"/>
@@ -7101,7 +7085,7 @@
       <c r="K137" s="2" t="inlineStr"/>
       <c r="L137" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M137" s="2" t="inlineStr">
@@ -7125,31 +7109,23 @@
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>site-owner</t>
+          <t>applicant-interest</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
-          <t>Site owner</t>
-        </is>
-      </c>
-      <c r="F138" s="2" t="inlineStr">
-        <is>
-          <t>address-text</t>
-        </is>
-      </c>
-      <c r="G138" s="2" t="inlineStr">
-        <is>
-          <t>Address Text</t>
-        </is>
-      </c>
+          <t>Applicant interest</t>
+        </is>
+      </c>
+      <c r="F138" s="2" t="inlineStr"/>
+      <c r="G138" s="2" t="inlineStr"/>
       <c r="H138" s="2" t="inlineStr"/>
       <c r="I138" s="2" t="inlineStr"/>
       <c r="J138" s="2" t="inlineStr"/>
       <c r="K138" s="2" t="inlineStr"/>
       <c r="L138" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Description of the applicant's interest in the land</t>
         </is>
       </c>
       <c r="M138" s="2" t="inlineStr">
@@ -7173,12 +7149,12 @@
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>applicant-interest</t>
+          <t>applicant-interest-adjoining-land</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
-          <t>Applicant interest</t>
+          <t>Applicant interest adjoining land</t>
         </is>
       </c>
       <c r="F139" s="2" t="inlineStr"/>
@@ -7189,7 +7165,7 @@
       <c r="K139" s="2" t="inlineStr"/>
       <c r="L139" s="2" t="inlineStr">
         <is>
-          <t>Description of the applicant's interest in the land</t>
+          <t>Description of the applicant's interest in the adjacent land</t>
         </is>
       </c>
       <c r="M139" s="2" t="inlineStr">
@@ -7204,21 +7180,29 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n"/>
-      <c r="B140" s="2" t="n"/>
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>applicant-interest-adjoining-land</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
-          <t>Applicant interest adjoining land</t>
+          <t>Site seen from public area</t>
         </is>
       </c>
       <c r="F140" s="2" t="inlineStr"/>
@@ -7229,12 +7213,12 @@
       <c r="K140" s="2" t="inlineStr"/>
       <c r="L140" s="2" t="inlineStr">
         <is>
-          <t>Description of the applicant's interest in the adjacent land</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M140" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N140" s="2" t="inlineStr">
@@ -7244,16 +7228,8 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A141" s="2" t="n"/>
+      <c r="B141" s="2" t="n"/>
       <c r="C141" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -7261,12 +7237,12 @@
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F141" s="2" t="inlineStr"/>
@@ -7277,12 +7253,12 @@
       <c r="K141" s="2" t="inlineStr"/>
       <c r="L141" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M141" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N141" s="2" t="inlineStr">
@@ -7301,12 +7277,12 @@
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F142" s="2" t="inlineStr"/>
@@ -7317,17 +7293,17 @@
       <c r="K142" s="2" t="inlineStr"/>
       <c r="L142" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M142" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N142" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7341,23 +7317,31 @@
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr"/>
-      <c r="G143" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H143" s="2" t="inlineStr"/>
       <c r="I143" s="2" t="inlineStr"/>
       <c r="J143" s="2" t="inlineStr"/>
       <c r="K143" s="2" t="inlineStr"/>
       <c r="L143" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M143" s="2" t="inlineStr">
@@ -7367,7 +7351,7 @@
       </c>
       <c r="N143" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7391,12 +7375,12 @@
       </c>
       <c r="F144" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr"/>
@@ -7405,7 +7389,7 @@
       <c r="K144" s="2" t="inlineStr"/>
       <c r="L144" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M144" s="2" t="inlineStr">
@@ -7439,12 +7423,12 @@
       </c>
       <c r="F145" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr"/>
@@ -7453,7 +7437,7 @@
       <c r="K145" s="2" t="inlineStr"/>
       <c r="L145" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M145" s="2" t="inlineStr">
@@ -7468,40 +7452,40 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n"/>
-      <c r="B146" s="2" t="n"/>
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>Storage facilities</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>storage-facilities</t>
+        </is>
+      </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>For oil and gas extraction developments, how chemicals will be stored</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>storage-facilities-description</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F146" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G146" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Storage facilities description</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr"/>
+      <c r="G146" s="2" t="inlineStr"/>
       <c r="H146" s="2" t="inlineStr"/>
       <c r="I146" s="2" t="inlineStr"/>
       <c r="J146" s="2" t="inlineStr"/>
       <c r="K146" s="2" t="inlineStr"/>
       <c r="L146" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Details and proposed facilities for the storage of oil, fuel and chemicals and the proposed means of their protection</t>
         </is>
       </c>
       <c r="M146" s="2" t="inlineStr">
@@ -7518,27 +7502,27 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>Storage facilities</t>
+          <t>Trade effluent</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>storage-facilities</t>
+          <t>trade-effluent</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>For oil and gas extraction developments, how chemicals will be stored</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>storage-facilities-description</t>
+          <t>is-disposal-required</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
-          <t>Storage facilities description</t>
+          <t>Disposal required</t>
         </is>
       </c>
       <c r="F147" s="2" t="inlineStr"/>
@@ -7549,12 +7533,12 @@
       <c r="K147" s="2" t="inlineStr"/>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>Details and proposed facilities for the storage of oil, fuel and chemicals and the proposed means of their protection</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="M147" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N147" s="2" t="inlineStr">
@@ -7564,16 +7548,8 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B148" s="2" t="inlineStr">
-        <is>
-          <t>trade-effluent</t>
-        </is>
-      </c>
+      <c r="A148" s="2" t="n"/>
+      <c r="B148" s="2" t="n"/>
       <c r="C148" s="2" t="inlineStr">
         <is>
           <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
@@ -7581,12 +7557,12 @@
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>is-disposal-required</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F148" s="2" t="inlineStr"/>
@@ -7597,36 +7573,44 @@
       <c r="K148" s="2" t="inlineStr"/>
       <c r="L148" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="M148" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N148" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n"/>
-      <c r="B149" s="2" t="n"/>
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>trees-hedges</t>
+        </is>
+      </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>trees-on-site</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Trees on site</t>
         </is>
       </c>
       <c r="F149" s="2" t="inlineStr"/>
@@ -7637,31 +7621,23 @@
       <c r="K149" s="2" t="inlineStr"/>
       <c r="L149" s="2" t="inlineStr">
         <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
+          <t>Whether trees or hedges are present on the proposed development site</t>
         </is>
       </c>
       <c r="M149" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N149" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="inlineStr">
-        <is>
-          <t>Trees and hedges information</t>
-        </is>
-      </c>
-      <c r="B150" s="2" t="inlineStr">
-        <is>
-          <t>trees-hedges</t>
-        </is>
-      </c>
+      <c r="A150" s="2" t="n"/>
+      <c r="B150" s="2" t="n"/>
       <c r="C150" s="2" t="inlineStr">
         <is>
           <t>Details of trees and/or hedges that will be affected by the proposed development</t>
@@ -7669,12 +7645,12 @@
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>trees-on-site</t>
+          <t>trees-on-adj-land</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
-          <t>Trees on site</t>
+          <t>Trees on adjacent land</t>
         </is>
       </c>
       <c r="F150" s="2" t="inlineStr"/>
@@ -7685,7 +7661,7 @@
       <c r="K150" s="2" t="inlineStr"/>
       <c r="L150" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges are present on the proposed development site</t>
+          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
         </is>
       </c>
       <c r="M150" s="2" t="inlineStr">
@@ -7700,21 +7676,30 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n"/>
-      <c r="B151" s="2" t="n"/>
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>Oil and gas permission types</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>oilgas-permission-type</t>
+        </is>
+      </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>trees-on-adj-land</t>
+          <t>oilgas-permission-types</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr">
         <is>
-          <t>Trees on adjacent land</t>
+          <t>Oil and gas permission types[]</t>
         </is>
       </c>
       <c r="F151" s="2" t="inlineStr"/>
@@ -7725,12 +7710,12 @@
       <c r="K151" s="2" t="inlineStr"/>
       <c r="L151" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
+          <t>List of permission types being applied for</t>
         </is>
       </c>
       <c r="M151" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N151" s="2" t="inlineStr">
@@ -7740,16 +7725,8 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="inlineStr">
-        <is>
-          <t>Oil and gas permission types</t>
-        </is>
-      </c>
-      <c r="B152" s="2" t="inlineStr">
-        <is>
-          <t>oilgas-permission-type</t>
-        </is>
-      </c>
+      <c r="A152" s="2" t="n"/>
+      <c r="B152" s="2" t="n"/>
       <c r="C152" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
@@ -7758,28 +7735,36 @@
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>oilgas-permission-types</t>
+          <t>related-permissions</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
-          <t>Oil and gas permission types[]</t>
-        </is>
-      </c>
-      <c r="F152" s="2" t="inlineStr"/>
-      <c r="G152" s="2" t="inlineStr"/>
+          <t>Related permissions[]</t>
+        </is>
+      </c>
+      <c r="F152" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G152" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H152" s="2" t="inlineStr"/>
       <c r="I152" s="2" t="inlineStr"/>
       <c r="J152" s="2" t="inlineStr"/>
       <c r="K152" s="2" t="inlineStr"/>
       <c r="L152" s="2" t="inlineStr">
         <is>
-          <t>List of permission types being applied for</t>
+          <t>The reference for the related application that permission was received for</t>
         </is>
       </c>
       <c r="M152" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N152" s="2" t="inlineStr">
@@ -7809,12 +7794,12 @@
       </c>
       <c r="F153" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>oilgas-permission-type</t>
         </is>
       </c>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Oil and gas permission type</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr"/>
@@ -7823,12 +7808,12 @@
       <c r="K153" s="2" t="inlineStr"/>
       <c r="L153" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application that permission was received for</t>
+          <t>An oil and gas related permission type</t>
         </is>
       </c>
       <c r="M153" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N153" s="2" t="inlineStr">
@@ -7858,12 +7843,12 @@
       </c>
       <c r="F154" s="2" t="inlineStr">
         <is>
-          <t>oilgas-permission-type</t>
+          <t>decision-date</t>
         </is>
       </c>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>Oil and gas permission type</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr"/>
@@ -7872,12 +7857,12 @@
       <c r="K154" s="2" t="inlineStr"/>
       <c r="L154" s="2" t="inlineStr">
         <is>
-          <t>An oil and gas related permission type</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M154" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N154" s="2" t="inlineStr">
@@ -7907,12 +7892,12 @@
       </c>
       <c r="F155" s="2" t="inlineStr">
         <is>
-          <t>decision-date</t>
+          <t>condition-number</t>
         </is>
       </c>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Decision date</t>
+          <t>Condition number</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr"/>
@@ -7921,7 +7906,7 @@
       <c r="K155" s="2" t="inlineStr"/>
       <c r="L155" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Number of any condition being breached</t>
         </is>
       </c>
       <c r="M155" s="2" t="inlineStr">
@@ -7931,7 +7916,7 @@
       </c>
       <c r="N155" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7946,31 +7931,23 @@
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>related-permissions</t>
+          <t>other-details</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
-          <t>Related permissions[]</t>
-        </is>
-      </c>
-      <c r="F156" s="2" t="inlineStr">
-        <is>
-          <t>condition-number</t>
-        </is>
-      </c>
-      <c r="G156" s="2" t="inlineStr">
-        <is>
-          <t>Condition number</t>
-        </is>
-      </c>
+          <t>Other details</t>
+        </is>
+      </c>
+      <c r="F156" s="2" t="inlineStr"/>
+      <c r="G156" s="2" t="inlineStr"/>
       <c r="H156" s="2" t="inlineStr"/>
       <c r="I156" s="2" t="inlineStr"/>
       <c r="J156" s="2" t="inlineStr"/>
       <c r="K156" s="2" t="inlineStr"/>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>Number of any condition being breached</t>
+          <t>Explanation if other ground is selected</t>
         </is>
       </c>
       <c r="M156" s="2" t="inlineStr">
@@ -7995,12 +7972,12 @@
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>other-details</t>
+          <t>will-consolidate-permissions</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr">
         <is>
-          <t>Other details</t>
+          <t>Will consolidate permissions</t>
         </is>
       </c>
       <c r="F157" s="2" t="inlineStr"/>
@@ -8011,17 +7988,17 @@
       <c r="K157" s="2" t="inlineStr"/>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Explanation if other ground is selected</t>
+          <t>Is the applicant looking to consolidate permissions?</t>
         </is>
       </c>
       <c r="M157" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N157" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8036,12 +8013,12 @@
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>will-consolidate-permissions</t>
+          <t>details</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr">
         <is>
-          <t>Will consolidate permissions</t>
+          <t>Details</t>
         </is>
       </c>
       <c r="F158" s="2" t="inlineStr"/>
@@ -8052,17 +8029,17 @@
       <c r="K158" s="2" t="inlineStr"/>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant looking to consolidate permissions?</t>
+          <t>Details about the consolidation or update of permissions</t>
         </is>
       </c>
       <c r="M158" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N158" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8077,23 +8054,31 @@
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>details</t>
+          <t>related-proposals</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr">
         <is>
-          <t>Details</t>
-        </is>
-      </c>
-      <c r="F159" s="2" t="inlineStr"/>
-      <c r="G159" s="2" t="inlineStr"/>
+          <t>Related proposals[]</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G159" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H159" s="2" t="inlineStr"/>
       <c r="I159" s="2" t="inlineStr"/>
       <c r="J159" s="2" t="inlineStr"/>
       <c r="K159" s="2" t="inlineStr"/>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Details about the consolidation or update of permissions</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="M159" s="2" t="inlineStr">
@@ -8103,7 +8088,7 @@
       </c>
       <c r="N159" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8128,12 +8113,12 @@
       </c>
       <c r="F160" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>application-type</t>
         </is>
       </c>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Application type</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr"/>
@@ -8142,12 +8127,12 @@
       <c r="K160" s="2" t="inlineStr"/>
       <c r="L160" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>The type of planning application</t>
         </is>
       </c>
       <c r="M160" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N160" s="2" t="inlineStr">
@@ -8177,12 +8162,12 @@
       </c>
       <c r="F161" s="2" t="inlineStr">
         <is>
-          <t>application-type</t>
+          <t>decision-date</t>
         </is>
       </c>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>Application type</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr"/>
@@ -8191,12 +8176,12 @@
       <c r="K161" s="2" t="inlineStr"/>
       <c r="L161" s="2" t="inlineStr">
         <is>
-          <t>The type of planning application</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M161" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N161" s="2" t="inlineStr">
@@ -8206,46 +8191,45 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n"/>
-      <c r="B162" s="2" t="n"/>
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>Development type</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>dev-type</t>
+        </is>
+      </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
-</t>
+          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>related-proposals</t>
+          <t>development-phase</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr">
         <is>
-          <t>Related proposals[]</t>
-        </is>
-      </c>
-      <c r="F162" s="2" t="inlineStr">
-        <is>
-          <t>decision-date</t>
-        </is>
-      </c>
-      <c r="G162" s="2" t="inlineStr">
-        <is>
-          <t>Decision date</t>
-        </is>
-      </c>
+          <t>Development phase</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr"/>
+      <c r="G162" s="2" t="inlineStr"/>
       <c r="H162" s="2" t="inlineStr"/>
       <c r="I162" s="2" t="inlineStr"/>
       <c r="J162" s="2" t="inlineStr"/>
       <c r="K162" s="2" t="inlineStr"/>
       <c r="L162" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Phases of oil and gas development the application covers</t>
         </is>
       </c>
       <c r="M162" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N162" s="2" t="inlineStr">
@@ -8255,16 +8239,8 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="inlineStr">
-        <is>
-          <t>Development type</t>
-        </is>
-      </c>
-      <c r="B163" s="2" t="inlineStr">
-        <is>
-          <t>dev-type</t>
-        </is>
-      </c>
+      <c r="A163" s="2" t="n"/>
+      <c r="B163" s="2" t="n"/>
       <c r="C163" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
@@ -8272,12 +8248,12 @@
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>development-phase</t>
+          <t>development-description</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
-          <t>Development phase</t>
+          <t>Development description</t>
         </is>
       </c>
       <c r="F163" s="2" t="inlineStr"/>
@@ -8288,12 +8264,12 @@
       <c r="K163" s="2" t="inlineStr"/>
       <c r="L163" s="2" t="inlineStr">
         <is>
-          <t>Phases of oil and gas development the application covers</t>
+          <t>Brief description of the development, including main oils, gases, and machinery</t>
         </is>
       </c>
       <c r="M163" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N163" s="2" t="inlineStr">
@@ -8312,12 +8288,12 @@
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>development-description</t>
+          <t>quantity-cubic-metres</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
-          <t>Development description</t>
+          <t>Quantity cubic metres</t>
         </is>
       </c>
       <c r="F164" s="2" t="inlineStr"/>
@@ -8328,12 +8304,12 @@
       <c r="K164" s="2" t="inlineStr"/>
       <c r="L164" s="2" t="inlineStr">
         <is>
-          <t>Brief description of the development, including main oils, gases, and machinery</t>
+          <t>Quantity of oil or gas involved in cubic metres</t>
         </is>
       </c>
       <c r="M164" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N164" s="2" t="inlineStr">
@@ -8352,12 +8328,12 @@
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>quantity-cubic-metres</t>
+          <t>permission-period-years</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
-          <t>Quantity cubic metres</t>
+          <t>Permission period years</t>
         </is>
       </c>
       <c r="F165" s="2" t="inlineStr"/>
@@ -8368,7 +8344,7 @@
       <c r="K165" s="2" t="inlineStr"/>
       <c r="L165" s="2" t="inlineStr">
         <is>
-          <t>Quantity of oil or gas involved in cubic metres</t>
+          <t>Period of permission sought in years</t>
         </is>
       </c>
       <c r="M165" s="2" t="inlineStr">
@@ -8378,7 +8354,7 @@
       </c>
       <c r="N165" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8392,12 +8368,12 @@
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>permission-period-years</t>
+          <t>hydrocarbon-licence-block</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
-          <t>Permission period years</t>
+          <t>Hydrocarbon licence block</t>
         </is>
       </c>
       <c r="F166" s="2" t="inlineStr"/>
@@ -8408,17 +8384,17 @@
       <c r="K166" s="2" t="inlineStr"/>
       <c r="L166" s="2" t="inlineStr">
         <is>
-          <t>Period of permission sought in years</t>
+          <t>Hydrocarbon licence block where the development is located</t>
         </is>
       </c>
       <c r="M166" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N166" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8432,12 +8408,12 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>hydrocarbon-licence-block</t>
+          <t>surface-site-area-hectares</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr">
         <is>
-          <t>Hydrocarbon licence block</t>
+          <t>Surface site area hectares</t>
         </is>
       </c>
       <c r="F167" s="2" t="inlineStr"/>
@@ -8448,17 +8424,17 @@
       <c r="K167" s="2" t="inlineStr"/>
       <c r="L167" s="2" t="inlineStr">
         <is>
-          <t>Hydrocarbon licence block where the development is located</t>
+          <t>Surface site area in hectares</t>
         </is>
       </c>
       <c r="M167" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N167" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8472,12 +8448,12 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>surface-site-area-hectares</t>
+          <t>site-hectares-provided-by</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr">
         <is>
-          <t>Surface site area hectares</t>
+          <t>Site hectares provided by</t>
         </is>
       </c>
       <c r="F168" s="2" t="inlineStr"/>
@@ -8488,12 +8464,12 @@
       <c r="K168" s="2" t="inlineStr"/>
       <c r="L168" s="2" t="inlineStr">
         <is>
-          <t>Surface site area in hectares</t>
+          <t>Who provided the site hectares value (applicant or system)</t>
         </is>
       </c>
       <c r="M168" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N168" s="2" t="inlineStr">
@@ -8512,12 +8488,12 @@
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>site-hectares-provided-by</t>
+          <t>environmental-statement</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr">
         <is>
-          <t>Site hectares provided by</t>
+          <t>Environmental statement</t>
         </is>
       </c>
       <c r="F169" s="2" t="inlineStr"/>
@@ -8528,17 +8504,17 @@
       <c r="K169" s="2" t="inlineStr"/>
       <c r="L169" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site hectares value (applicant or system)</t>
+          <t>Is an Environmental Statement attached to the application</t>
         </is>
       </c>
       <c r="M169" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N169" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8552,12 +8528,12 @@
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>environmental-statement</t>
+          <t>environmental-statement-reference</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr">
         <is>
-          <t>Environmental statement</t>
+          <t>Environmental statement reference</t>
         </is>
       </c>
       <c r="F170" s="2" t="inlineStr"/>
@@ -8568,36 +8544,44 @@
       <c r="K170" s="2" t="inlineStr"/>
       <c r="L170" s="2" t="inlineStr">
         <is>
-          <t>Is an Environmental Statement attached to the application</t>
+          <t>Reference to the environmental statement document</t>
         </is>
       </c>
       <c r="M170" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N170" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n"/>
-      <c r="B171" s="2" t="n"/>
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>Voluntary agreement</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>vol-agreement</t>
+        </is>
+      </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
         </is>
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>environmental-statement-reference</t>
+          <t>draft-agreement-included</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr">
         <is>
-          <t>Environmental statement reference</t>
+          <t>Draft agreement included</t>
         </is>
       </c>
       <c r="F171" s="2" t="inlineStr"/>
@@ -8608,31 +8592,23 @@
       <c r="K171" s="2" t="inlineStr"/>
       <c r="L171" s="2" t="inlineStr">
         <is>
-          <t>Reference to the environmental statement document</t>
+          <t>Has an outline or draft agreement been included? (True / False)</t>
         </is>
       </c>
       <c r="M171" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N171" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="inlineStr">
-        <is>
-          <t>Voluntary agreement</t>
-        </is>
-      </c>
-      <c r="B172" s="2" t="inlineStr">
-        <is>
-          <t>vol-agreement</t>
-        </is>
-      </c>
+      <c r="A172" s="2" t="n"/>
+      <c r="B172" s="2" t="n"/>
       <c r="C172" s="2" t="inlineStr">
         <is>
           <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
@@ -8640,12 +8616,12 @@
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>draft-agreement-included</t>
+          <t>agreement-summary</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr">
         <is>
-          <t>Draft agreement included</t>
+          <t>Agreement summary</t>
         </is>
       </c>
       <c r="F172" s="2" t="inlineStr"/>
@@ -8656,55 +8632,15 @@
       <c r="K172" s="2" t="inlineStr"/>
       <c r="L172" s="2" t="inlineStr">
         <is>
-          <t>Has an outline or draft agreement been included? (True / False)</t>
+          <t>Summary of the agreement</t>
         </is>
       </c>
       <c r="M172" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N172" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="n"/>
-      <c r="B173" s="2" t="n"/>
-      <c r="C173" s="2" t="inlineStr">
-        <is>
-          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
-        </is>
-      </c>
-      <c r="D173" s="2" t="inlineStr">
-        <is>
-          <t>agreement-summary</t>
-        </is>
-      </c>
-      <c r="E173" s="2" t="inlineStr">
-        <is>
-          <t>Agreement summary</t>
-        </is>
-      </c>
-      <c r="F173" s="2" t="inlineStr"/>
-      <c r="G173" s="2" t="inlineStr"/>
-      <c r="H173" s="2" t="inlineStr"/>
-      <c r="I173" s="2" t="inlineStr"/>
-      <c r="J173" s="2" t="inlineStr"/>
-      <c r="K173" s="2" t="inlineStr"/>
-      <c r="L173" s="2" t="inlineStr">
-        <is>
-          <t>Summary of the agreement</t>
-        </is>
-      </c>
-      <c r="M173" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N173" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -8712,66 +8648,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B97:B111"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="A68:A77"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B141:B146"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="A147"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="B55"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A163:A171"/>
-    <mergeCell ref="A67"/>
-    <mergeCell ref="B128:B136"/>
-    <mergeCell ref="A112:A119"/>
-    <mergeCell ref="A59"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B123:B127"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="B59"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B137:B140"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A152:A162"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B112:B119"/>
-    <mergeCell ref="B67"/>
-    <mergeCell ref="B163:B171"/>
-    <mergeCell ref="A97:A111"/>
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="A55"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B147"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="B152:B162"/>
-    <mergeCell ref="B89:B96"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A128:A136"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="A162:A170"/>
+    <mergeCell ref="A111:A118"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B96:B110"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A151:A161"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="B140:B145"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A67:A76"/>
+    <mergeCell ref="A58"/>
+    <mergeCell ref="B136:B139"/>
+    <mergeCell ref="B162:B170"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="B111:B118"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="B151:B161"/>
+    <mergeCell ref="B127:B135"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B54"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="B82:B87"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B66"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="A136:A139"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B67:B76"/>
+    <mergeCell ref="B58"/>
+    <mergeCell ref="A146"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B88:B95"/>
+    <mergeCell ref="A127:A135"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A54"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="A66"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="A96:A110"/>
+    <mergeCell ref="A140:A145"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B146"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B41:B46"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
+++ b/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N172"/>
+  <dimension ref="A1:N167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +440,7 @@
     <col width="72" customWidth="1" min="3" max="3"/>
     <col width="35" customWidth="1" min="4" max="4"/>
     <col width="38" customWidth="1" min="5" max="5"/>
-    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="29" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
     <col width="18" customWidth="1" min="9" max="9"/>
@@ -1073,37 +1073,29 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>uploaded-date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>base64-content</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1147,17 +1139,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1159,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1203,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1223,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1275,22 +1267,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>file-size</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,29 +1311,37 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>fee</t>
+          <t>documents</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>file</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>file-size</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1385,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1441,67 +1441,75 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>transactions</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>The details of the application payload to be submitted</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>application</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>fee</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>transactions</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1511,13 +1519,21 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1525,31 +1541,23 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1583,29 +1591,21 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>contact-priority</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -1676,16 +1676,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1693,47 +1685,63 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>contact-priority</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1751,29 +1759,21 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1817,19 +1817,19 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1873,19 +1873,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1929,19 +1929,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -1985,19 +1985,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2031,21 +2031,29 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2079,12 +2087,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>user-role</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>User role</t>
+          <t>Company</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr"/>
@@ -2093,12 +2101,12 @@
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -2108,56 +2116,64 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>user-role</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>User role</t>
+        </is>
+      </c>
       <c r="H31" s="2" t="inlineStr"/>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2165,31 +2181,23 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2223,29 +2231,21 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2289,24 +2289,24 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>contact-priority</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -2316,64 +2316,72 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>contact-priority</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2391,29 +2399,21 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2457,19 +2457,19 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2513,19 +2513,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2569,19 +2569,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2625,19 +2625,19 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2647,61 +2647,77 @@
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>flood-risk-assessment</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Results of any flood risk assessments made for the development site</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-area</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
+          <t>Applicants[]</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>flood-risk-assessment</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
           <t>Results of any flood risk assessments made for the development site</t>
@@ -2709,12 +2725,12 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>data-provided-by</t>
+          <t>flood-risk-area</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk area</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr"/>
@@ -2725,17 +2741,17 @@
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2749,12 +2765,12 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-assessment</t>
+          <t>data-provided-by</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2765,12 +2781,12 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -2789,12 +2805,12 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>within-20m-watercourse</t>
+          <t>flood-risk-assessment</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2805,17 +2821,17 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2829,12 +2845,12 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>increases-flood-risk</t>
+          <t>within-20m-watercourse</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2845,7 +2861,7 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
@@ -2869,12 +2885,12 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>surface-water-disposal</t>
+          <t>increases-flood-risk</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
@@ -2885,12 +2901,12 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -2900,29 +2916,21 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Results of any flood risk assessments made for the development site</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>surface-water-disposal</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2933,12 +2941,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -2948,8 +2956,16 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n"/>
-      <c r="B48" s="2" t="n"/>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>conflict-of-interest</t>
+        </is>
+      </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -2957,12 +2973,12 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
@@ -2973,17 +2989,17 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2997,12 +3013,12 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
@@ -3013,7 +3029,7 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
@@ -3028,29 +3044,21 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity, geological and archaeological conservation</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>bio-geo-arch-con</t>
-        </is>
-      </c>
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>protected-species-impact</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Protected species impact</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
@@ -3061,23 +3069,31 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of protected and priority species being affected?</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n"/>
-      <c r="B51" s="2" t="n"/>
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity, geological and archaeological conservation</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>bio-geo-arch-con</t>
+        </is>
+      </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
@@ -3085,12 +3101,12 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>biodiversity-features-impact</t>
+          <t>protected-species-impact</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity features impact</t>
+          <t>Protected species impact</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
@@ -3101,7 +3117,7 @@
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
+          <t>Where is there a likelihood of protected and priority species being affected?</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
@@ -3125,12 +3141,12 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>geological-features-impact</t>
+          <t>biodiversity-features-impact</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>Geological features impact</t>
+          <t>Biodiversity features impact</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr"/>
@@ -3141,7 +3157,7 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
+          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
@@ -3165,12 +3181,12 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>archaeological-features-impact</t>
+          <t>geological-features-impact</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Archaeological features impact</t>
+          <t>Geological features impact</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
@@ -3181,7 +3197,7 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of features of archaeological conservation importance being affected?</t>
+          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
@@ -3196,29 +3212,21 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>Checklist</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>checklist</t>
-        </is>
-      </c>
+      <c r="A54" s="2" t="n"/>
+      <c r="B54" s="2" t="n"/>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>archaeological-features-impact</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Archaeological features impact</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr"/>
@@ -3229,12 +3237,12 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Where is there a likelihood of features of archaeological conservation importance being affected?</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
@@ -3246,27 +3254,27 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>Declaration</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>declaration</t>
+          <t>checklist</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
@@ -3277,7 +3285,7 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
@@ -3292,8 +3300,16 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n"/>
-      <c r="B56" s="2" t="n"/>
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -3301,12 +3317,12 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr"/>
@@ -3317,12 +3333,12 @@
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N56" s="2" t="inlineStr">
@@ -3341,12 +3357,12 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr"/>
@@ -3357,12 +3373,12 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
@@ -3372,29 +3388,21 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>Designated areas</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>designated-areas</t>
-        </is>
-      </c>
+      <c r="A58" s="2" t="n"/>
+      <c r="B58" s="2" t="n"/>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Details of any 'designated area' the develpoment site is on, such as a Conservation Area or National Park.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>designations</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>Designations[]</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr"/>
@@ -3405,12 +3413,12 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>List of designated areas that apply to the site</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N58" s="2" t="inlineStr">
@@ -3422,51 +3430,43 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Designated areas</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>employment</t>
+          <t>designated-areas</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
+          <t>Details of any 'designated area' the develpoment site is on, such as a Conservation Area or National Park.</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>existing-employees</t>
+          <t>designations</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>Existing employees</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>full-time</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="inlineStr">
-        <is>
-          <t>Full-time</t>
-        </is>
-      </c>
+          <t>Designations[]</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr"/>
       <c r="H59" s="2" t="inlineStr"/>
       <c r="I59" s="2" t="inlineStr"/>
       <c r="J59" s="2" t="inlineStr"/>
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>List of designated areas that apply to the site</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N59" s="2" t="inlineStr">
@@ -3476,8 +3476,16 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n"/>
-      <c r="B60" s="2" t="n"/>
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Employment</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>employment</t>
+        </is>
+      </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
           <t>How the proposed development will impact existing and proposed employee numbers</t>
@@ -3495,12 +3503,12 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>part-time</t>
+          <t>full-time</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr"/>
@@ -3509,7 +3517,7 @@
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
@@ -3543,12 +3551,12 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>total-fte</t>
+          <t>part-time</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Total FTE</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr"/>
@@ -3557,7 +3565,7 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
@@ -3581,22 +3589,22 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>proposed-employees</t>
+          <t>existing-employees</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Proposed employees</t>
+          <t>Existing employees</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>full-time</t>
+          <t>total-fte</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr"/>
@@ -3605,7 +3613,7 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
@@ -3639,12 +3647,12 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>part-time</t>
+          <t>full-time</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr"/>
@@ -3653,7 +3661,7 @@
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
@@ -3687,12 +3695,12 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>total-fte</t>
+          <t>part-time</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Total FTE</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr"/>
@@ -3701,7 +3709,7 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
@@ -3725,60 +3733,60 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>employment-impact</t>
+          <t>proposed-employees</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="inlineStr"/>
-      <c r="G65" s="2" t="inlineStr"/>
+          <t>Proposed employees</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>total-fte</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>Total FTE</t>
+        </is>
+      </c>
       <c r="H65" s="2" t="inlineStr"/>
       <c r="I65" s="2" t="inlineStr"/>
       <c r="J65" s="2" t="inlineStr"/>
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>Equipment and method</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>equip-method</t>
-        </is>
-      </c>
+      <c r="A66" s="2" t="n"/>
+      <c r="B66" s="2" t="n"/>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>How oil and gas will be extracted as part of the proposed development.</t>
+          <t>How the proposed development will impact existing and proposed employee numbers</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>equipment-plan</t>
+          <t>employment-impact</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Equipment plan</t>
+          <t>Employment impact</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
@@ -3789,7 +3797,7 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>Details of equipment to be used as part of the application including the maximum height and type of drilling rig to be used</t>
+          <t>Summary of net employment change (gain/loss)</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
@@ -3799,58 +3807,50 @@
       </c>
       <c r="N66" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>Existing use</t>
+          <t>Equipment and method</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>existing-use</t>
+          <t>equip-method</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>How the site is currently being used.</t>
+          <t>How oil and gas will be extracted as part of the proposed development.</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>existing-use-details</t>
+          <t>equipment-plan</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="inlineStr">
-        <is>
-          <t>Use</t>
-        </is>
-      </c>
+          <t>Equipment plan</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr"/>
+      <c r="G67" s="2" t="inlineStr"/>
       <c r="H67" s="2" t="inlineStr"/>
       <c r="I67" s="2" t="inlineStr"/>
       <c r="J67" s="2" t="inlineStr"/>
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Details of equipment to be used as part of the application including the maximum height and type of drilling rig to be used</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N67" s="2" t="inlineStr">
@@ -3860,8 +3860,16 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n"/>
-      <c r="B68" s="2" t="n"/>
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Existing use</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>existing-use</t>
+        </is>
+      </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
           <t>How the site is currently being used.</t>
@@ -3879,12 +3887,12 @@
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>use-details</t>
+          <t>use</t>
         </is>
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Use</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr"/>
@@ -3893,17 +3901,17 @@
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N68" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3927,12 +3935,12 @@
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>land-part</t>
+          <t>use-details</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Land part</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr"/>
@@ -3941,7 +3949,7 @@
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
@@ -3951,7 +3959,7 @@
       </c>
       <c r="N69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3965,28 +3973,36 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>site-vacant</t>
+          <t>existing-use-details</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr"/>
-      <c r="G70" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>land-part</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>Land part</t>
+        </is>
+      </c>
       <c r="H70" s="2" t="inlineStr"/>
       <c r="I70" s="2" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr"/>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N70" s="2" t="inlineStr">
@@ -4005,12 +4021,12 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>last-use-details</t>
+          <t>site-vacant</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Site vacant</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr"/>
@@ -4021,17 +4037,17 @@
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4045,12 +4061,12 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>last-use-end-date</t>
+          <t>last-use-details</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr"/>
@@ -4061,12 +4077,12 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N72" s="2" t="inlineStr">
@@ -4085,12 +4101,12 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>is-contaminated-land</t>
+          <t>last-use-end-date</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr"/>
@@ -4101,17 +4117,17 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N73" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4125,12 +4141,12 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>is-suspected-contaminated-land</t>
+          <t>is-contaminated-land</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr"/>
@@ -4141,7 +4157,7 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
@@ -4165,12 +4181,12 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>proposed-use-contamination-risk</t>
+          <t>is-suspected-contaminated-land</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr"/>
@@ -4181,7 +4197,7 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
@@ -4205,12 +4221,12 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>contamination-assessment</t>
+          <t>proposed-use-contamination-risk</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr"/>
@@ -4221,44 +4237,36 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N76" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr">
-        <is>
-          <t>Foul sewage disposal</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="inlineStr">
-        <is>
-          <t>foul-sewage</t>
-        </is>
-      </c>
+      <c r="A77" s="2" t="n"/>
+      <c r="B77" s="2" t="n"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>How waste water will leave the property as part of the proposed development</t>
+          <t>How the site is currently being used.</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>has-new-disposal-arrangements</t>
+          <t>contamination-assessment</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>Has new disposal arrangements</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr"/>
@@ -4269,23 +4277,31 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include any new foul sewage disposal arrangments</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N77" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n"/>
-      <c r="B78" s="2" t="n"/>
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Foul sewage disposal</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>foul-sewage</t>
+        </is>
+      </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
           <t>How waste water will leave the property as part of the proposed development</t>
@@ -4293,12 +4309,12 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>foul-sewage-disposal-types</t>
+          <t>has-new-disposal-arrangements</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Foul sewage disposal types[]</t>
+          <t>Has new disposal arrangements</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>
@@ -4309,17 +4325,17 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>List of ways foul sewage will be disposed of</t>
+          <t>Does the proposal include any new foul sewage disposal arrangments</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4333,12 +4349,12 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>produce-foul-sewage</t>
+          <t>foul-sewage-disposal-types</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Produce foul sewage</t>
+          <t>Foul sewage disposal types[]</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr"/>
@@ -4349,17 +4365,17 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposed development will produce any foul sewage</t>
+          <t>List of ways foul sewage will be disposed of</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4373,12 +4389,12 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>connect-to-drainage-system</t>
+          <t>produce-foul-sewage</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
+          <t>Produce foul sewage</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr"/>
@@ -4389,7 +4405,7 @@
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>Whether the proposed development will produce any foul sewage</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
@@ -4413,12 +4429,12 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>drainage-system-details</t>
+          <t>connect-to-drainage-system</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Drainage system details</t>
+          <t>Connect to drainage system</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr"/>
@@ -4429,44 +4445,36 @@
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Details of the drawings/plans that show the existing drainage system</t>
+          <t>Whether the proposal needs to connect to the existing drainage system</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N81" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substances</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>haz-substances</t>
-        </is>
-      </c>
+      <c r="A82" s="2" t="n"/>
+      <c r="B82" s="2" t="n"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
+          <t>How waste water will leave the property as part of the proposed development</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>involves-hazardous-substances</t>
+          <t>drainage-system-details</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Involves hazardous substances</t>
+          <t>Drainage system details</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr"/>
@@ -4477,60 +4485,60 @@
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Indicates if hazardous substances are involved in the proposal</t>
+          <t>Details of the drawings/plans that show the existing drainage system</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N82" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n"/>
-      <c r="B83" s="2" t="n"/>
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substances</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>haz-substances</t>
+        </is>
+      </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
+          <t>Details of hazardous substances requiring consent used as part of the development</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>substance-types</t>
+          <t>hazardous-sub-consent-req</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>hazardous-substance-type</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substance type</t>
-        </is>
-      </c>
+          <t>Hazardous substance consent required</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr"/>
+      <c r="G83" s="2" t="inlineStr"/>
       <c r="H83" s="2" t="inlineStr"/>
       <c r="I83" s="2" t="inlineStr"/>
       <c r="J83" s="2" t="inlineStr"/>
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Reference of hazardous substance type from predefined list</t>
+          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N83" s="2" t="inlineStr">
@@ -4544,36 +4552,28 @@
       <c r="B84" s="2" t="n"/>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
+          <t>Details of hazardous substances requiring consent used as part of the development</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>substance-types</t>
+          <t>hazardous-sub-consent-details</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>hazardous-substance-other</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substance other</t>
-        </is>
-      </c>
+          <t>Hazardous substance consent details</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr"/>
+      <c r="G84" s="2" t="inlineStr"/>
       <c r="H84" s="2" t="inlineStr"/>
       <c r="I84" s="2" t="inlineStr"/>
       <c r="J84" s="2" t="inlineStr"/>
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>The specific name of the hazardous substance if other is selected</t>
+          <t>Details of hazardous substance consent requirements</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
@@ -4588,31 +4588,39 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n"/>
-      <c r="B85" s="2" t="n"/>
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>hrs-operation</t>
+        </is>
+      </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>substance-types</t>
+          <t>hours-of-operation</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
+          <t>Hours of operation[]</t>
         </is>
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>use</t>
         </is>
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Use</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr"/>
@@ -4621,12 +4629,12 @@
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N85" s="2" t="inlineStr">
@@ -4640,38 +4648,46 @@
       <c r="B86" s="2" t="n"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>hazardous-sub-consent-req</t>
+          <t>hours-of-operation</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent required</t>
-        </is>
-      </c>
-      <c r="F86" s="2" t="inlineStr"/>
-      <c r="G86" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>use-other</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="inlineStr">
+        <is>
+          <t>Use other</t>
+        </is>
+      </c>
       <c r="H86" s="2" t="inlineStr"/>
       <c r="I86" s="2" t="inlineStr"/>
       <c r="J86" s="2" t="inlineStr"/>
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N86" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4680,52 +4696,60 @@
       <c r="B87" s="2" t="n"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>hazardous-sub-consent-details</t>
+          <t>hours-of-operation</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent details</t>
-        </is>
-      </c>
-      <c r="F87" s="2" t="inlineStr"/>
-      <c r="G87" s="2" t="inlineStr"/>
-      <c r="H87" s="2" t="inlineStr"/>
-      <c r="I87" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>operational-times</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="inlineStr">
+        <is>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="H87" s="2" t="inlineStr">
+        <is>
+          <t>day-type</t>
+        </is>
+      </c>
+      <c r="I87" s="2" t="inlineStr">
+        <is>
+          <t>Day type</t>
+        </is>
+      </c>
       <c r="J87" s="2" t="inlineStr"/>
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>Details of hazardous substance consent requirements</t>
+          <t>Day or type of day</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N87" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="inlineStr">
-        <is>
-          <t>hrs-operation</t>
-        </is>
-      </c>
+      <c r="A88" s="2" t="n"/>
+      <c r="B88" s="2" t="n"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
           <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
@@ -4743,31 +4767,39 @@
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>operational-times</t>
         </is>
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
-        </is>
-      </c>
-      <c r="H88" s="2" t="inlineStr"/>
-      <c r="I88" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
       <c r="J88" s="2" t="inlineStr"/>
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>True or False - explicitly state when closed</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N88" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4791,21 +4823,37 @@
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t>use-other</t>
+          <t>operational-times</t>
         </is>
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
-        </is>
-      </c>
-      <c r="H89" s="2" t="inlineStr"/>
-      <c r="I89" s="2" t="inlineStr"/>
-      <c r="J89" s="2" t="inlineStr"/>
-      <c r="K89" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>time-ranges</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="inlineStr">
+        <is>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>open-time</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="inlineStr">
+        <is>
+          <t>Open time</t>
+        </is>
+      </c>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Opening time</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
@@ -4815,7 +4863,7 @@
       </c>
       <c r="N89" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4849,24 +4897,32 @@
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>day-type</t>
+          <t>time-ranges</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
-          <t>Day type</t>
-        </is>
-      </c>
-      <c r="J90" s="2" t="inlineStr"/>
-      <c r="K90" s="2" t="inlineStr"/>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>close-time</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="inlineStr">
+        <is>
+          <t>Close time</t>
+        </is>
+      </c>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>Day or type of day</t>
+          <t>Closing time</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N90" s="2" t="inlineStr">
@@ -4895,29 +4951,21 @@
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>operational-times</t>
+          <t>hours-not-known</t>
         </is>
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="H91" s="2" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="I91" s="2" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
+          <t>Hours not known</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="inlineStr"/>
+      <c r="I91" s="2" t="inlineStr"/>
       <c r="J91" s="2" t="inlineStr"/>
       <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>True or False - explicitly state when closed</t>
+          <t>Applicant states they do not know the hours of operation</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
@@ -4941,47 +4989,23 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>hours-of-operation</t>
+          <t>additional-information</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
-        </is>
-      </c>
-      <c r="F92" s="2" t="inlineStr">
-        <is>
-          <t>operational-times</t>
-        </is>
-      </c>
-      <c r="G92" s="2" t="inlineStr">
-        <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="H92" s="2" t="inlineStr">
-        <is>
-          <t>time-ranges</t>
-        </is>
-      </c>
-      <c r="I92" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>open-time</t>
-        </is>
-      </c>
-      <c r="K92" s="2" t="inlineStr">
-        <is>
-          <t>Open time</t>
-        </is>
-      </c>
+          <t>Additional information</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr"/>
+      <c r="G92" s="2" t="inlineStr"/>
+      <c r="H92" s="2" t="inlineStr"/>
+      <c r="I92" s="2" t="inlineStr"/>
+      <c r="J92" s="2" t="inlineStr"/>
+      <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Opening time</t>
+          <t>Any additional information (such as hours of use of other machinery within the site-generators, pumps, etc)</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
@@ -4991,66 +5015,50 @@
       </c>
       <c r="N92" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n"/>
-      <c r="B93" s="2" t="n"/>
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>ownership-certs</t>
+        </is>
+      </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>hours-of-operation</t>
+          <t>sole-owner</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
-        </is>
-      </c>
-      <c r="F93" s="2" t="inlineStr">
-        <is>
-          <t>operational-times</t>
-        </is>
-      </c>
-      <c r="G93" s="2" t="inlineStr">
-        <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="H93" s="2" t="inlineStr">
-        <is>
-          <t>time-ranges</t>
-        </is>
-      </c>
-      <c r="I93" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>close-time</t>
-        </is>
-      </c>
-      <c r="K93" s="2" t="inlineStr">
-        <is>
-          <t>Close time</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr"/>
+      <c r="G93" s="2" t="inlineStr"/>
+      <c r="H93" s="2" t="inlineStr"/>
+      <c r="I93" s="2" t="inlineStr"/>
+      <c r="J93" s="2" t="inlineStr"/>
+      <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Closing time</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N93" s="2" t="inlineStr">
@@ -5064,36 +5072,28 @@
       <c r="B94" s="2" t="n"/>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>hours-of-operation</t>
+          <t>agricultural-tenants</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
-        </is>
-      </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>hours-not-known</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="inlineStr">
-        <is>
-          <t>Hours not known</t>
-        </is>
-      </c>
+          <t>Agricultural tenants</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr"/>
+      <c r="G94" s="2" t="inlineStr"/>
       <c r="H94" s="2" t="inlineStr"/>
       <c r="I94" s="2" t="inlineStr"/>
       <c r="J94" s="2" t="inlineStr"/>
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Applicant states they do not know the hours of operation</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="N94" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5112,28 +5112,44 @@
       <c r="B95" s="2" t="n"/>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>additional-information</t>
+          <t>owners-and-tenants</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>Additional information</t>
-        </is>
-      </c>
-      <c r="F95" s="2" t="inlineStr"/>
-      <c r="G95" s="2" t="inlineStr"/>
-      <c r="H95" s="2" t="inlineStr"/>
-      <c r="I95" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J95" s="2" t="inlineStr"/>
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Any additional information (such as hours of use of other machinery within the site-generators, pumps, etc)</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
@@ -5148,16 +5164,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B96" s="2" t="inlineStr">
-        <is>
-          <t>ownership-certs</t>
-        </is>
-      </c>
+      <c r="A96" s="2" t="n"/>
+      <c r="B96" s="2" t="n"/>
       <c r="C96" s="2" t="inlineStr">
         <is>
           <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
@@ -5165,28 +5173,44 @@
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>sole-owner</t>
+          <t>owners-and-tenants</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
-        </is>
-      </c>
-      <c r="F96" s="2" t="inlineStr"/>
-      <c r="G96" s="2" t="inlineStr"/>
-      <c r="H96" s="2" t="inlineStr"/>
-      <c r="I96" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>first-name</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
       <c r="J96" s="2" t="inlineStr"/>
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N96" s="2" t="inlineStr">
@@ -5205,28 +5229,44 @@
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>agricultural-tenants</t>
+          <t>owners-and-tenants</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="F97" s="2" t="inlineStr"/>
-      <c r="G97" s="2" t="inlineStr"/>
-      <c r="H97" s="2" t="inlineStr"/>
-      <c r="I97" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H97" s="2" t="inlineStr">
+        <is>
+          <t>last-name</t>
+        </is>
+      </c>
+      <c r="I97" s="2" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
       <c r="J97" s="2" t="inlineStr"/>
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M97" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N97" s="2" t="inlineStr">
@@ -5265,19 +5305,19 @@
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I98" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J98" s="2" t="inlineStr"/>
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M98" s="2" t="inlineStr">
@@ -5287,7 +5327,7 @@
       </c>
       <c r="N98" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5321,19 +5361,19 @@
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I99" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J99" s="2" t="inlineStr"/>
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M99" s="2" t="inlineStr">
@@ -5343,7 +5383,7 @@
       </c>
       <c r="N99" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5367,39 +5407,31 @@
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>notice-date</t>
         </is>
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H100" s="2" t="inlineStr">
-        <is>
-          <t>last-name</t>
-        </is>
-      </c>
-      <c r="I100" s="2" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="H100" s="2" t="inlineStr"/>
+      <c r="I100" s="2" t="inlineStr"/>
       <c r="J100" s="2" t="inlineStr"/>
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="M100" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N100" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5413,39 +5445,23 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>owners-and-tenants</t>
+          <t>steps-taken</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="F101" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G101" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H101" s="2" t="inlineStr">
-        <is>
-          <t>address-text</t>
-        </is>
-      </c>
-      <c r="I101" s="2" t="inlineStr">
-        <is>
-          <t>Address Text</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr"/>
+      <c r="G101" s="2" t="inlineStr"/>
+      <c r="H101" s="2" t="inlineStr"/>
+      <c r="I101" s="2" t="inlineStr"/>
       <c r="J101" s="2" t="inlineStr"/>
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="M101" s="2" t="inlineStr">
@@ -5455,7 +5471,7 @@
       </c>
       <c r="N101" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5469,39 +5485,31 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>owners-and-tenants</t>
+          <t>newspaper-notices</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
+          <t>Newspaper notices[]</t>
         </is>
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>newspaper-name</t>
         </is>
       </c>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H102" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I102" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Newspaper name</t>
+        </is>
+      </c>
+      <c r="H102" s="2" t="inlineStr"/>
+      <c r="I102" s="2" t="inlineStr"/>
       <c r="J102" s="2" t="inlineStr"/>
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
@@ -5511,7 +5519,7 @@
       </c>
       <c r="N102" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5525,22 +5533,22 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>owners-and-tenants</t>
+          <t>newspaper-notices</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
+          <t>Newspaper notices[]</t>
         </is>
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>notice-date</t>
+          <t>publication-date</t>
         </is>
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Notice date</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr"/>
@@ -5549,7 +5557,7 @@
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
@@ -5559,7 +5567,7 @@
       </c>
       <c r="N103" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5573,12 +5581,12 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>steps-taken</t>
+          <t>ownership-cert-option</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
+          <t>Ownership certificate type</t>
         </is>
       </c>
       <c r="F104" s="2" t="inlineStr"/>
@@ -5589,12 +5597,12 @@
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N104" s="2" t="inlineStr">
@@ -5613,31 +5621,23 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>newspaper-notices</t>
+          <t>applicant-signature</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="F105" s="2" t="inlineStr">
-        <is>
-          <t>newspaper-name</t>
-        </is>
-      </c>
-      <c r="G105" s="2" t="inlineStr">
-        <is>
-          <t>Newspaper name</t>
-        </is>
-      </c>
+          <t>Applicant signature</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr"/>
+      <c r="G105" s="2" t="inlineStr"/>
       <c r="H105" s="2" t="inlineStr"/>
       <c r="I105" s="2" t="inlineStr"/>
       <c r="J105" s="2" t="inlineStr"/>
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
@@ -5647,7 +5647,7 @@
       </c>
       <c r="N105" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5661,41 +5661,33 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>newspaper-notices</t>
+          <t>agent-signature</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="F106" s="2" t="inlineStr">
-        <is>
-          <t>publication-date</t>
-        </is>
-      </c>
-      <c r="G106" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Agent signature</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr"/>
+      <c r="G106" s="2" t="inlineStr"/>
       <c r="H106" s="2" t="inlineStr"/>
       <c r="I106" s="2" t="inlineStr"/>
       <c r="J106" s="2" t="inlineStr"/>
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N106" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5709,12 +5701,12 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>ownership-cert-option</t>
+          <t>signature-date</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="F107" s="2" t="inlineStr"/>
@@ -5725,12 +5717,12 @@
       <c r="K107" s="2" t="inlineStr"/>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="M107" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N107" s="2" t="inlineStr">
@@ -5740,21 +5732,29 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n"/>
-      <c r="B108" s="2" t="n"/>
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>access-rights-of-way</t>
+        </is>
+      </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>applicant-signature</t>
+          <t>new-altered-vehicle</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>New or altered vehicle access</t>
         </is>
       </c>
       <c r="F108" s="2" t="inlineStr"/>
@@ -5765,17 +5765,17 @@
       <c r="K108" s="2" t="inlineStr"/>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M108" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N108" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5784,17 +5784,17 @@
       <c r="B109" s="2" t="n"/>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>agent-signature</t>
+          <t>new-altered-pedestrian</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="F109" s="2" t="inlineStr"/>
@@ -5805,17 +5805,17 @@
       <c r="K109" s="2" t="inlineStr"/>
       <c r="L109" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M109" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N109" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5824,17 +5824,17 @@
       <c r="B110" s="2" t="n"/>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>new-right-of-way</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>New right of way</t>
         </is>
       </c>
       <c r="F110" s="2" t="inlineStr"/>
@@ -5845,31 +5845,23 @@
       <c r="K110" s="2" t="inlineStr"/>
       <c r="L110" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Will new public rights of way be provided within or adjacent to the site</t>
         </is>
       </c>
       <c r="M110" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N110" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B111" s="2" t="inlineStr">
-        <is>
-          <t>access-rights-of-way</t>
-        </is>
-      </c>
+      <c r="A111" s="2" t="n"/>
+      <c r="B111" s="2" t="n"/>
       <c r="C111" s="2" t="inlineStr">
         <is>
           <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
@@ -5877,12 +5869,12 @@
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>new-altered-vehicle</t>
+          <t>new-public-road</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
+          <t>New public road</t>
         </is>
       </c>
       <c r="F111" s="2" t="inlineStr"/>
@@ -5893,7 +5885,7 @@
       <c r="K111" s="2" t="inlineStr"/>
       <c r="L111" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>Will new public roads be provided within the site</t>
         </is>
       </c>
       <c r="M111" s="2" t="inlineStr">
@@ -5917,12 +5909,12 @@
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>new-altered-pedestrian</t>
+          <t>temp-right-of-way</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
+          <t>Temporary right of way changes</t>
         </is>
       </c>
       <c r="F112" s="2" t="inlineStr"/>
@@ -5933,7 +5925,7 @@
       <c r="K112" s="2" t="inlineStr"/>
       <c r="L112" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>Are temporary changes to rights of way needed while the site is worked</t>
         </is>
       </c>
       <c r="M112" s="2" t="inlineStr">
@@ -5957,12 +5949,12 @@
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>new-right-of-way</t>
+          <t>future-new-right-of-way</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
-          <t>New right of way</t>
+          <t>Future new right of way</t>
         </is>
       </c>
       <c r="F113" s="2" t="inlineStr"/>
@@ -5973,7 +5965,7 @@
       <c r="K113" s="2" t="inlineStr"/>
       <c r="L113" s="2" t="inlineStr">
         <is>
-          <t>Will new public rights of way be provided within or adjacent to the site</t>
+          <t>Will new public rights of way be provided after extraction?</t>
         </is>
       </c>
       <c r="M113" s="2" t="inlineStr">
@@ -5997,28 +5989,36 @@
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>new-public-road</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
-          <t>New public road</t>
-        </is>
-      </c>
-      <c r="F114" s="2" t="inlineStr"/>
-      <c r="G114" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H114" s="2" t="inlineStr"/>
       <c r="I114" s="2" t="inlineStr"/>
       <c r="J114" s="2" t="inlineStr"/>
       <c r="K114" s="2" t="inlineStr"/>
       <c r="L114" s="2" t="inlineStr">
         <is>
-          <t>Will new public roads be provided within the site</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M114" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N114" s="2" t="inlineStr">
@@ -6028,37 +6028,53 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n"/>
-      <c r="B115" s="2" t="n"/>
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>Plans, drawings and supporting materials</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>plans-drawings-supporting-materials</t>
+        </is>
+      </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+          <t>Additional materials and specifications that form part of the planning application</t>
         </is>
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>temp-right-of-way</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t>Temporary right of way changes</t>
-        </is>
-      </c>
-      <c r="F115" s="2" t="inlineStr"/>
-      <c r="G115" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G115" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H115" s="2" t="inlineStr"/>
       <c r="I115" s="2" t="inlineStr"/>
       <c r="J115" s="2" t="inlineStr"/>
       <c r="K115" s="2" t="inlineStr"/>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>Are temporary changes to rights of way needed while the site is worked</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M115" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N115" s="2" t="inlineStr">
@@ -6072,17 +6088,17 @@
       <c r="B116" s="2" t="n"/>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+          <t>Additional materials and specifications that form part of the planning application</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>future-new-right-of-way</t>
+          <t>inspection-address</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>Future new right of way</t>
+          <t>Inspection address</t>
         </is>
       </c>
       <c r="F116" s="2" t="inlineStr"/>
@@ -6093,12 +6109,12 @@
       <c r="K116" s="2" t="inlineStr"/>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>Will new public rights of way be provided after extraction?</t>
+          <t>Full postal address where supporting material can be inspected</t>
         </is>
       </c>
       <c r="M116" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N116" s="2" t="inlineStr">
@@ -6108,45 +6124,45 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n"/>
-      <c r="B117" s="2" t="n"/>
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F117" s="2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="G117" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Pre-application advice sought</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr"/>
+      <c r="G117" s="2" t="inlineStr"/>
       <c r="H117" s="2" t="inlineStr"/>
       <c r="I117" s="2" t="inlineStr"/>
       <c r="J117" s="2" t="inlineStr"/>
       <c r="K117" s="2" t="inlineStr"/>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M117" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N117" s="2" t="inlineStr">
@@ -6160,36 +6176,28 @@
       <c r="B118" s="2" t="n"/>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F118" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G118" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Officer name</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr"/>
+      <c r="G118" s="2" t="inlineStr"/>
       <c r="H118" s="2" t="inlineStr"/>
       <c r="I118" s="2" t="inlineStr"/>
       <c r="J118" s="2" t="inlineStr"/>
       <c r="K118" s="2" t="inlineStr"/>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M118" s="2" t="inlineStr">
@@ -6199,53 +6207,37 @@
       </c>
       <c r="N118" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="inlineStr">
-        <is>
-          <t>Plans, drawings and supporting materials</t>
-        </is>
-      </c>
-      <c r="B119" s="2" t="inlineStr">
-        <is>
-          <t>plans-drawings-supporting-materials</t>
-        </is>
-      </c>
+      <c r="A119" s="2" t="n"/>
+      <c r="B119" s="2" t="n"/>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>Additional materials and specifications that form part of the planning application</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>plans-documents</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
-          <t>Plans documents[]</t>
-        </is>
-      </c>
-      <c r="F119" s="2" t="inlineStr">
-        <is>
-          <t>reference-number</t>
-        </is>
-      </c>
-      <c r="G119" s="2" t="inlineStr">
-        <is>
-          <t>Reference number</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr"/>
+      <c r="G119" s="2" t="inlineStr"/>
       <c r="H119" s="2" t="inlineStr"/>
       <c r="I119" s="2" t="inlineStr"/>
       <c r="J119" s="2" t="inlineStr"/>
       <c r="K119" s="2" t="inlineStr"/>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>Unique identifier for the document</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M119" s="2" t="inlineStr">
@@ -6255,7 +6247,7 @@
       </c>
       <c r="N119" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6264,36 +6256,28 @@
       <c r="B120" s="2" t="n"/>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>Additional materials and specifications that form part of the planning application</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>plans-documents</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
-          <t>Plans documents[]</t>
-        </is>
-      </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G120" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Advice date</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr"/>
+      <c r="G120" s="2" t="inlineStr"/>
       <c r="H120" s="2" t="inlineStr"/>
       <c r="I120" s="2" t="inlineStr"/>
       <c r="J120" s="2" t="inlineStr"/>
       <c r="K120" s="2" t="inlineStr"/>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>Name of the document (descriptive)</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M120" s="2" t="inlineStr">
@@ -6303,7 +6287,7 @@
       </c>
       <c r="N120" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6312,17 +6296,17 @@
       <c r="B121" s="2" t="n"/>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>Additional materials and specifications that form part of the planning application</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>inspection-address</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
-          <t>Inspection address</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F121" s="2" t="inlineStr"/>
@@ -6333,7 +6317,7 @@
       <c r="K121" s="2" t="inlineStr"/>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Full postal address where supporting material can be inspected</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M121" s="2" t="inlineStr">
@@ -6343,55 +6327,63 @@
       </c>
       <c r="N121" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice</t>
+          <t>Site details</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>pre-app-advice</t>
+          <t>site-details</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr"/>
-      <c r="G122" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H122" s="2" t="inlineStr"/>
       <c r="I122" s="2" t="inlineStr"/>
       <c r="J122" s="2" t="inlineStr"/>
       <c r="K122" s="2" t="inlineStr"/>
       <c r="L122" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M122" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N122" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6400,28 +6392,36 @@
       <c r="B123" s="2" t="n"/>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr"/>
-      <c r="G123" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>address-text</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="inlineStr">
+        <is>
+          <t>Address Text</t>
+        </is>
+      </c>
       <c r="H123" s="2" t="inlineStr"/>
       <c r="I123" s="2" t="inlineStr"/>
       <c r="J123" s="2" t="inlineStr"/>
       <c r="K123" s="2" t="inlineStr"/>
       <c r="L123" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M123" s="2" t="inlineStr">
@@ -6440,28 +6440,36 @@
       <c r="B124" s="2" t="n"/>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr"/>
-      <c r="G124" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="H124" s="2" t="inlineStr"/>
       <c r="I124" s="2" t="inlineStr"/>
       <c r="J124" s="2" t="inlineStr"/>
       <c r="K124" s="2" t="inlineStr"/>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M124" s="2" t="inlineStr">
@@ -6480,33 +6488,41 @@
       <c r="B125" s="2" t="n"/>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr"/>
-      <c r="G125" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>easting</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="inlineStr">
+        <is>
+          <t>Easting</t>
+        </is>
+      </c>
       <c r="H125" s="2" t="inlineStr"/>
       <c r="I125" s="2" t="inlineStr"/>
       <c r="J125" s="2" t="inlineStr"/>
       <c r="K125" s="2" t="inlineStr"/>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M125" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N125" s="2" t="inlineStr">
@@ -6520,33 +6536,41 @@
       <c r="B126" s="2" t="n"/>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr"/>
-      <c r="G126" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>northing</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="inlineStr">
+        <is>
+          <t>Northing</t>
+        </is>
+      </c>
       <c r="H126" s="2" t="inlineStr"/>
       <c r="I126" s="2" t="inlineStr"/>
       <c r="J126" s="2" t="inlineStr"/>
       <c r="K126" s="2" t="inlineStr"/>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M126" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N126" s="2" t="inlineStr">
@@ -6556,16 +6580,8 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A127" s="2" t="n"/>
+      <c r="B127" s="2" t="n"/>
       <c r="C127" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -6583,12 +6599,12 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr"/>
@@ -6597,12 +6613,12 @@
       <c r="K127" s="2" t="inlineStr"/>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M127" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N127" s="2" t="inlineStr">
@@ -6631,12 +6647,12 @@
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr"/>
@@ -6645,12 +6661,12 @@
       <c r="K128" s="2" t="inlineStr"/>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M128" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N128" s="2" t="inlineStr">
@@ -6679,12 +6695,12 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr"/>
@@ -6693,7 +6709,7 @@
       <c r="K129" s="2" t="inlineStr"/>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M129" s="2" t="inlineStr">
@@ -6727,12 +6743,12 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr"/>
@@ -6741,12 +6757,12 @@
       <c r="K130" s="2" t="inlineStr"/>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M130" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N130" s="2" t="inlineStr">
@@ -6756,31 +6772,39 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n"/>
-      <c r="B131" s="2" t="n"/>
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>Site ownership</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>site-ownership</t>
+        </is>
+      </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>site-owner</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Site owner</t>
         </is>
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>fullname</t>
         </is>
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr"/>
@@ -6789,17 +6813,17 @@
       <c r="K131" s="2" t="inlineStr"/>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M131" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N131" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6808,27 +6832,27 @@
       <c r="B132" s="2" t="n"/>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>site-owner</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Site owner</t>
         </is>
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr"/>
@@ -6837,17 +6861,17 @@
       <c r="K132" s="2" t="inlineStr"/>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M132" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N132" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6856,46 +6880,38 @@
       <c r="B133" s="2" t="n"/>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>applicant-interest</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>longitude</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="inlineStr">
-        <is>
-          <t>Longitude</t>
-        </is>
-      </c>
+          <t>Applicant interest</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr"/>
+      <c r="G133" s="2" t="inlineStr"/>
       <c r="H133" s="2" t="inlineStr"/>
       <c r="I133" s="2" t="inlineStr"/>
       <c r="J133" s="2" t="inlineStr"/>
       <c r="K133" s="2" t="inlineStr"/>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Description of the applicant's interest in the land</t>
         </is>
       </c>
       <c r="M133" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N133" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6904,36 +6920,28 @@
       <c r="B134" s="2" t="n"/>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
         </is>
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>applicant-interest-adjoining-land</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+          <t>Applicant interest adjoining land</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr"/>
+      <c r="G134" s="2" t="inlineStr"/>
       <c r="H134" s="2" t="inlineStr"/>
       <c r="I134" s="2" t="inlineStr"/>
       <c r="J134" s="2" t="inlineStr"/>
       <c r="K134" s="2" t="inlineStr"/>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Description of the applicant's interest in the adjacent land</t>
         </is>
       </c>
       <c r="M134" s="2" t="inlineStr">
@@ -6943,106 +6951,90 @@
       </c>
       <c r="N134" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n"/>
-      <c r="B135" s="2" t="n"/>
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr"/>
+      <c r="G135" s="2" t="inlineStr"/>
       <c r="H135" s="2" t="inlineStr"/>
       <c r="I135" s="2" t="inlineStr"/>
       <c r="J135" s="2" t="inlineStr"/>
       <c r="K135" s="2" t="inlineStr"/>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M135" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N135" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="inlineStr">
-        <is>
-          <t>Site ownership</t>
-        </is>
-      </c>
-      <c r="B136" s="2" t="inlineStr">
-        <is>
-          <t>site-ownership</t>
-        </is>
-      </c>
+      <c r="A136" s="2" t="n"/>
+      <c r="B136" s="2" t="n"/>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>site-owner</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
-          <t>Site owner</t>
-        </is>
-      </c>
-      <c r="F136" s="2" t="inlineStr">
-        <is>
-          <t>fullname</t>
-        </is>
-      </c>
-      <c r="G136" s="2" t="inlineStr">
-        <is>
-          <t>Full name</t>
-        </is>
-      </c>
+          <t>Site visit contact type</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr"/>
+      <c r="G136" s="2" t="inlineStr"/>
       <c r="H136" s="2" t="inlineStr"/>
       <c r="I136" s="2" t="inlineStr"/>
       <c r="J136" s="2" t="inlineStr"/>
       <c r="K136" s="2" t="inlineStr"/>
       <c r="L136" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M136" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N136" s="2" t="inlineStr">
@@ -7056,36 +7048,28 @@
       <c r="B137" s="2" t="n"/>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>site-owner</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
-          <t>Site owner</t>
-        </is>
-      </c>
-      <c r="F137" s="2" t="inlineStr">
-        <is>
-          <t>address-text</t>
-        </is>
-      </c>
-      <c r="G137" s="2" t="inlineStr">
-        <is>
-          <t>Address Text</t>
-        </is>
-      </c>
+          <t>Contact reference</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr"/>
+      <c r="G137" s="2" t="inlineStr"/>
       <c r="H137" s="2" t="inlineStr"/>
       <c r="I137" s="2" t="inlineStr"/>
       <c r="J137" s="2" t="inlineStr"/>
       <c r="K137" s="2" t="inlineStr"/>
       <c r="L137" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M137" s="2" t="inlineStr">
@@ -7095,7 +7079,7 @@
       </c>
       <c r="N137" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7104,28 +7088,36 @@
       <c r="B138" s="2" t="n"/>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>applicant-interest</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
-          <t>Applicant interest</t>
-        </is>
-      </c>
-      <c r="F138" s="2" t="inlineStr"/>
-      <c r="G138" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F138" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G138" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H138" s="2" t="inlineStr"/>
       <c r="I138" s="2" t="inlineStr"/>
       <c r="J138" s="2" t="inlineStr"/>
       <c r="K138" s="2" t="inlineStr"/>
       <c r="L138" s="2" t="inlineStr">
         <is>
-          <t>Description of the applicant's interest in the land</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M138" s="2" t="inlineStr">
@@ -7144,28 +7136,36 @@
       <c r="B139" s="2" t="n"/>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>applicant-interest-adjoining-land</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
-          <t>Applicant interest adjoining land</t>
-        </is>
-      </c>
-      <c r="F139" s="2" t="inlineStr"/>
-      <c r="G139" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F139" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="G139" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="H139" s="2" t="inlineStr"/>
       <c r="I139" s="2" t="inlineStr"/>
       <c r="J139" s="2" t="inlineStr"/>
       <c r="K139" s="2" t="inlineStr"/>
       <c r="L139" s="2" t="inlineStr">
         <is>
-          <t>Description of the applicant's interest in the adjacent land</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M139" s="2" t="inlineStr">
@@ -7180,16 +7180,8 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B140" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A140" s="2" t="n"/>
+      <c r="B140" s="2" t="n"/>
       <c r="C140" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -7197,28 +7189,36 @@
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
-        </is>
-      </c>
-      <c r="F140" s="2" t="inlineStr"/>
-      <c r="G140" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H140" s="2" t="inlineStr"/>
       <c r="I140" s="2" t="inlineStr"/>
       <c r="J140" s="2" t="inlineStr"/>
       <c r="K140" s="2" t="inlineStr"/>
       <c r="L140" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M140" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N140" s="2" t="inlineStr">
@@ -7228,21 +7228,29 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n"/>
-      <c r="B141" s="2" t="n"/>
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>Storage facilities</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>storage-facilities</t>
+        </is>
+      </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>For oil and gas extraction developments, how chemicals will be stored</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>storage-facilities-description</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Storage facilities description</t>
         </is>
       </c>
       <c r="F141" s="2" t="inlineStr"/>
@@ -7253,12 +7261,12 @@
       <c r="K141" s="2" t="inlineStr"/>
       <c r="L141" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>Details and proposed facilities for the storage of oil, fuel and chemicals and the proposed means of their protection</t>
         </is>
       </c>
       <c r="M141" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N141" s="2" t="inlineStr">
@@ -7268,21 +7276,29 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n"/>
-      <c r="B142" s="2" t="n"/>
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>Trade effluent</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>trade-effluent</t>
+        </is>
+      </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>is-disposal-required</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
+          <t>Disposal required</t>
         </is>
       </c>
       <c r="F142" s="2" t="inlineStr"/>
@@ -7293,17 +7309,17 @@
       <c r="K142" s="2" t="inlineStr"/>
       <c r="L142" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="M142" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N142" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7312,36 +7328,28 @@
       <c r="B143" s="2" t="n"/>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>fullname</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="inlineStr">
-        <is>
-          <t>Full name</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr"/>
+      <c r="G143" s="2" t="inlineStr"/>
       <c r="H143" s="2" t="inlineStr"/>
       <c r="I143" s="2" t="inlineStr"/>
       <c r="J143" s="2" t="inlineStr"/>
       <c r="K143" s="2" t="inlineStr"/>
       <c r="L143" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="M143" s="2" t="inlineStr">
@@ -7351,50 +7359,50 @@
       </c>
       <c r="N143" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n"/>
-      <c r="B144" s="2" t="n"/>
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>trees-hedges</t>
+        </is>
+      </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>trees-on-site</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="G144" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Trees on site</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr"/>
+      <c r="G144" s="2" t="inlineStr"/>
       <c r="H144" s="2" t="inlineStr"/>
       <c r="I144" s="2" t="inlineStr"/>
       <c r="J144" s="2" t="inlineStr"/>
       <c r="K144" s="2" t="inlineStr"/>
       <c r="L144" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>Whether trees or hedges are present on the proposed development site</t>
         </is>
       </c>
       <c r="M144" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N144" s="2" t="inlineStr">
@@ -7408,41 +7416,33 @@
       <c r="B145" s="2" t="n"/>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>trees-on-adj-land</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G145" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Trees on adjacent land</t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="inlineStr"/>
+      <c r="G145" s="2" t="inlineStr"/>
       <c r="H145" s="2" t="inlineStr"/>
       <c r="I145" s="2" t="inlineStr"/>
       <c r="J145" s="2" t="inlineStr"/>
       <c r="K145" s="2" t="inlineStr"/>
       <c r="L145" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
         </is>
       </c>
       <c r="M145" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N145" s="2" t="inlineStr">
@@ -7454,27 +7454,28 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>Storage facilities</t>
+          <t>Oil and gas permission types</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>storage-facilities</t>
+          <t>oilgas-permission-type</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>For oil and gas extraction developments, how chemicals will be stored</t>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>storage-facilities-description</t>
+          <t>oilgas-permission-types</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
-          <t>Storage facilities description</t>
+          <t>Oil and gas permission types[]</t>
         </is>
       </c>
       <c r="F146" s="2" t="inlineStr"/>
@@ -7485,12 +7486,12 @@
       <c r="K146" s="2" t="inlineStr"/>
       <c r="L146" s="2" t="inlineStr">
         <is>
-          <t>Details and proposed facilities for the storage of oil, fuel and chemicals and the proposed means of their protection</t>
+          <t>List of permission types being applied for</t>
         </is>
       </c>
       <c r="M146" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N146" s="2" t="inlineStr">
@@ -7500,45 +7501,46 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B147" s="2" t="inlineStr">
-        <is>
-          <t>trade-effluent</t>
-        </is>
-      </c>
+      <c r="A147" s="2" t="n"/>
+      <c r="B147" s="2" t="n"/>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>is-disposal-required</t>
+          <t>related-permissions</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
-        </is>
-      </c>
-      <c r="F147" s="2" t="inlineStr"/>
-      <c r="G147" s="2" t="inlineStr"/>
+          <t>Related permissions[]</t>
+        </is>
+      </c>
+      <c r="F147" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H147" s="2" t="inlineStr"/>
       <c r="I147" s="2" t="inlineStr"/>
       <c r="J147" s="2" t="inlineStr"/>
       <c r="K147" s="2" t="inlineStr"/>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>The reference for the related application that permission was received for</t>
         </is>
       </c>
       <c r="M147" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N147" s="2" t="inlineStr">
@@ -7552,81 +7554,91 @@
       <c r="B148" s="2" t="n"/>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>related-permissions</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F148" s="2" t="inlineStr"/>
-      <c r="G148" s="2" t="inlineStr"/>
+          <t>Related permissions[]</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="inlineStr">
+        <is>
+          <t>oilgas-permission-type</t>
+        </is>
+      </c>
+      <c r="G148" s="2" t="inlineStr">
+        <is>
+          <t>Oil and gas permission type</t>
+        </is>
+      </c>
       <c r="H148" s="2" t="inlineStr"/>
       <c r="I148" s="2" t="inlineStr"/>
       <c r="J148" s="2" t="inlineStr"/>
       <c r="K148" s="2" t="inlineStr"/>
       <c r="L148" s="2" t="inlineStr">
         <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
+          <t>An oil and gas related permission type</t>
         </is>
       </c>
       <c r="M148" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N148" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>Trees and hedges information</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>trees-hedges</t>
-        </is>
-      </c>
+      <c r="A149" s="2" t="n"/>
+      <c r="B149" s="2" t="n"/>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>trees-on-site</t>
+          <t>related-permissions</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
-          <t>Trees on site</t>
-        </is>
-      </c>
-      <c r="F149" s="2" t="inlineStr"/>
-      <c r="G149" s="2" t="inlineStr"/>
+          <t>Related permissions[]</t>
+        </is>
+      </c>
+      <c r="F149" s="2" t="inlineStr">
+        <is>
+          <t>decision-date</t>
+        </is>
+      </c>
+      <c r="G149" s="2" t="inlineStr">
+        <is>
+          <t>Decision date</t>
+        </is>
+      </c>
       <c r="H149" s="2" t="inlineStr"/>
       <c r="I149" s="2" t="inlineStr"/>
       <c r="J149" s="2" t="inlineStr"/>
       <c r="K149" s="2" t="inlineStr"/>
       <c r="L149" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges are present on the proposed development site</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M149" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N149" s="2" t="inlineStr">
@@ -7640,52 +7652,53 @@
       <c r="B150" s="2" t="n"/>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>trees-on-adj-land</t>
+          <t>related-permissions</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
-          <t>Trees on adjacent land</t>
-        </is>
-      </c>
-      <c r="F150" s="2" t="inlineStr"/>
-      <c r="G150" s="2" t="inlineStr"/>
+          <t>Related permissions[]</t>
+        </is>
+      </c>
+      <c r="F150" s="2" t="inlineStr">
+        <is>
+          <t>condition-number</t>
+        </is>
+      </c>
+      <c r="G150" s="2" t="inlineStr">
+        <is>
+          <t>Condition number</t>
+        </is>
+      </c>
       <c r="H150" s="2" t="inlineStr"/>
       <c r="I150" s="2" t="inlineStr"/>
       <c r="J150" s="2" t="inlineStr"/>
       <c r="K150" s="2" t="inlineStr"/>
       <c r="L150" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
+          <t>Number of any condition being breached</t>
         </is>
       </c>
       <c r="M150" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N150" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="inlineStr">
-        <is>
-          <t>Oil and gas permission types</t>
-        </is>
-      </c>
-      <c r="B151" s="2" t="inlineStr">
-        <is>
-          <t>oilgas-permission-type</t>
-        </is>
-      </c>
+      <c r="A151" s="2" t="n"/>
+      <c r="B151" s="2" t="n"/>
       <c r="C151" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
@@ -7694,12 +7707,12 @@
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>oilgas-permission-types</t>
+          <t>other-details</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr">
         <is>
-          <t>Oil and gas permission types[]</t>
+          <t>Other details</t>
         </is>
       </c>
       <c r="F151" s="2" t="inlineStr"/>
@@ -7710,17 +7723,17 @@
       <c r="K151" s="2" t="inlineStr"/>
       <c r="L151" s="2" t="inlineStr">
         <is>
-          <t>List of permission types being applied for</t>
+          <t>Explanation if other ground is selected</t>
         </is>
       </c>
       <c r="M151" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N151" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7735,36 +7748,28 @@
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>related-permissions</t>
+          <t>will-consolidate-permissions</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
-          <t>Related permissions[]</t>
-        </is>
-      </c>
-      <c r="F152" s="2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="G152" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Will consolidate permissions</t>
+        </is>
+      </c>
+      <c r="F152" s="2" t="inlineStr"/>
+      <c r="G152" s="2" t="inlineStr"/>
       <c r="H152" s="2" t="inlineStr"/>
       <c r="I152" s="2" t="inlineStr"/>
       <c r="J152" s="2" t="inlineStr"/>
       <c r="K152" s="2" t="inlineStr"/>
       <c r="L152" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application that permission was received for</t>
+          <t>Is the applicant looking to consolidate permissions?</t>
         </is>
       </c>
       <c r="M152" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N152" s="2" t="inlineStr">
@@ -7784,41 +7789,33 @@
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>related-permissions</t>
+          <t>details</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr">
         <is>
-          <t>Related permissions[]</t>
-        </is>
-      </c>
-      <c r="F153" s="2" t="inlineStr">
-        <is>
-          <t>oilgas-permission-type</t>
-        </is>
-      </c>
-      <c r="G153" s="2" t="inlineStr">
-        <is>
-          <t>Oil and gas permission type</t>
-        </is>
-      </c>
+          <t>Details</t>
+        </is>
+      </c>
+      <c r="F153" s="2" t="inlineStr"/>
+      <c r="G153" s="2" t="inlineStr"/>
       <c r="H153" s="2" t="inlineStr"/>
       <c r="I153" s="2" t="inlineStr"/>
       <c r="J153" s="2" t="inlineStr"/>
       <c r="K153" s="2" t="inlineStr"/>
       <c r="L153" s="2" t="inlineStr">
         <is>
-          <t>An oil and gas related permission type</t>
+          <t>Details about the consolidation or update of permissions</t>
         </is>
       </c>
       <c r="M153" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N153" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7833,22 +7830,22 @@
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>related-permissions</t>
+          <t>related-proposals</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr">
         <is>
-          <t>Related permissions[]</t>
+          <t>Related proposals[]</t>
         </is>
       </c>
       <c r="F154" s="2" t="inlineStr">
         <is>
-          <t>decision-date</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>Decision date</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr"/>
@@ -7857,7 +7854,7 @@
       <c r="K154" s="2" t="inlineStr"/>
       <c r="L154" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="M154" s="2" t="inlineStr">
@@ -7882,22 +7879,22 @@
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>related-permissions</t>
+          <t>related-proposals</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
-          <t>Related permissions[]</t>
+          <t>Related proposals[]</t>
         </is>
       </c>
       <c r="F155" s="2" t="inlineStr">
         <is>
-          <t>condition-number</t>
+          <t>application-type</t>
         </is>
       </c>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Condition number</t>
+          <t>Application type</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr"/>
@@ -7906,17 +7903,17 @@
       <c r="K155" s="2" t="inlineStr"/>
       <c r="L155" s="2" t="inlineStr">
         <is>
-          <t>Number of any condition being breached</t>
+          <t>The type of planning application</t>
         </is>
       </c>
       <c r="M155" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N155" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7931,23 +7928,31 @@
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>other-details</t>
+          <t>related-proposals</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
-          <t>Other details</t>
-        </is>
-      </c>
-      <c r="F156" s="2" t="inlineStr"/>
-      <c r="G156" s="2" t="inlineStr"/>
+          <t>Related proposals[]</t>
+        </is>
+      </c>
+      <c r="F156" s="2" t="inlineStr">
+        <is>
+          <t>decision-date</t>
+        </is>
+      </c>
+      <c r="G156" s="2" t="inlineStr">
+        <is>
+          <t>Decision date</t>
+        </is>
+      </c>
       <c r="H156" s="2" t="inlineStr"/>
       <c r="I156" s="2" t="inlineStr"/>
       <c r="J156" s="2" t="inlineStr"/>
       <c r="K156" s="2" t="inlineStr"/>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>Explanation if other ground is selected</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M156" s="2" t="inlineStr">
@@ -7957,27 +7962,34 @@
       </c>
       <c r="N156" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="n"/>
-      <c r="B157" s="2" t="n"/>
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>Development type</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>dev-type</t>
+        </is>
+      </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
-</t>
+          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
         </is>
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>will-consolidate-permissions</t>
+          <t>development-phase</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr">
         <is>
-          <t>Will consolidate permissions</t>
+          <t>Development phase</t>
         </is>
       </c>
       <c r="F157" s="2" t="inlineStr"/>
@@ -7988,12 +8000,12 @@
       <c r="K157" s="2" t="inlineStr"/>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant looking to consolidate permissions?</t>
+          <t>Phases of oil and gas development the application covers</t>
         </is>
       </c>
       <c r="M157" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N157" s="2" t="inlineStr">
@@ -8007,18 +8019,17 @@
       <c r="B158" s="2" t="n"/>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
-</t>
+          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
         </is>
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>details</t>
+          <t>development-description</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr">
         <is>
-          <t>Details</t>
+          <t>Development description</t>
         </is>
       </c>
       <c r="F158" s="2" t="inlineStr"/>
@@ -8029,7 +8040,7 @@
       <c r="K158" s="2" t="inlineStr"/>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Details about the consolidation or update of permissions</t>
+          <t>Brief description of the development, including main oils, gases, and machinery</t>
         </is>
       </c>
       <c r="M158" s="2" t="inlineStr">
@@ -8039,7 +8050,7 @@
       </c>
       <c r="N158" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8048,42 +8059,33 @@
       <c r="B159" s="2" t="n"/>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
-</t>
+          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
         </is>
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>related-proposals</t>
+          <t>quantity-cubic-metres</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr">
         <is>
-          <t>Related proposals[]</t>
-        </is>
-      </c>
-      <c r="F159" s="2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="G159" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Quantity cubic metres</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr"/>
+      <c r="G159" s="2" t="inlineStr"/>
       <c r="H159" s="2" t="inlineStr"/>
       <c r="I159" s="2" t="inlineStr"/>
       <c r="J159" s="2" t="inlineStr"/>
       <c r="K159" s="2" t="inlineStr"/>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>Quantity of oil or gas involved in cubic metres</t>
         </is>
       </c>
       <c r="M159" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N159" s="2" t="inlineStr">
@@ -8097,47 +8099,38 @@
       <c r="B160" s="2" t="n"/>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
-</t>
+          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>related-proposals</t>
+          <t>permission-period-years</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
-          <t>Related proposals[]</t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="inlineStr">
-        <is>
-          <t>application-type</t>
-        </is>
-      </c>
-      <c r="G160" s="2" t="inlineStr">
-        <is>
-          <t>Application type</t>
-        </is>
-      </c>
+          <t>Permission period years</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr"/>
+      <c r="G160" s="2" t="inlineStr"/>
       <c r="H160" s="2" t="inlineStr"/>
       <c r="I160" s="2" t="inlineStr"/>
       <c r="J160" s="2" t="inlineStr"/>
       <c r="K160" s="2" t="inlineStr"/>
       <c r="L160" s="2" t="inlineStr">
         <is>
-          <t>The type of planning application</t>
+          <t>Period of permission sought in years</t>
         </is>
       </c>
       <c r="M160" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N160" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8146,37 +8139,28 @@
       <c r="B161" s="2" t="n"/>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
-</t>
+          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
         </is>
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>related-proposals</t>
+          <t>hydrocarbon-licence-block</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr">
         <is>
-          <t>Related proposals[]</t>
-        </is>
-      </c>
-      <c r="F161" s="2" t="inlineStr">
-        <is>
-          <t>decision-date</t>
-        </is>
-      </c>
-      <c r="G161" s="2" t="inlineStr">
-        <is>
-          <t>Decision date</t>
-        </is>
-      </c>
+          <t>Hydrocarbon licence block</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr"/>
+      <c r="G161" s="2" t="inlineStr"/>
       <c r="H161" s="2" t="inlineStr"/>
       <c r="I161" s="2" t="inlineStr"/>
       <c r="J161" s="2" t="inlineStr"/>
       <c r="K161" s="2" t="inlineStr"/>
       <c r="L161" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Hydrocarbon licence block where the development is located</t>
         </is>
       </c>
       <c r="M161" s="2" t="inlineStr">
@@ -8191,16 +8175,8 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="inlineStr">
-        <is>
-          <t>Development type</t>
-        </is>
-      </c>
-      <c r="B162" s="2" t="inlineStr">
-        <is>
-          <t>dev-type</t>
-        </is>
-      </c>
+      <c r="A162" s="2" t="n"/>
+      <c r="B162" s="2" t="n"/>
       <c r="C162" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
@@ -8208,12 +8184,12 @@
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>development-phase</t>
+          <t>surface-site-area-hectares</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr">
         <is>
-          <t>Development phase</t>
+          <t>Surface site area hectares</t>
         </is>
       </c>
       <c r="F162" s="2" t="inlineStr"/>
@@ -8224,17 +8200,17 @@
       <c r="K162" s="2" t="inlineStr"/>
       <c r="L162" s="2" t="inlineStr">
         <is>
-          <t>Phases of oil and gas development the application covers</t>
+          <t>Surface site area in hectares</t>
         </is>
       </c>
       <c r="M162" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N162" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8248,12 +8224,12 @@
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>development-description</t>
+          <t>site-hectares-provided-by</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
-          <t>Development description</t>
+          <t>Site hectares provided by</t>
         </is>
       </c>
       <c r="F163" s="2" t="inlineStr"/>
@@ -8264,17 +8240,17 @@
       <c r="K163" s="2" t="inlineStr"/>
       <c r="L163" s="2" t="inlineStr">
         <is>
-          <t>Brief description of the development, including main oils, gases, and machinery</t>
+          <t>Who provided the site hectares value (applicant or system)</t>
         </is>
       </c>
       <c r="M163" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N163" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8288,12 +8264,12 @@
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>quantity-cubic-metres</t>
+          <t>environmental-statement</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
-          <t>Quantity cubic metres</t>
+          <t>Environmental statement</t>
         </is>
       </c>
       <c r="F164" s="2" t="inlineStr"/>
@@ -8304,12 +8280,12 @@
       <c r="K164" s="2" t="inlineStr"/>
       <c r="L164" s="2" t="inlineStr">
         <is>
-          <t>Quantity of oil or gas involved in cubic metres</t>
+          <t>Is an Environmental Statement attached to the application</t>
         </is>
       </c>
       <c r="M164" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N164" s="2" t="inlineStr">
@@ -8328,12 +8304,12 @@
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>permission-period-years</t>
+          <t>environmental-statement-reference</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
-          <t>Permission period years</t>
+          <t>Environmental statement reference</t>
         </is>
       </c>
       <c r="F165" s="2" t="inlineStr"/>
@@ -8344,12 +8320,12 @@
       <c r="K165" s="2" t="inlineStr"/>
       <c r="L165" s="2" t="inlineStr">
         <is>
-          <t>Period of permission sought in years</t>
+          <t>Reference to the environmental statement document</t>
         </is>
       </c>
       <c r="M165" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N165" s="2" t="inlineStr">
@@ -8359,21 +8335,29 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="n"/>
-      <c r="B166" s="2" t="n"/>
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>Voluntary agreement</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>vol-agreement</t>
+        </is>
+      </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>hydrocarbon-licence-block</t>
+          <t>draft-agreement-included</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
-          <t>Hydrocarbon licence block</t>
+          <t>Draft agreement included</t>
         </is>
       </c>
       <c r="F166" s="2" t="inlineStr"/>
@@ -8384,12 +8368,12 @@
       <c r="K166" s="2" t="inlineStr"/>
       <c r="L166" s="2" t="inlineStr">
         <is>
-          <t>Hydrocarbon licence block where the development is located</t>
+          <t>Has an outline or draft agreement been included? (True / False)</t>
         </is>
       </c>
       <c r="M166" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N166" s="2" t="inlineStr">
@@ -8403,17 +8387,17 @@
       <c r="B167" s="2" t="n"/>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>surface-site-area-hectares</t>
+          <t>agreement-summary</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr">
         <is>
-          <t>Surface site area hectares</t>
+          <t>Agreement summary</t>
         </is>
       </c>
       <c r="F167" s="2" t="inlineStr"/>
@@ -8424,223 +8408,15 @@
       <c r="K167" s="2" t="inlineStr"/>
       <c r="L167" s="2" t="inlineStr">
         <is>
-          <t>Surface site area in hectares</t>
+          <t>Summary of the agreement</t>
         </is>
       </c>
       <c r="M167" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N167" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="n"/>
-      <c r="B168" s="2" t="n"/>
-      <c r="C168" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
-        </is>
-      </c>
-      <c r="D168" s="2" t="inlineStr">
-        <is>
-          <t>site-hectares-provided-by</t>
-        </is>
-      </c>
-      <c r="E168" s="2" t="inlineStr">
-        <is>
-          <t>Site hectares provided by</t>
-        </is>
-      </c>
-      <c r="F168" s="2" t="inlineStr"/>
-      <c r="G168" s="2" t="inlineStr"/>
-      <c r="H168" s="2" t="inlineStr"/>
-      <c r="I168" s="2" t="inlineStr"/>
-      <c r="J168" s="2" t="inlineStr"/>
-      <c r="K168" s="2" t="inlineStr"/>
-      <c r="L168" s="2" t="inlineStr">
-        <is>
-          <t>Who provided the site hectares value (applicant or system)</t>
-        </is>
-      </c>
-      <c r="M168" s="2" t="inlineStr">
-        <is>
-          <t>enum</t>
-        </is>
-      </c>
-      <c r="N168" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="n"/>
-      <c r="B169" s="2" t="n"/>
-      <c r="C169" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
-        </is>
-      </c>
-      <c r="D169" s="2" t="inlineStr">
-        <is>
-          <t>environmental-statement</t>
-        </is>
-      </c>
-      <c r="E169" s="2" t="inlineStr">
-        <is>
-          <t>Environmental statement</t>
-        </is>
-      </c>
-      <c r="F169" s="2" t="inlineStr"/>
-      <c r="G169" s="2" t="inlineStr"/>
-      <c r="H169" s="2" t="inlineStr"/>
-      <c r="I169" s="2" t="inlineStr"/>
-      <c r="J169" s="2" t="inlineStr"/>
-      <c r="K169" s="2" t="inlineStr"/>
-      <c r="L169" s="2" t="inlineStr">
-        <is>
-          <t>Is an Environmental Statement attached to the application</t>
-        </is>
-      </c>
-      <c r="M169" s="2" t="inlineStr">
-        <is>
-          <t>boolean</t>
-        </is>
-      </c>
-      <c r="N169" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="n"/>
-      <c r="B170" s="2" t="n"/>
-      <c r="C170" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
-        </is>
-      </c>
-      <c r="D170" s="2" t="inlineStr">
-        <is>
-          <t>environmental-statement-reference</t>
-        </is>
-      </c>
-      <c r="E170" s="2" t="inlineStr">
-        <is>
-          <t>Environmental statement reference</t>
-        </is>
-      </c>
-      <c r="F170" s="2" t="inlineStr"/>
-      <c r="G170" s="2" t="inlineStr"/>
-      <c r="H170" s="2" t="inlineStr"/>
-      <c r="I170" s="2" t="inlineStr"/>
-      <c r="J170" s="2" t="inlineStr"/>
-      <c r="K170" s="2" t="inlineStr"/>
-      <c r="L170" s="2" t="inlineStr">
-        <is>
-          <t>Reference to the environmental statement document</t>
-        </is>
-      </c>
-      <c r="M170" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N170" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="inlineStr">
-        <is>
-          <t>Voluntary agreement</t>
-        </is>
-      </c>
-      <c r="B171" s="2" t="inlineStr">
-        <is>
-          <t>vol-agreement</t>
-        </is>
-      </c>
-      <c r="C171" s="2" t="inlineStr">
-        <is>
-          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
-        </is>
-      </c>
-      <c r="D171" s="2" t="inlineStr">
-        <is>
-          <t>draft-agreement-included</t>
-        </is>
-      </c>
-      <c r="E171" s="2" t="inlineStr">
-        <is>
-          <t>Draft agreement included</t>
-        </is>
-      </c>
-      <c r="F171" s="2" t="inlineStr"/>
-      <c r="G171" s="2" t="inlineStr"/>
-      <c r="H171" s="2" t="inlineStr"/>
-      <c r="I171" s="2" t="inlineStr"/>
-      <c r="J171" s="2" t="inlineStr"/>
-      <c r="K171" s="2" t="inlineStr"/>
-      <c r="L171" s="2" t="inlineStr">
-        <is>
-          <t>Has an outline or draft agreement been included? (True / False)</t>
-        </is>
-      </c>
-      <c r="M171" s="2" t="inlineStr">
-        <is>
-          <t>boolean</t>
-        </is>
-      </c>
-      <c r="N171" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="n"/>
-      <c r="B172" s="2" t="n"/>
-      <c r="C172" s="2" t="inlineStr">
-        <is>
-          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
-        </is>
-      </c>
-      <c r="D172" s="2" t="inlineStr">
-        <is>
-          <t>agreement-summary</t>
-        </is>
-      </c>
-      <c r="E172" s="2" t="inlineStr">
-        <is>
-          <t>Agreement summary</t>
-        </is>
-      </c>
-      <c r="F172" s="2" t="inlineStr"/>
-      <c r="G172" s="2" t="inlineStr"/>
-      <c r="H172" s="2" t="inlineStr"/>
-      <c r="I172" s="2" t="inlineStr"/>
-      <c r="J172" s="2" t="inlineStr"/>
-      <c r="K172" s="2" t="inlineStr"/>
-      <c r="L172" s="2" t="inlineStr">
-        <is>
-          <t>Summary of the agreement</t>
-        </is>
-      </c>
-      <c r="M172" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N172" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -8648,66 +8424,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="A162:A170"/>
-    <mergeCell ref="A111:A118"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B96:B110"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A151:A161"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="B140:B145"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="A67:A76"/>
-    <mergeCell ref="A58"/>
-    <mergeCell ref="B136:B139"/>
-    <mergeCell ref="B162:B170"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="B111:B118"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="B151:B161"/>
-    <mergeCell ref="B127:B135"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B54"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B66"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="A136:A139"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="B67:B76"/>
-    <mergeCell ref="B58"/>
-    <mergeCell ref="A146"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B88:B95"/>
-    <mergeCell ref="A127:A135"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A54"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B59:B65"/>
-    <mergeCell ref="A66"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="A96:A110"/>
-    <mergeCell ref="A140:A145"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B146"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="A141"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="A68:A77"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B135:B140"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="B55"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B85:B92"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B93:B107"/>
+    <mergeCell ref="B157:B165"/>
+    <mergeCell ref="A67"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="B146:B156"/>
+    <mergeCell ref="A59"/>
+    <mergeCell ref="B108:B114"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B141"/>
+    <mergeCell ref="B59"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="A122:A130"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A135:A140"/>
+    <mergeCell ref="A157:A165"/>
+    <mergeCell ref="A85:A92"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B67"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B122:B130"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A55"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A93:A107"/>
+    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B144:B145"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
+++ b/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
@@ -861,7 +861,7 @@
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
+++ b/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
@@ -4469,23 +4469,31 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>drainage-system-details</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Drainage system details</t>
-        </is>
-      </c>
-      <c r="F82" s="2" t="inlineStr"/>
-      <c r="G82" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H82" s="2" t="inlineStr"/>
       <c r="I82" s="2" t="inlineStr"/>
       <c r="J82" s="2" t="inlineStr"/>
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Details of the drawings/plans that show the existing drainage system</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
@@ -4495,7 +4503,7 @@
       </c>
       <c r="N82" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>

--- a/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
+++ b/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N167"/>
+  <dimension ref="A1:N166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3772,21 +3772,29 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n"/>
-      <c r="B66" s="2" t="n"/>
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Equipment and method</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>equip-method</t>
+        </is>
+      </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
+          <t>How oil and gas will be extracted as part of the proposed development.</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>employment-impact</t>
+          <t>equipment-plan</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
+          <t>Equipment plan</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
@@ -3797,7 +3805,7 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>Details of equipment to be used as part of the application including the maximum height and type of drilling rig to be used</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
@@ -3807,50 +3815,58 @@
       </c>
       <c r="N66" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>Equipment and method</t>
+          <t>Existing use</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>equip-method</t>
+          <t>existing-use</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>How oil and gas will be extracted as part of the proposed development.</t>
+          <t>How the site is currently being used.</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>equipment-plan</t>
+          <t>existing-use-details</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Equipment plan</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr"/>
-      <c r="G67" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H67" s="2" t="inlineStr"/>
       <c r="I67" s="2" t="inlineStr"/>
       <c r="J67" s="2" t="inlineStr"/>
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Details of equipment to be used as part of the application including the maximum height and type of drilling rig to be used</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N67" s="2" t="inlineStr">
@@ -3860,16 +3876,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>existing-use</t>
-        </is>
-      </c>
+      <c r="A68" s="2" t="n"/>
+      <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
           <t>How the site is currently being used.</t>
@@ -3887,12 +3895,12 @@
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>use-details</t>
         </is>
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr"/>
@@ -3901,17 +3909,17 @@
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N68" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3935,12 +3943,12 @@
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>use-details</t>
+          <t>land-part</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr"/>
@@ -3949,7 +3957,7 @@
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
@@ -3959,7 +3967,7 @@
       </c>
       <c r="N69" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3973,36 +3981,28 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>existing-use-details</t>
+          <t>site-vacant</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>land-part</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr"/>
       <c r="H70" s="2" t="inlineStr"/>
       <c r="I70" s="2" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr"/>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N70" s="2" t="inlineStr">
@@ -4021,12 +4021,12 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>site-vacant</t>
+          <t>last-use-details</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr"/>
@@ -4037,17 +4037,17 @@
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4061,12 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>last-use-details</t>
+          <t>last-use-end-date</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr"/>
@@ -4077,12 +4077,12 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N72" s="2" t="inlineStr">
@@ -4101,12 +4101,12 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>last-use-end-date</t>
+          <t>is-contaminated-land</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr"/>
@@ -4117,17 +4117,17 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N73" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4141,12 +4141,12 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>is-contaminated-land</t>
+          <t>is-suspected-contaminated-land</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr"/>
@@ -4157,7 +4157,7 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
@@ -4181,12 +4181,12 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>is-suspected-contaminated-land</t>
+          <t>proposed-use-contamination-risk</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr"/>
@@ -4197,7 +4197,7 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>proposed-use-contamination-risk</t>
+          <t>contamination-assessment</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr"/>
@@ -4237,36 +4237,44 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N76" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n"/>
-      <c r="B77" s="2" t="n"/>
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>Foul sewage disposal</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>foul-sewage</t>
+        </is>
+      </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>How the site is currently being used.</t>
+          <t>How waste water will leave the property as part of the proposed development</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>contamination-assessment</t>
+          <t>has-new-disposal-arrangements</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Has new disposal arrangements</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr"/>
@@ -4277,31 +4285,23 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Does the proposal include any new foul sewage disposal arrangments</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N77" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>Foul sewage disposal</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>foul-sewage</t>
-        </is>
-      </c>
+      <c r="A78" s="2" t="n"/>
+      <c r="B78" s="2" t="n"/>
       <c r="C78" s="2" t="inlineStr">
         <is>
           <t>How waste water will leave the property as part of the proposed development</t>
@@ -4309,12 +4309,12 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>has-new-disposal-arrangements</t>
+          <t>foul-sewage-disposal-types</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Has new disposal arrangements</t>
+          <t>Foul sewage disposal types[]</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>
@@ -4325,17 +4325,17 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include any new foul sewage disposal arrangments</t>
+          <t>List of ways foul sewage will be disposed of</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4349,12 +4349,12 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>foul-sewage-disposal-types</t>
+          <t>produce-foul-sewage</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Foul sewage disposal types[]</t>
+          <t>Produce foul sewage</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr"/>
@@ -4365,17 +4365,17 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>List of ways foul sewage will be disposed of</t>
+          <t>Whether the proposed development will produce any foul sewage</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4389,12 +4389,12 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>produce-foul-sewage</t>
+          <t>connect-to-drainage-system</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Produce foul sewage</t>
+          <t>Connect to drainage system</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr"/>
@@ -4405,7 +4405,7 @@
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposed development will produce any foul sewage</t>
+          <t>Whether the proposal needs to connect to the existing drainage system</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
@@ -4429,28 +4429,36 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>connect-to-drainage-system</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
-        </is>
-      </c>
-      <c r="F81" s="2" t="inlineStr"/>
-      <c r="G81" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H81" s="2" t="inlineStr"/>
       <c r="I81" s="2" t="inlineStr"/>
       <c r="J81" s="2" t="inlineStr"/>
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N81" s="2" t="inlineStr">
@@ -4460,45 +4468,45 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n"/>
-      <c r="B82" s="2" t="n"/>
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substances</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>haz-substances</t>
+        </is>
+      </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>How waste water will leave the property as part of the proposed development</t>
+          <t>Details of hazardous substances requiring consent used as part of the development</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>hazardous-sub-consent-req</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Hazardous substance consent required</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr"/>
+      <c r="G82" s="2" t="inlineStr"/>
       <c r="H82" s="2" t="inlineStr"/>
       <c r="I82" s="2" t="inlineStr"/>
       <c r="J82" s="2" t="inlineStr"/>
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N82" s="2" t="inlineStr">
@@ -4508,16 +4516,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substances</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>haz-substances</t>
-        </is>
-      </c>
+      <c r="A83" s="2" t="n"/>
+      <c r="B83" s="2" t="n"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
           <t>Details of hazardous substances requiring consent used as part of the development</t>
@@ -4525,12 +4525,12 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>hazardous-sub-consent-req</t>
+          <t>hazardous-sub-consent-details</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent required</t>
+          <t>Hazardous substance consent details</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr"/>
@@ -4541,71 +4541,79 @@
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
+          <t>Details of hazardous substance consent requirements</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N83" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n"/>
-      <c r="B84" s="2" t="n"/>
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>hrs-operation</t>
+        </is>
+      </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Details of hazardous substances requiring consent used as part of the development</t>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>hazardous-sub-consent-details</t>
+          <t>hours-of-operation</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent details</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr"/>
-      <c r="G84" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H84" s="2" t="inlineStr"/>
       <c r="I84" s="2" t="inlineStr"/>
       <c r="J84" s="2" t="inlineStr"/>
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Details of hazardous substance consent requirements</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N84" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B85" s="2" t="inlineStr">
-        <is>
-          <t>hrs-operation</t>
-        </is>
-      </c>
+      <c r="A85" s="2" t="n"/>
+      <c r="B85" s="2" t="n"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
           <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
@@ -4623,12 +4631,12 @@
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>use-other</t>
         </is>
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr"/>
@@ -4637,17 +4645,17 @@
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N85" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4671,31 +4679,39 @@
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>use-other</t>
+          <t>operational-times</t>
         </is>
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
-        </is>
-      </c>
-      <c r="H86" s="2" t="inlineStr"/>
-      <c r="I86" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>day-type</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="inlineStr">
+        <is>
+          <t>Day type</t>
+        </is>
+      </c>
       <c r="J86" s="2" t="inlineStr"/>
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Day or type of day</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N86" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4729,29 +4745,29 @@
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>day-type</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>Day type</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="J87" s="2" t="inlineStr"/>
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>Day or type of day</t>
+          <t>True or False - explicitly state when closed</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N87" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4785,29 +4801,37 @@
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>time-ranges</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="J88" s="2" t="inlineStr"/>
-      <c r="K88" s="2" t="inlineStr"/>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>open-time</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="inlineStr">
+        <is>
+          <t>Open time</t>
+        </is>
+      </c>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>True or False - explicitly state when closed</t>
+          <t>Opening time</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N88" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4851,17 +4875,17 @@
       </c>
       <c r="J89" s="2" t="inlineStr">
         <is>
-          <t>open-time</t>
+          <t>close-time</t>
         </is>
       </c>
       <c r="K89" s="2" t="inlineStr">
         <is>
-          <t>Open time</t>
+          <t>Close time</t>
         </is>
       </c>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>Opening time</t>
+          <t>Closing time</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
@@ -4895,47 +4919,31 @@
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>operational-times</t>
+          <t>hours-not-known</t>
         </is>
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>time-ranges</t>
-        </is>
-      </c>
-      <c r="I90" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>close-time</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="inlineStr">
-        <is>
-          <t>Close time</t>
-        </is>
-      </c>
+          <t>Hours not known</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="inlineStr"/>
+      <c r="I90" s="2" t="inlineStr"/>
+      <c r="J90" s="2" t="inlineStr"/>
+      <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>Closing time</t>
+          <t>Applicant states they do not know the hours of operation</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N90" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4949,36 +4957,28 @@
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>hours-of-operation</t>
+          <t>additional-information</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
-        </is>
-      </c>
-      <c r="F91" s="2" t="inlineStr">
-        <is>
-          <t>hours-not-known</t>
-        </is>
-      </c>
-      <c r="G91" s="2" t="inlineStr">
-        <is>
-          <t>Hours not known</t>
-        </is>
-      </c>
+          <t>Additional information</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr"/>
+      <c r="G91" s="2" t="inlineStr"/>
       <c r="H91" s="2" t="inlineStr"/>
       <c r="I91" s="2" t="inlineStr"/>
       <c r="J91" s="2" t="inlineStr"/>
       <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>Applicant states they do not know the hours of operation</t>
+          <t>Any additional information (such as hours of use of other machinery within the site-generators, pumps, etc)</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N91" s="2" t="inlineStr">
@@ -4988,21 +4988,29 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n"/>
-      <c r="B92" s="2" t="n"/>
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>ownership-certs</t>
+        </is>
+      </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>additional-information</t>
+          <t>sole-owner</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Additional information</t>
+          <t>Sole owner</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr"/>
@@ -5013,31 +5021,23 @@
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Any additional information (such as hours of use of other machinery within the site-generators, pumps, etc)</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N92" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B93" s="2" t="inlineStr">
-        <is>
-          <t>ownership-certs</t>
-        </is>
-      </c>
+      <c r="A93" s="2" t="n"/>
+      <c r="B93" s="2" t="n"/>
       <c r="C93" s="2" t="inlineStr">
         <is>
           <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
@@ -5045,12 +5045,12 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>sole-owner</t>
+          <t>agricultural-tenants</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="F93" s="2" t="inlineStr"/>
@@ -5061,7 +5061,7 @@
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
@@ -5085,33 +5085,49 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>agricultural-tenants</t>
+          <t>owners-and-tenants</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="F94" s="2" t="inlineStr"/>
-      <c r="G94" s="2" t="inlineStr"/>
-      <c r="H94" s="2" t="inlineStr"/>
-      <c r="I94" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J94" s="2" t="inlineStr"/>
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N94" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5145,19 +5161,19 @@
       </c>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I95" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J95" s="2" t="inlineStr"/>
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
@@ -5167,7 +5183,7 @@
       </c>
       <c r="N95" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5201,19 +5217,19 @@
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I96" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J96" s="2" t="inlineStr"/>
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
@@ -5257,19 +5273,19 @@
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I97" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J97" s="2" t="inlineStr"/>
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M97" s="2" t="inlineStr">
@@ -5313,19 +5329,19 @@
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I98" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J98" s="2" t="inlineStr"/>
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M98" s="2" t="inlineStr">
@@ -5335,7 +5351,7 @@
       </c>
       <c r="N98" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5359,34 +5375,26 @@
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>notice-date</t>
         </is>
       </c>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H99" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I99" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="H99" s="2" t="inlineStr"/>
+      <c r="I99" s="2" t="inlineStr"/>
       <c r="J99" s="2" t="inlineStr"/>
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="M99" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N99" s="2" t="inlineStr">
@@ -5405,36 +5413,28 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>owners-and-tenants</t>
+          <t>steps-taken</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="F100" s="2" t="inlineStr">
-        <is>
-          <t>notice-date</t>
-        </is>
-      </c>
-      <c r="G100" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr"/>
+      <c r="G100" s="2" t="inlineStr"/>
       <c r="H100" s="2" t="inlineStr"/>
       <c r="I100" s="2" t="inlineStr"/>
       <c r="J100" s="2" t="inlineStr"/>
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="M100" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N100" s="2" t="inlineStr">
@@ -5453,23 +5453,31 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>steps-taken</t>
+          <t>newspaper-notices</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="F101" s="2" t="inlineStr"/>
-      <c r="G101" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>newspaper-name</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="H101" s="2" t="inlineStr"/>
       <c r="I101" s="2" t="inlineStr"/>
       <c r="J101" s="2" t="inlineStr"/>
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="M101" s="2" t="inlineStr">
@@ -5479,7 +5487,7 @@
       </c>
       <c r="N101" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5503,12 +5511,12 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>newspaper-name</t>
+          <t>publication-date</t>
         </is>
       </c>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr"/>
@@ -5517,12 +5525,12 @@
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N102" s="2" t="inlineStr">
@@ -5541,41 +5549,33 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>newspaper-notices</t>
+          <t>ownership-cert-option</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="F103" s="2" t="inlineStr">
-        <is>
-          <t>publication-date</t>
-        </is>
-      </c>
-      <c r="G103" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="inlineStr"/>
+      <c r="G103" s="2" t="inlineStr"/>
       <c r="H103" s="2" t="inlineStr"/>
       <c r="I103" s="2" t="inlineStr"/>
       <c r="J103" s="2" t="inlineStr"/>
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N103" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5589,12 +5589,12 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>ownership-cert-option</t>
+          <t>applicant-signature</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="F104" s="2" t="inlineStr"/>
@@ -5605,12 +5605,12 @@
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N104" s="2" t="inlineStr">
@@ -5629,12 +5629,12 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>applicant-signature</t>
+          <t>agent-signature</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="F105" s="2" t="inlineStr"/>
@@ -5645,7 +5645,7 @@
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
@@ -5669,12 +5669,12 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>agent-signature</t>
+          <t>signature-date</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="F106" s="2" t="inlineStr"/>
@@ -5685,12 +5685,12 @@
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N106" s="2" t="inlineStr">
@@ -5700,21 +5700,29 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n"/>
-      <c r="B107" s="2" t="n"/>
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>access-rights-of-way</t>
+        </is>
+      </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
         </is>
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>new-altered-vehicle</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>New or altered vehicle access</t>
         </is>
       </c>
       <c r="F107" s="2" t="inlineStr"/>
@@ -5725,31 +5733,23 @@
       <c r="K107" s="2" t="inlineStr"/>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M107" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N107" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B108" s="2" t="inlineStr">
-        <is>
-          <t>access-rights-of-way</t>
-        </is>
-      </c>
+      <c r="A108" s="2" t="n"/>
+      <c r="B108" s="2" t="n"/>
       <c r="C108" s="2" t="inlineStr">
         <is>
           <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
@@ -5757,12 +5757,12 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>new-altered-vehicle</t>
+          <t>new-altered-pedestrian</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="F108" s="2" t="inlineStr"/>
@@ -5773,7 +5773,7 @@
       <c r="K108" s="2" t="inlineStr"/>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M108" s="2" t="inlineStr">
@@ -5797,12 +5797,12 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>new-altered-pedestrian</t>
+          <t>new-right-of-way</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
+          <t>New right of way</t>
         </is>
       </c>
       <c r="F109" s="2" t="inlineStr"/>
@@ -5813,7 +5813,7 @@
       <c r="K109" s="2" t="inlineStr"/>
       <c r="L109" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>Will new public rights of way be provided within or adjacent to the site</t>
         </is>
       </c>
       <c r="M109" s="2" t="inlineStr">
@@ -5837,12 +5837,12 @@
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>new-right-of-way</t>
+          <t>new-public-road</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
-          <t>New right of way</t>
+          <t>New public road</t>
         </is>
       </c>
       <c r="F110" s="2" t="inlineStr"/>
@@ -5853,7 +5853,7 @@
       <c r="K110" s="2" t="inlineStr"/>
       <c r="L110" s="2" t="inlineStr">
         <is>
-          <t>Will new public rights of way be provided within or adjacent to the site</t>
+          <t>Will new public roads be provided within the site</t>
         </is>
       </c>
       <c r="M110" s="2" t="inlineStr">
@@ -5877,12 +5877,12 @@
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>new-public-road</t>
+          <t>temp-right-of-way</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
-          <t>New public road</t>
+          <t>Temporary right of way changes</t>
         </is>
       </c>
       <c r="F111" s="2" t="inlineStr"/>
@@ -5893,7 +5893,7 @@
       <c r="K111" s="2" t="inlineStr"/>
       <c r="L111" s="2" t="inlineStr">
         <is>
-          <t>Will new public roads be provided within the site</t>
+          <t>Are temporary changes to rights of way needed while the site is worked</t>
         </is>
       </c>
       <c r="M111" s="2" t="inlineStr">
@@ -5917,12 +5917,12 @@
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>temp-right-of-way</t>
+          <t>future-new-right-of-way</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
-          <t>Temporary right of way changes</t>
+          <t>Future new right of way</t>
         </is>
       </c>
       <c r="F112" s="2" t="inlineStr"/>
@@ -5933,7 +5933,7 @@
       <c r="K112" s="2" t="inlineStr"/>
       <c r="L112" s="2" t="inlineStr">
         <is>
-          <t>Are temporary changes to rights of way needed while the site is worked</t>
+          <t>Will new public rights of way be provided after extraction?</t>
         </is>
       </c>
       <c r="M112" s="2" t="inlineStr">
@@ -5957,28 +5957,36 @@
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>future-new-right-of-way</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
-          <t>Future new right of way</t>
-        </is>
-      </c>
-      <c r="F113" s="2" t="inlineStr"/>
-      <c r="G113" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H113" s="2" t="inlineStr"/>
       <c r="I113" s="2" t="inlineStr"/>
       <c r="J113" s="2" t="inlineStr"/>
       <c r="K113" s="2" t="inlineStr"/>
       <c r="L113" s="2" t="inlineStr">
         <is>
-          <t>Will new public rights of way be provided after extraction?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M113" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N113" s="2" t="inlineStr">
@@ -5988,11 +5996,19 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n"/>
-      <c r="B114" s="2" t="n"/>
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>Plans, drawings and supporting materials</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>plans-drawings-supporting-materials</t>
+        </is>
+      </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+          <t>Additional materials and specifications that form part of the planning application</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
@@ -6036,16 +6052,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="inlineStr">
-        <is>
-          <t>Plans, drawings and supporting materials</t>
-        </is>
-      </c>
-      <c r="B115" s="2" t="inlineStr">
-        <is>
-          <t>plans-drawings-supporting-materials</t>
-        </is>
-      </c>
+      <c r="A115" s="2" t="n"/>
+      <c r="B115" s="2" t="n"/>
       <c r="C115" s="2" t="inlineStr">
         <is>
           <t>Additional materials and specifications that form part of the planning application</t>
@@ -6053,31 +6061,23 @@
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>inspection-address</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F115" s="2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="G115" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Inspection address</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="inlineStr"/>
+      <c r="G115" s="2" t="inlineStr"/>
       <c r="H115" s="2" t="inlineStr"/>
       <c r="I115" s="2" t="inlineStr"/>
       <c r="J115" s="2" t="inlineStr"/>
       <c r="K115" s="2" t="inlineStr"/>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Full postal address where supporting material can be inspected</t>
         </is>
       </c>
       <c r="M115" s="2" t="inlineStr">
@@ -6092,21 +6092,29 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n"/>
-      <c r="B116" s="2" t="n"/>
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>Additional materials and specifications that form part of the planning application</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>inspection-address</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>Inspection address</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F116" s="2" t="inlineStr"/>
@@ -6117,12 +6125,12 @@
       <c r="K116" s="2" t="inlineStr"/>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>Full postal address where supporting material can be inspected</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M116" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N116" s="2" t="inlineStr">
@@ -6132,16 +6140,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B117" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A117" s="2" t="n"/>
+      <c r="B117" s="2" t="n"/>
       <c r="C117" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -6149,12 +6149,12 @@
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F117" s="2" t="inlineStr"/>
@@ -6165,17 +6165,17 @@
       <c r="K117" s="2" t="inlineStr"/>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M117" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N117" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6189,12 +6189,12 @@
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F118" s="2" t="inlineStr"/>
@@ -6205,7 +6205,7 @@
       <c r="K118" s="2" t="inlineStr"/>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M118" s="2" t="inlineStr">
@@ -6229,12 +6229,12 @@
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F119" s="2" t="inlineStr"/>
@@ -6245,7 +6245,7 @@
       <c r="K119" s="2" t="inlineStr"/>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M119" s="2" t="inlineStr">
@@ -6269,12 +6269,12 @@
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F120" s="2" t="inlineStr"/>
@@ -6285,7 +6285,7 @@
       <c r="K120" s="2" t="inlineStr"/>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M120" s="2" t="inlineStr">
@@ -6300,37 +6300,53 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n"/>
-      <c r="B121" s="2" t="n"/>
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr"/>
-      <c r="G121" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H121" s="2" t="inlineStr"/>
       <c r="I121" s="2" t="inlineStr"/>
       <c r="J121" s="2" t="inlineStr"/>
       <c r="K121" s="2" t="inlineStr"/>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M121" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N121" s="2" t="inlineStr">
@@ -6340,16 +6356,8 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B122" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A122" s="2" t="n"/>
+      <c r="B122" s="2" t="n"/>
       <c r="C122" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -6367,12 +6375,12 @@
       </c>
       <c r="F122" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr"/>
@@ -6381,12 +6389,12 @@
       <c r="K122" s="2" t="inlineStr"/>
       <c r="L122" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M122" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N122" s="2" t="inlineStr">
@@ -6415,12 +6423,12 @@
       </c>
       <c r="F123" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr"/>
@@ -6429,7 +6437,7 @@
       <c r="K123" s="2" t="inlineStr"/>
       <c r="L123" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M123" s="2" t="inlineStr">
@@ -6463,12 +6471,12 @@
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr"/>
@@ -6477,12 +6485,12 @@
       <c r="K124" s="2" t="inlineStr"/>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M124" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N124" s="2" t="inlineStr">
@@ -6511,12 +6519,12 @@
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr"/>
@@ -6525,7 +6533,7 @@
       <c r="K125" s="2" t="inlineStr"/>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M125" s="2" t="inlineStr">
@@ -6559,12 +6567,12 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr"/>
@@ -6573,7 +6581,7 @@
       <c r="K126" s="2" t="inlineStr"/>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M126" s="2" t="inlineStr">
@@ -6607,12 +6615,12 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr"/>
@@ -6621,7 +6629,7 @@
       <c r="K127" s="2" t="inlineStr"/>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M127" s="2" t="inlineStr">
@@ -6655,12 +6663,12 @@
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr"/>
@@ -6669,12 +6677,12 @@
       <c r="K128" s="2" t="inlineStr"/>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M128" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N128" s="2" t="inlineStr">
@@ -6703,12 +6711,12 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr"/>
@@ -6717,7 +6725,7 @@
       <c r="K129" s="2" t="inlineStr"/>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M129" s="2" t="inlineStr">
@@ -6732,31 +6740,39 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n"/>
-      <c r="B130" s="2" t="n"/>
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>Site ownership</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>site-ownership</t>
+        </is>
+      </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>site-owner</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Site owner</t>
         </is>
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>uprns</t>
+          <t>fullname</t>
         </is>
       </c>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr"/>
@@ -6765,7 +6781,7 @@
       <c r="K130" s="2" t="inlineStr"/>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M130" s="2" t="inlineStr">
@@ -6775,21 +6791,13 @@
       </c>
       <c r="N130" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="inlineStr">
-        <is>
-          <t>Site ownership</t>
-        </is>
-      </c>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>site-ownership</t>
-        </is>
-      </c>
+      <c r="A131" s="2" t="n"/>
+      <c r="B131" s="2" t="n"/>
       <c r="C131" s="2" t="inlineStr">
         <is>
           <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
@@ -6807,12 +6815,12 @@
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr"/>
@@ -6821,7 +6829,7 @@
       <c r="K131" s="2" t="inlineStr"/>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M131" s="2" t="inlineStr">
@@ -6845,31 +6853,23 @@
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>site-owner</t>
+          <t>applicant-interest</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr">
         <is>
-          <t>Site owner</t>
-        </is>
-      </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>address-text</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="inlineStr">
-        <is>
-          <t>Address Text</t>
-        </is>
-      </c>
+          <t>Applicant interest</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr"/>
+      <c r="G132" s="2" t="inlineStr"/>
       <c r="H132" s="2" t="inlineStr"/>
       <c r="I132" s="2" t="inlineStr"/>
       <c r="J132" s="2" t="inlineStr"/>
       <c r="K132" s="2" t="inlineStr"/>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Description of the applicant's interest in the land</t>
         </is>
       </c>
       <c r="M132" s="2" t="inlineStr">
@@ -6893,12 +6893,12 @@
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>applicant-interest</t>
+          <t>applicant-interest-adjoining-land</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr">
         <is>
-          <t>Applicant interest</t>
+          <t>Applicant interest adjoining land</t>
         </is>
       </c>
       <c r="F133" s="2" t="inlineStr"/>
@@ -6909,7 +6909,7 @@
       <c r="K133" s="2" t="inlineStr"/>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Description of the applicant's interest in the land</t>
+          <t>Description of the applicant's interest in the adjacent land</t>
         </is>
       </c>
       <c r="M133" s="2" t="inlineStr">
@@ -6924,21 +6924,29 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n"/>
-      <c r="B134" s="2" t="n"/>
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>For oil and gas extraction developments, who owns or has an interest in the site.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>applicant-interest-adjoining-land</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr">
         <is>
-          <t>Applicant interest adjoining land</t>
+          <t>Site seen from public area</t>
         </is>
       </c>
       <c r="F134" s="2" t="inlineStr"/>
@@ -6949,12 +6957,12 @@
       <c r="K134" s="2" t="inlineStr"/>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>Description of the applicant's interest in the adjacent land</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M134" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N134" s="2" t="inlineStr">
@@ -6964,16 +6972,8 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B135" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A135" s="2" t="n"/>
+      <c r="B135" s="2" t="n"/>
       <c r="C135" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -6981,12 +6981,12 @@
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F135" s="2" t="inlineStr"/>
@@ -6997,12 +6997,12 @@
       <c r="K135" s="2" t="inlineStr"/>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M135" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N135" s="2" t="inlineStr">
@@ -7021,12 +7021,12 @@
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F136" s="2" t="inlineStr"/>
@@ -7037,17 +7037,17 @@
       <c r="K136" s="2" t="inlineStr"/>
       <c r="L136" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M136" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N136" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7061,23 +7061,31 @@
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F137" s="2" t="inlineStr"/>
-      <c r="G137" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G137" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H137" s="2" t="inlineStr"/>
       <c r="I137" s="2" t="inlineStr"/>
       <c r="J137" s="2" t="inlineStr"/>
       <c r="K137" s="2" t="inlineStr"/>
       <c r="L137" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M137" s="2" t="inlineStr">
@@ -7087,7 +7095,7 @@
       </c>
       <c r="N137" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7111,12 +7119,12 @@
       </c>
       <c r="F138" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr"/>
@@ -7125,7 +7133,7 @@
       <c r="K138" s="2" t="inlineStr"/>
       <c r="L138" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M138" s="2" t="inlineStr">
@@ -7159,12 +7167,12 @@
       </c>
       <c r="F139" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr"/>
@@ -7173,7 +7181,7 @@
       <c r="K139" s="2" t="inlineStr"/>
       <c r="L139" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M139" s="2" t="inlineStr">
@@ -7188,40 +7196,40 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n"/>
-      <c r="B140" s="2" t="n"/>
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>Storage facilities</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>storage-facilities</t>
+        </is>
+      </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>For oil and gas extraction developments, how chemicals will be stored</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>storage-facilities-description</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F140" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G140" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Storage facilities description</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr"/>
+      <c r="G140" s="2" t="inlineStr"/>
       <c r="H140" s="2" t="inlineStr"/>
       <c r="I140" s="2" t="inlineStr"/>
       <c r="J140" s="2" t="inlineStr"/>
       <c r="K140" s="2" t="inlineStr"/>
       <c r="L140" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Details and proposed facilities for the storage of oil, fuel and chemicals and the proposed means of their protection</t>
         </is>
       </c>
       <c r="M140" s="2" t="inlineStr">
@@ -7238,27 +7246,27 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>Storage facilities</t>
+          <t>Trade effluent</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>storage-facilities</t>
+          <t>trade-effluent</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>For oil and gas extraction developments, how chemicals will be stored</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>storage-facilities-description</t>
+          <t>is-disposal-required</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
-          <t>Storage facilities description</t>
+          <t>Disposal required</t>
         </is>
       </c>
       <c r="F141" s="2" t="inlineStr"/>
@@ -7269,12 +7277,12 @@
       <c r="K141" s="2" t="inlineStr"/>
       <c r="L141" s="2" t="inlineStr">
         <is>
-          <t>Details and proposed facilities for the storage of oil, fuel and chemicals and the proposed means of their protection</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="M141" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N141" s="2" t="inlineStr">
@@ -7284,16 +7292,8 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>trade-effluent</t>
-        </is>
-      </c>
+      <c r="A142" s="2" t="n"/>
+      <c r="B142" s="2" t="n"/>
       <c r="C142" s="2" t="inlineStr">
         <is>
           <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
@@ -7301,12 +7301,12 @@
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>is-disposal-required</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F142" s="2" t="inlineStr"/>
@@ -7317,36 +7317,44 @@
       <c r="K142" s="2" t="inlineStr"/>
       <c r="L142" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="M142" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N142" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n"/>
-      <c r="B143" s="2" t="n"/>
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>trees-hedges</t>
+        </is>
+      </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>trees-on-site</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Trees on site</t>
         </is>
       </c>
       <c r="F143" s="2" t="inlineStr"/>
@@ -7357,31 +7365,23 @@
       <c r="K143" s="2" t="inlineStr"/>
       <c r="L143" s="2" t="inlineStr">
         <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
+          <t>Whether trees or hedges are present on the proposed development site</t>
         </is>
       </c>
       <c r="M143" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N143" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="inlineStr">
-        <is>
-          <t>Trees and hedges information</t>
-        </is>
-      </c>
-      <c r="B144" s="2" t="inlineStr">
-        <is>
-          <t>trees-hedges</t>
-        </is>
-      </c>
+      <c r="A144" s="2" t="n"/>
+      <c r="B144" s="2" t="n"/>
       <c r="C144" s="2" t="inlineStr">
         <is>
           <t>Details of trees and/or hedges that will be affected by the proposed development</t>
@@ -7389,12 +7389,12 @@
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>trees-on-site</t>
+          <t>trees-on-adj-land</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
-          <t>Trees on site</t>
+          <t>Trees on adjacent land</t>
         </is>
       </c>
       <c r="F144" s="2" t="inlineStr"/>
@@ -7405,7 +7405,7 @@
       <c r="K144" s="2" t="inlineStr"/>
       <c r="L144" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges are present on the proposed development site</t>
+          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
         </is>
       </c>
       <c r="M144" s="2" t="inlineStr">
@@ -7420,21 +7420,30 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n"/>
-      <c r="B145" s="2" t="n"/>
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>Oil and gas permission types</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>oilgas-permission-type</t>
+        </is>
+      </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
+</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>trees-on-adj-land</t>
+          <t>oilgas-permission-types</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr">
         <is>
-          <t>Trees on adjacent land</t>
+          <t>Oil and gas permission types[]</t>
         </is>
       </c>
       <c r="F145" s="2" t="inlineStr"/>
@@ -7445,12 +7454,12 @@
       <c r="K145" s="2" t="inlineStr"/>
       <c r="L145" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
+          <t>List of permission types being applied for</t>
         </is>
       </c>
       <c r="M145" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N145" s="2" t="inlineStr">
@@ -7460,16 +7469,8 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="inlineStr">
-        <is>
-          <t>Oil and gas permission types</t>
-        </is>
-      </c>
-      <c r="B146" s="2" t="inlineStr">
-        <is>
-          <t>oilgas-permission-type</t>
-        </is>
-      </c>
+      <c r="A146" s="2" t="n"/>
+      <c r="B146" s="2" t="n"/>
       <c r="C146" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
@@ -7478,28 +7479,36 @@
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>oilgas-permission-types</t>
+          <t>related-permissions</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
-          <t>Oil and gas permission types[]</t>
-        </is>
-      </c>
-      <c r="F146" s="2" t="inlineStr"/>
-      <c r="G146" s="2" t="inlineStr"/>
+          <t>Related permissions[]</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H146" s="2" t="inlineStr"/>
       <c r="I146" s="2" t="inlineStr"/>
       <c r="J146" s="2" t="inlineStr"/>
       <c r="K146" s="2" t="inlineStr"/>
       <c r="L146" s="2" t="inlineStr">
         <is>
-          <t>List of permission types being applied for</t>
+          <t>The reference for the related application that permission was received for</t>
         </is>
       </c>
       <c r="M146" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N146" s="2" t="inlineStr">
@@ -7529,12 +7538,12 @@
       </c>
       <c r="F147" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>oilgas-permission-type</t>
         </is>
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Oil and gas permission type</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr"/>
@@ -7543,12 +7552,12 @@
       <c r="K147" s="2" t="inlineStr"/>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application that permission was received for</t>
+          <t>An oil and gas related permission type</t>
         </is>
       </c>
       <c r="M147" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N147" s="2" t="inlineStr">
@@ -7578,12 +7587,12 @@
       </c>
       <c r="F148" s="2" t="inlineStr">
         <is>
-          <t>oilgas-permission-type</t>
+          <t>decision-date</t>
         </is>
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>Oil and gas permission type</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr"/>
@@ -7592,12 +7601,12 @@
       <c r="K148" s="2" t="inlineStr"/>
       <c r="L148" s="2" t="inlineStr">
         <is>
-          <t>An oil and gas related permission type</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M148" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N148" s="2" t="inlineStr">
@@ -7627,12 +7636,12 @@
       </c>
       <c r="F149" s="2" t="inlineStr">
         <is>
-          <t>decision-date</t>
+          <t>condition-number</t>
         </is>
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>Decision date</t>
+          <t>Condition number</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr"/>
@@ -7641,7 +7650,7 @@
       <c r="K149" s="2" t="inlineStr"/>
       <c r="L149" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Number of any condition being breached</t>
         </is>
       </c>
       <c r="M149" s="2" t="inlineStr">
@@ -7651,7 +7660,7 @@
       </c>
       <c r="N149" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7666,31 +7675,23 @@
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>related-permissions</t>
+          <t>other-details</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
-          <t>Related permissions[]</t>
-        </is>
-      </c>
-      <c r="F150" s="2" t="inlineStr">
-        <is>
-          <t>condition-number</t>
-        </is>
-      </c>
-      <c r="G150" s="2" t="inlineStr">
-        <is>
-          <t>Condition number</t>
-        </is>
-      </c>
+          <t>Other details</t>
+        </is>
+      </c>
+      <c r="F150" s="2" t="inlineStr"/>
+      <c r="G150" s="2" t="inlineStr"/>
       <c r="H150" s="2" t="inlineStr"/>
       <c r="I150" s="2" t="inlineStr"/>
       <c r="J150" s="2" t="inlineStr"/>
       <c r="K150" s="2" t="inlineStr"/>
       <c r="L150" s="2" t="inlineStr">
         <is>
-          <t>Number of any condition being breached</t>
+          <t>Explanation if other ground is selected</t>
         </is>
       </c>
       <c r="M150" s="2" t="inlineStr">
@@ -7715,12 +7716,12 @@
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>other-details</t>
+          <t>will-consolidate-permissions</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr">
         <is>
-          <t>Other details</t>
+          <t>Will consolidate permissions</t>
         </is>
       </c>
       <c r="F151" s="2" t="inlineStr"/>
@@ -7731,17 +7732,17 @@
       <c r="K151" s="2" t="inlineStr"/>
       <c r="L151" s="2" t="inlineStr">
         <is>
-          <t>Explanation if other ground is selected</t>
+          <t>Is the applicant looking to consolidate permissions?</t>
         </is>
       </c>
       <c r="M151" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N151" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7756,12 +7757,12 @@
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>will-consolidate-permissions</t>
+          <t>details</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
-          <t>Will consolidate permissions</t>
+          <t>Details</t>
         </is>
       </c>
       <c r="F152" s="2" t="inlineStr"/>
@@ -7772,17 +7773,17 @@
       <c r="K152" s="2" t="inlineStr"/>
       <c r="L152" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant looking to consolidate permissions?</t>
+          <t>Details about the consolidation or update of permissions</t>
         </is>
       </c>
       <c r="M152" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N152" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7797,23 +7798,31 @@
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>details</t>
+          <t>related-proposals</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr">
         <is>
-          <t>Details</t>
-        </is>
-      </c>
-      <c r="F153" s="2" t="inlineStr"/>
-      <c r="G153" s="2" t="inlineStr"/>
+          <t>Related proposals[]</t>
+        </is>
+      </c>
+      <c r="F153" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G153" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H153" s="2" t="inlineStr"/>
       <c r="I153" s="2" t="inlineStr"/>
       <c r="J153" s="2" t="inlineStr"/>
       <c r="K153" s="2" t="inlineStr"/>
       <c r="L153" s="2" t="inlineStr">
         <is>
-          <t>Details about the consolidation or update of permissions</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="M153" s="2" t="inlineStr">
@@ -7823,7 +7832,7 @@
       </c>
       <c r="N153" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7848,12 +7857,12 @@
       </c>
       <c r="F154" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>application-type</t>
         </is>
       </c>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Application type</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr"/>
@@ -7862,12 +7871,12 @@
       <c r="K154" s="2" t="inlineStr"/>
       <c r="L154" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>The type of planning application</t>
         </is>
       </c>
       <c r="M154" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N154" s="2" t="inlineStr">
@@ -7897,12 +7906,12 @@
       </c>
       <c r="F155" s="2" t="inlineStr">
         <is>
-          <t>application-type</t>
+          <t>decision-date</t>
         </is>
       </c>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Application type</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr"/>
@@ -7911,12 +7920,12 @@
       <c r="K155" s="2" t="inlineStr"/>
       <c r="L155" s="2" t="inlineStr">
         <is>
-          <t>The type of planning application</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M155" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N155" s="2" t="inlineStr">
@@ -7926,46 +7935,45 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n"/>
-      <c r="B156" s="2" t="n"/>
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>Development type</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>dev-type</t>
+        </is>
+      </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Module for details about types of onshore oil and gas extraction permissions already received and applying for
-</t>
+          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
         </is>
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>related-proposals</t>
+          <t>development-phase</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
-          <t>Related proposals[]</t>
-        </is>
-      </c>
-      <c r="F156" s="2" t="inlineStr">
-        <is>
-          <t>decision-date</t>
-        </is>
-      </c>
-      <c r="G156" s="2" t="inlineStr">
-        <is>
-          <t>Decision date</t>
-        </is>
-      </c>
+          <t>Development phase</t>
+        </is>
+      </c>
+      <c r="F156" s="2" t="inlineStr"/>
+      <c r="G156" s="2" t="inlineStr"/>
       <c r="H156" s="2" t="inlineStr"/>
       <c r="I156" s="2" t="inlineStr"/>
       <c r="J156" s="2" t="inlineStr"/>
       <c r="K156" s="2" t="inlineStr"/>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Phases of oil and gas development the application covers</t>
         </is>
       </c>
       <c r="M156" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N156" s="2" t="inlineStr">
@@ -7975,16 +7983,8 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="inlineStr">
-        <is>
-          <t>Development type</t>
-        </is>
-      </c>
-      <c r="B157" s="2" t="inlineStr">
-        <is>
-          <t>dev-type</t>
-        </is>
-      </c>
+      <c r="A157" s="2" t="n"/>
+      <c r="B157" s="2" t="n"/>
       <c r="C157" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
@@ -7992,12 +7992,12 @@
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>development-phase</t>
+          <t>development-description</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr">
         <is>
-          <t>Development phase</t>
+          <t>Development description</t>
         </is>
       </c>
       <c r="F157" s="2" t="inlineStr"/>
@@ -8008,12 +8008,12 @@
       <c r="K157" s="2" t="inlineStr"/>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Phases of oil and gas development the application covers</t>
+          <t>Brief description of the development, including main oils, gases, and machinery</t>
         </is>
       </c>
       <c r="M157" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N157" s="2" t="inlineStr">
@@ -8032,12 +8032,12 @@
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>development-description</t>
+          <t>quantity-cubic-metres</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr">
         <is>
-          <t>Development description</t>
+          <t>Quantity cubic metres</t>
         </is>
       </c>
       <c r="F158" s="2" t="inlineStr"/>
@@ -8048,12 +8048,12 @@
       <c r="K158" s="2" t="inlineStr"/>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Brief description of the development, including main oils, gases, and machinery</t>
+          <t>Quantity of oil or gas involved in cubic metres</t>
         </is>
       </c>
       <c r="M158" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N158" s="2" t="inlineStr">
@@ -8072,12 +8072,12 @@
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>quantity-cubic-metres</t>
+          <t>permission-period-years</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr">
         <is>
-          <t>Quantity cubic metres</t>
+          <t>Permission period years</t>
         </is>
       </c>
       <c r="F159" s="2" t="inlineStr"/>
@@ -8088,7 +8088,7 @@
       <c r="K159" s="2" t="inlineStr"/>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Quantity of oil or gas involved in cubic metres</t>
+          <t>Period of permission sought in years</t>
         </is>
       </c>
       <c r="M159" s="2" t="inlineStr">
@@ -8098,7 +8098,7 @@
       </c>
       <c r="N159" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8112,12 +8112,12 @@
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>permission-period-years</t>
+          <t>hydrocarbon-licence-block</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
-          <t>Permission period years</t>
+          <t>Hydrocarbon licence block</t>
         </is>
       </c>
       <c r="F160" s="2" t="inlineStr"/>
@@ -8128,17 +8128,17 @@
       <c r="K160" s="2" t="inlineStr"/>
       <c r="L160" s="2" t="inlineStr">
         <is>
-          <t>Period of permission sought in years</t>
+          <t>Hydrocarbon licence block where the development is located</t>
         </is>
       </c>
       <c r="M160" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N160" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8152,12 +8152,12 @@
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>hydrocarbon-licence-block</t>
+          <t>surface-site-area-hectares</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr">
         <is>
-          <t>Hydrocarbon licence block</t>
+          <t>Surface site area hectares</t>
         </is>
       </c>
       <c r="F161" s="2" t="inlineStr"/>
@@ -8168,17 +8168,17 @@
       <c r="K161" s="2" t="inlineStr"/>
       <c r="L161" s="2" t="inlineStr">
         <is>
-          <t>Hydrocarbon licence block where the development is located</t>
+          <t>Surface site area in hectares</t>
         </is>
       </c>
       <c r="M161" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N161" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8192,12 +8192,12 @@
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>surface-site-area-hectares</t>
+          <t>site-hectares-provided-by</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr">
         <is>
-          <t>Surface site area hectares</t>
+          <t>Site hectares provided by</t>
         </is>
       </c>
       <c r="F162" s="2" t="inlineStr"/>
@@ -8208,12 +8208,12 @@
       <c r="K162" s="2" t="inlineStr"/>
       <c r="L162" s="2" t="inlineStr">
         <is>
-          <t>Surface site area in hectares</t>
+          <t>Who provided the site hectares value (applicant or system)</t>
         </is>
       </c>
       <c r="M162" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N162" s="2" t="inlineStr">
@@ -8232,12 +8232,12 @@
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>site-hectares-provided-by</t>
+          <t>environmental-statement</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
-          <t>Site hectares provided by</t>
+          <t>Environmental statement</t>
         </is>
       </c>
       <c r="F163" s="2" t="inlineStr"/>
@@ -8248,17 +8248,17 @@
       <c r="K163" s="2" t="inlineStr"/>
       <c r="L163" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site hectares value (applicant or system)</t>
+          <t>Is an Environmental Statement attached to the application</t>
         </is>
       </c>
       <c r="M163" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N163" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8272,12 +8272,12 @@
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>environmental-statement</t>
+          <t>environmental-statement-reference</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
-          <t>Environmental statement</t>
+          <t>Environmental statement reference</t>
         </is>
       </c>
       <c r="F164" s="2" t="inlineStr"/>
@@ -8288,36 +8288,44 @@
       <c r="K164" s="2" t="inlineStr"/>
       <c r="L164" s="2" t="inlineStr">
         <is>
-          <t>Is an Environmental Statement attached to the application</t>
+          <t>Reference to the environmental statement document</t>
         </is>
       </c>
       <c r="M164" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N164" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="n"/>
-      <c r="B165" s="2" t="n"/>
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>Voluntary agreement</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="inlineStr">
+        <is>
+          <t>vol-agreement</t>
+        </is>
+      </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Supporting information for developments used for oil and gas exploration or mining </t>
+          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>environmental-statement-reference</t>
+          <t>draft-agreement-included</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
-          <t>Environmental statement reference</t>
+          <t>Draft agreement included</t>
         </is>
       </c>
       <c r="F165" s="2" t="inlineStr"/>
@@ -8328,31 +8336,23 @@
       <c r="K165" s="2" t="inlineStr"/>
       <c r="L165" s="2" t="inlineStr">
         <is>
-          <t>Reference to the environmental statement document</t>
+          <t>Has an outline or draft agreement been included? (True / False)</t>
         </is>
       </c>
       <c r="M165" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N165" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="inlineStr">
-        <is>
-          <t>Voluntary agreement</t>
-        </is>
-      </c>
-      <c r="B166" s="2" t="inlineStr">
-        <is>
-          <t>vol-agreement</t>
-        </is>
-      </c>
+      <c r="A166" s="2" t="n"/>
+      <c r="B166" s="2" t="n"/>
       <c r="C166" s="2" t="inlineStr">
         <is>
           <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
@@ -8360,12 +8360,12 @@
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>draft-agreement-included</t>
+          <t>agreement-summary</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
-          <t>Draft agreement included</t>
+          <t>Agreement summary</t>
         </is>
       </c>
       <c r="F166" s="2" t="inlineStr"/>
@@ -8376,55 +8376,15 @@
       <c r="K166" s="2" t="inlineStr"/>
       <c r="L166" s="2" t="inlineStr">
         <is>
-          <t>Has an outline or draft agreement been included? (True / False)</t>
+          <t>Summary of the agreement</t>
         </is>
       </c>
       <c r="M166" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N166" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="n"/>
-      <c r="B167" s="2" t="n"/>
-      <c r="C167" s="2" t="inlineStr">
-        <is>
-          <t>Details of any voluntary agreements made as part of an oil and gas extraction application.</t>
-        </is>
-      </c>
-      <c r="D167" s="2" t="inlineStr">
-        <is>
-          <t>agreement-summary</t>
-        </is>
-      </c>
-      <c r="E167" s="2" t="inlineStr">
-        <is>
-          <t>Agreement summary</t>
-        </is>
-      </c>
-      <c r="F167" s="2" t="inlineStr"/>
-      <c r="G167" s="2" t="inlineStr"/>
-      <c r="H167" s="2" t="inlineStr"/>
-      <c r="I167" s="2" t="inlineStr"/>
-      <c r="J167" s="2" t="inlineStr"/>
-      <c r="K167" s="2" t="inlineStr"/>
-      <c r="L167" s="2" t="inlineStr">
-        <is>
-          <t>Summary of the agreement</t>
-        </is>
-      </c>
-      <c r="M167" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N167" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -8432,66 +8392,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A141"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="A68:A77"/>
+    <mergeCell ref="A92:A106"/>
     <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B135:B140"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="B145:B155"/>
+    <mergeCell ref="A140"/>
+    <mergeCell ref="B165:B166"/>
     <mergeCell ref="B55"/>
+    <mergeCell ref="B134:B139"/>
+    <mergeCell ref="B107:B113"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="A24:A31"/>
-    <mergeCell ref="B85:B92"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="B130:B133"/>
     <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B93:B107"/>
-    <mergeCell ref="B157:B165"/>
-    <mergeCell ref="A67"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="B146:B156"/>
+    <mergeCell ref="A116:A120"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A67:A76"/>
+    <mergeCell ref="A145:A155"/>
     <mergeCell ref="A59"/>
-    <mergeCell ref="B108:B114"/>
-    <mergeCell ref="A144:A145"/>
     <mergeCell ref="B56:B58"/>
     <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B141"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="B143:B144"/>
     <mergeCell ref="B59"/>
-    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="B66"/>
+    <mergeCell ref="A84:A91"/>
+    <mergeCell ref="B140"/>
     <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="A122:A130"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B67:B76"/>
     <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A156:A164"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="A121:A129"/>
+    <mergeCell ref="A165:A166"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A135:A140"/>
-    <mergeCell ref="A157:A165"/>
-    <mergeCell ref="A85:A92"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B67"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A66"/>
+    <mergeCell ref="A134:A139"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="B92:B106"/>
     <mergeCell ref="B36:B41"/>
     <mergeCell ref="A42:A47"/>
-    <mergeCell ref="B122:B130"/>
+    <mergeCell ref="B141:B142"/>
     <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B156:B164"/>
     <mergeCell ref="A55"/>
     <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="B121:B129"/>
+    <mergeCell ref="A130:A133"/>
     <mergeCell ref="B2:B19"/>
     <mergeCell ref="B24:B31"/>
-    <mergeCell ref="A93:A107"/>
-    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="A82:A83"/>
     <mergeCell ref="A51:A54"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="A114:A115"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
+++ b/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
@@ -438,8 +438,8 @@
     <col width="58" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="72" customWidth="1" min="3" max="3"/>
-    <col width="35" customWidth="1" min="4" max="4"/>
-    <col width="38" customWidth="1" min="5" max="5"/>
+    <col width="36" customWidth="1" min="4" max="4"/>
+    <col width="42" customWidth="1" min="5" max="5"/>
     <col width="24" customWidth="1" min="6" max="6"/>
     <col width="29" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
@@ -4389,12 +4389,12 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>connect-to-drainage-system</t>
+          <t>connect-to-drainage-system-oil-gas</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
+          <t>Connect to drainage system (oil and gas)</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr"/>
@@ -4405,12 +4405,12 @@
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>Whether the proposal needs to connect to the existing drainage system (oil and gas applications)</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N80" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
+++ b/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
@@ -762,7 +762,7 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="M72" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N72" s="2" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="M99" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N99" s="2" t="inlineStr">
@@ -5530,7 +5530,7 @@
       </c>
       <c r="M102" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N102" s="2" t="inlineStr">
@@ -5690,7 +5690,7 @@
       </c>
       <c r="M106" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N106" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
+++ b/generated/spreadsheet/verbose/development-relating-to-the-onshore-extraction-of-oil-and-gas-extraction-oil-gas-verbose.xlsx
@@ -5669,12 +5669,12 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F106" s="2" t="inlineStr"/>
@@ -5685,12 +5685,12 @@
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N106" s="2" t="inlineStr">
